--- a/scheduler_notes_29Jul2024.xlsx
+++ b/scheduler_notes_29Jul2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\shark\shared\Shared Projects\Nataliya-Vani\Scaled Feedback Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Documents\Code\RTmocapFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343A65F-720C-4AFA-89A6-0B37EBC51CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D02723-D43C-4AE9-9052-00449154AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="EmpaticaData" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Demographics!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Demographics!$A$1:$O$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EmpaticaData!$A$1:$Q$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="145">
   <si>
     <t>Tues</t>
   </si>
@@ -378,21 +379,6 @@
     <t>Needed to switch empatica watches during day 2 (2DD to 3W3)… participant said they woke up at 6:30am</t>
   </si>
   <si>
-    <t>Day 1 start</t>
-  </si>
-  <si>
-    <t>Day 1 tag 1</t>
-  </si>
-  <si>
-    <t>Day 1 tag 2</t>
-  </si>
-  <si>
-    <t>Day 1 end</t>
-  </si>
-  <si>
-    <t>Day 2 start</t>
-  </si>
-  <si>
     <t>Day 2 ROM</t>
   </si>
   <si>
@@ -414,9 +400,6 @@
     <t>Day 2 Retention</t>
   </si>
   <si>
-    <t>Day 2 end</t>
-  </si>
-  <si>
     <t>forgot to tag proprio test (day 1 tag 2)</t>
   </si>
   <si>
@@ -475,6 +458,48 @@
   </si>
   <si>
     <t>band was set to 3 deg for switch trial only</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Walking speed (km/h)</t>
+  </si>
+  <si>
+    <t>Day 2 First NFB</t>
+  </si>
+  <si>
+    <t>Day 2 Switch</t>
+  </si>
+  <si>
+    <t>Day 2 End</t>
+  </si>
+  <si>
+    <t>Day 2 Start</t>
+  </si>
+  <si>
+    <t>Day 1 End</t>
+  </si>
+  <si>
+    <t>Day 1 Tag 2</t>
+  </si>
+  <si>
+    <t>Day 1 Tag 1</t>
+  </si>
+  <si>
+    <t>Day 1 Start</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>VB Acc (#/60)</t>
+  </si>
+  <si>
+    <t>GG 40% Place (cm)</t>
   </si>
 </sst>
 </file>
@@ -964,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1282,6 +1307,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,15 +1341,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,6 +1353,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,10 +1371,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1681,35 +1709,35 @@
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="14" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
     <col min="16" max="16" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="109"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="107" t="s">
+    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="108"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1747,8 +1775,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -1789,16 +1817,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="115"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1813,14 +1841,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="115"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1836,14 +1864,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="115"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -1859,14 +1887,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="115"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1881,14 +1909,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
       <c r="F8" s="16"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1897,14 +1925,14 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="16"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1913,14 +1941,14 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1929,14 +1957,14 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="16"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1945,14 +1973,14 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="16"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1961,14 +1989,14 @@
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -1977,14 +2005,14 @@
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1993,14 +2021,14 @@
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -2009,14 +2037,14 @@
       <c r="K15" s="14"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="115"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -2025,14 +2053,14 @@
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -2041,14 +2069,14 @@
       <c r="K17" s="14"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="115"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2057,14 +2085,14 @@
       <c r="K18" s="14"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="115"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -2073,14 +2101,14 @@
       <c r="K19" s="14"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="115"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -2089,14 +2117,14 @@
       <c r="K20" s="17"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="115"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="17"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2105,14 +2133,14 @@
       <c r="K21" s="17"/>
       <c r="L21" s="18"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="115"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="17"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2124,14 +2152,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="115"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2140,14 +2168,14 @@
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2156,14 +2184,14 @@
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2172,14 +2200,14 @@
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="115"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2188,14 +2216,14 @@
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="116"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -2225,53 +2253,53 @@
       <selection activeCell="AK3" sqref="AK3:AK6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="11" customWidth="1"/>
-    <col min="2" max="35" width="5.5546875" customWidth="1"/>
-    <col min="37" max="37" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="11" customWidth="1"/>
+    <col min="2" max="35" width="5.5703125" customWidth="1"/>
+    <col min="37" max="37" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="120"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="107" t="s">
+    <row r="1" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="108"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="110"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2378,8 +2406,8 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -2484,8 +2512,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="115"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -2527,8 +2555,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="115"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
@@ -2570,8 +2598,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="115"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
@@ -2598,7 +2626,7 @@
       <c r="W6" s="36"/>
       <c r="X6" s="34"/>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="119" t="s">
+      <c r="Z6" s="124" t="s">
         <v>32</v>
       </c>
       <c r="AA6" s="49"/>
@@ -2606,10 +2634,10 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="34"/>
-      <c r="AF6" s="117" t="s">
+      <c r="AF6" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="118" t="s">
+      <c r="AG6" s="125" t="s">
         <v>40</v>
       </c>
       <c r="AJ6" s="46" t="s">
@@ -2619,8 +2647,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="115"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
@@ -2630,7 +2658,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="53"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="123" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="43"/>
@@ -2649,16 +2677,16 @@
       <c r="W7" s="36"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="119"/>
+      <c r="Z7" s="124"/>
       <c r="AA7" s="49"/>
       <c r="AB7" s="41"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="119" t="s">
+      <c r="AD7" s="124" t="s">
         <v>35</v>
       </c>
       <c r="AE7" s="34"/>
-      <c r="AF7" s="117"/>
-      <c r="AG7" s="118"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="125"/>
       <c r="AJ7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2666,8 +2694,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
+    <row r="8" spans="1:41" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="115"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -2677,8 +2705,8 @@
       <c r="F8" s="49"/>
       <c r="G8" s="53"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="119" t="s">
+      <c r="I8" s="123"/>
+      <c r="J8" s="124" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="31"/>
@@ -2696,14 +2724,14 @@
       <c r="W8" s="36"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="41"/>
-      <c r="Z8" s="119"/>
+      <c r="Z8" s="124"/>
       <c r="AA8" s="49"/>
       <c r="AB8" s="41"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="119"/>
+      <c r="AD8" s="124"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="118"/>
+      <c r="AG8" s="125"/>
       <c r="AJ8" s="28" t="s">
         <v>21</v>
       </c>
@@ -2711,8 +2739,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+    <row r="9" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
@@ -2723,7 +2751,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="17"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="119"/>
+      <c r="J9" s="124"/>
       <c r="K9" s="31"/>
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
@@ -2743,15 +2771,15 @@
       <c r="AA9" s="49"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="119"/>
+      <c r="AD9" s="124"/>
       <c r="AE9" s="34"/>
-      <c r="AF9" s="117" t="s">
+      <c r="AF9" s="123" t="s">
         <v>45</v>
       </c>
       <c r="AG9" s="15"/>
     </row>
-    <row r="10" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+    <row r="10" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -2761,10 +2789,10 @@
       <c r="F10" s="49"/>
       <c r="G10" s="53"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="119"/>
+      <c r="J10" s="124"/>
       <c r="K10" s="31"/>
       <c r="L10" s="43"/>
       <c r="M10" s="54"/>
@@ -2786,13 +2814,13 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="118" t="s">
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="125" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+    <row r="11" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -2802,7 +2830,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="53"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="117"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="43"/>
       <c r="K11" s="31"/>
       <c r="L11" s="43"/>
@@ -2826,10 +2854,10 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="118"/>
-    </row>
-    <row r="12" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+      <c r="AG11" s="125"/>
+    </row>
+    <row r="12" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -2855,7 +2883,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="36"/>
       <c r="X12" s="34"/>
-      <c r="Y12" s="117" t="s">
+      <c r="Y12" s="123" t="s">
         <v>32</v>
       </c>
       <c r="Z12" s="41"/>
@@ -2865,10 +2893,10 @@
       <c r="AD12" s="40"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="31"/>
-      <c r="AG12" s="118"/>
-    </row>
-    <row r="13" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+      <c r="AG12" s="125"/>
+    </row>
+    <row r="13" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -2894,7 +2922,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="36"/>
       <c r="X13" s="34"/>
-      <c r="Y13" s="117"/>
+      <c r="Y13" s="123"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="49"/>
       <c r="AB13" s="41"/>
@@ -2904,8 +2932,8 @@
       <c r="AF13" s="31"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+    <row r="14" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
       <c r="B14" s="9">
         <v>0.54166666666666663</v>
       </c>
@@ -2931,26 +2959,26 @@
       <c r="V14" s="31"/>
       <c r="W14" s="36"/>
       <c r="X14" s="34"/>
-      <c r="Y14" s="117" t="s">
+      <c r="Y14" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="119" t="s">
+      <c r="Z14" s="124" t="s">
         <v>33</v>
       </c>
       <c r="AA14" s="49"/>
       <c r="AB14" s="41"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="119" t="s">
+      <c r="AD14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AE14" s="119" t="s">
+      <c r="AE14" s="124" t="s">
         <v>39</v>
       </c>
       <c r="AF14" s="31"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
@@ -2976,18 +3004,18 @@
       <c r="V15" s="31"/>
       <c r="W15" s="36"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="119"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="124"/>
       <c r="AA15" s="49"/>
       <c r="AB15" s="41"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="119"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
+    <row r="16" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
@@ -3014,19 +3042,19 @@
       <c r="W16" s="36"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="41"/>
-      <c r="Z16" s="119"/>
+      <c r="Z16" s="124"/>
       <c r="AA16" s="49"/>
       <c r="AB16" s="41"/>
       <c r="AC16" s="36"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="119" t="s">
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124" t="s">
         <v>41</v>
       </c>
       <c r="AG16" s="70"/>
     </row>
-    <row r="17" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -3037,7 +3065,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="16"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="119" t="s">
+      <c r="J17" s="124" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="31"/>
@@ -3061,11 +3089,11 @@
       <c r="AC17" s="36"/>
       <c r="AD17" s="41"/>
       <c r="AE17" s="34"/>
-      <c r="AF17" s="119"/>
+      <c r="AF17" s="124"/>
       <c r="AG17" s="70"/>
     </row>
-    <row r="18" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="115"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -3076,7 +3104,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="119"/>
+      <c r="J18" s="124"/>
       <c r="K18" s="31"/>
       <c r="L18" s="43"/>
       <c r="M18" s="54"/>
@@ -3096,15 +3124,15 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="41"/>
       <c r="AC18" s="36"/>
-      <c r="AD18" s="117" t="s">
+      <c r="AD18" s="123" t="s">
         <v>39</v>
       </c>
       <c r="AE18" s="34"/>
-      <c r="AF18" s="119"/>
+      <c r="AF18" s="124"/>
       <c r="AG18" s="17"/>
     </row>
-    <row r="19" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+    <row r="19" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="115"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
@@ -3115,7 +3143,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="119"/>
+      <c r="J19" s="124"/>
       <c r="K19" s="31"/>
       <c r="L19" s="43"/>
       <c r="M19" s="54"/>
@@ -3135,15 +3163,15 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117" t="s">
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="31"/>
       <c r="AG19" s="17"/>
     </row>
-    <row r="20" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+    <row r="20" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="115"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -3173,16 +3201,16 @@
       <c r="Z20" s="41"/>
       <c r="AA20" s="49"/>
       <c r="AB20" s="41"/>
-      <c r="AC20" s="117" t="s">
+      <c r="AC20" s="123" t="s">
         <v>34</v>
       </c>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="117"/>
+      <c r="AE20" s="123"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="115"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -3212,14 +3240,14 @@
       <c r="Z21" s="41"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="41"/>
-      <c r="AC21" s="117"/>
+      <c r="AC21" s="123"/>
       <c r="AD21" s="41"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
+    <row r="22" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="115"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
@@ -3249,7 +3277,7 @@
       <c r="Z22" s="41"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="41"/>
-      <c r="AC22" s="117" t="s">
+      <c r="AC22" s="123" t="s">
         <v>35</v>
       </c>
       <c r="AD22" s="41"/>
@@ -3257,8 +3285,8 @@
       <c r="AF22" s="31"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
+    <row r="23" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="115"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
@@ -3288,14 +3316,14 @@
       <c r="Z23" s="41"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="41"/>
-      <c r="AC23" s="117"/>
+      <c r="AC23" s="123"/>
       <c r="AD23" s="41"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
+    <row r="24" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -3331,8 +3359,8 @@
       <c r="AF24" s="31"/>
       <c r="AG24" s="15"/>
     </row>
-    <row r="25" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -3368,8 +3396,8 @@
       <c r="AF25" s="31"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="115"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -3405,8 +3433,8 @@
       <c r="AF26" s="31"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="116"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -3442,7 +3470,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="21"/>
     </row>
-    <row r="28" spans="1:37" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X28" s="38" t="s">
         <v>28</v>
       </c>
@@ -3450,7 +3478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="AJ29" s="38" t="s">
         <v>29</v>
       </c>
@@ -3460,6 +3488,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="C1:AG1"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:B2"/>
@@ -3476,13 +3511,6 @@
     <mergeCell ref="AC20:AC21"/>
     <mergeCell ref="AE19:AE20"/>
     <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG10:AG12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,54 +3526,54 @@
       <selection activeCell="AJ35" sqref="AJ35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="34" width="5.88671875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="8.88671875" style="2"/>
-    <col min="36" max="36" width="44.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="10"/>
+    <col min="2" max="34" width="5.85546875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="2"/>
+    <col min="36" max="36" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="120"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="107" t="s">
+    <row r="1" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3643,8 +3671,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -3745,8 +3773,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="115"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -3777,7 +3805,7 @@
       <c r="AA4" s="75"/>
       <c r="AB4" s="75"/>
       <c r="AC4" s="75"/>
-      <c r="AD4" s="119" t="s">
+      <c r="AD4" s="124" t="s">
         <v>65</v>
       </c>
       <c r="AE4" s="71"/>
@@ -3789,17 +3817,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="115"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="124" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="75"/>
@@ -3825,7 +3853,7 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="119"/>
+      <c r="AD5" s="124"/>
       <c r="AE5" s="71"/>
       <c r="AF5" s="84"/>
       <c r="AI5" s="62" t="s">
@@ -3835,57 +3863,57 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="115"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="119"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="124" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="117" t="s">
+      <c r="L6" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="117" t="s">
+      <c r="M6" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="119" t="s">
+      <c r="N6" s="124" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="75"/>
       <c r="P6" s="71"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="73"/>
-      <c r="S6" s="117" t="s">
+      <c r="S6" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="119" t="s">
+      <c r="T6" s="124" t="s">
         <v>53</v>
       </c>
       <c r="U6" s="75"/>
-      <c r="V6" s="117" t="s">
+      <c r="V6" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="119" t="s">
+      <c r="W6" s="124" t="s">
         <v>59</v>
       </c>
       <c r="X6" s="71"/>
       <c r="Y6" s="57"/>
-      <c r="Z6" s="117" t="s">
+      <c r="Z6" s="123" t="s">
         <v>61</v>
       </c>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="75"/>
-      <c r="AD6" s="119"/>
+      <c r="AD6" s="124"/>
       <c r="AE6" s="71"/>
       <c r="AF6" s="84"/>
       <c r="AI6" s="63" t="s">
@@ -3895,39 +3923,39 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="115"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="73"/>
       <c r="E7" s="75"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="119"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="71"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="119"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="124"/>
       <c r="O7" s="75"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="73"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="119"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="124"/>
       <c r="U7" s="75"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="119"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="124"/>
       <c r="X7" s="71"/>
       <c r="Y7" s="57"/>
-      <c r="Z7" s="117"/>
+      <c r="Z7" s="123"/>
       <c r="AA7" s="75"/>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -3941,8 +3969,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+    <row r="8" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -3950,37 +3978,37 @@
       <c r="D8" s="73"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
       <c r="J8" s="71"/>
       <c r="K8" s="73"/>
       <c r="L8" s="71"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="117" t="s">
+      <c r="N8" s="124"/>
+      <c r="O8" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="119" t="s">
+      <c r="P8" s="124" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="73"/>
       <c r="S8" s="75"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119" t="s">
+      <c r="T8" s="124"/>
+      <c r="U8" s="124" t="s">
         <v>55</v>
       </c>
       <c r="V8" s="75"/>
-      <c r="W8" s="119"/>
+      <c r="W8" s="124"/>
       <c r="X8" s="71"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="117" t="s">
+      <c r="AB8" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="119" t="s">
+      <c r="AC8" s="124" t="s">
         <v>56</v>
       </c>
       <c r="AD8" s="71"/>
@@ -3993,8 +4021,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
+    <row r="9" spans="1:36" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
@@ -4003,25 +4031,25 @@
       <c r="E9" s="69"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="119"/>
+      <c r="H9" s="124"/>
       <c r="I9" s="71"/>
       <c r="J9" s="71"/>
       <c r="K9" s="73"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="117" t="s">
+      <c r="M9" s="123" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="75"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="119"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="124"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="73"/>
-      <c r="S9" s="117" t="s">
+      <c r="S9" s="123" t="s">
         <v>54</v>
       </c>
       <c r="T9" s="75"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119" t="s">
+      <c r="U9" s="124"/>
+      <c r="V9" s="124" t="s">
         <v>60</v>
       </c>
       <c r="W9" s="71"/>
@@ -4029,8 +4057,8 @@
       <c r="Y9" s="57"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="119"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="124"/>
       <c r="AD9" s="71"/>
       <c r="AE9" s="71"/>
       <c r="AF9" s="84"/>
@@ -4041,8 +4069,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+    <row r="10" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -4056,33 +4084,33 @@
       <c r="J10" s="71"/>
       <c r="K10" s="73"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="119" t="s">
+      <c r="M10" s="123"/>
+      <c r="N10" s="124" t="s">
         <v>52</v>
       </c>
       <c r="O10" s="75"/>
-      <c r="P10" s="119"/>
+      <c r="P10" s="124"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="73"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="119" t="s">
+      <c r="S10" s="123"/>
+      <c r="T10" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
       <c r="W10" s="71"/>
       <c r="X10" s="71"/>
       <c r="Y10" s="57"/>
       <c r="Z10" s="75"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="75"/>
-      <c r="AC10" s="119"/>
+      <c r="AC10" s="124"/>
       <c r="AD10" s="71"/>
       <c r="AE10" s="71"/>
       <c r="AF10" s="84"/>
     </row>
-    <row r="11" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+    <row r="11" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -4091,25 +4119,25 @@
       <c r="E11" s="69"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="124" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="71"/>
       <c r="K11" s="73"/>
       <c r="L11" s="71"/>
       <c r="M11" s="75"/>
-      <c r="N11" s="119"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="75"/>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="73"/>
       <c r="S11" s="75"/>
-      <c r="T11" s="119"/>
+      <c r="T11" s="124"/>
       <c r="U11" s="75"/>
-      <c r="V11" s="119"/>
+      <c r="V11" s="124"/>
       <c r="W11" s="71"/>
       <c r="X11" s="71"/>
       <c r="Y11" s="57"/>
@@ -4121,8 +4149,8 @@
       <c r="AE11" s="71"/>
       <c r="AF11" s="84"/>
     </row>
-    <row r="12" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+    <row r="12" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -4131,21 +4159,21 @@
       <c r="E12" s="69"/>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="119"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="71"/>
       <c r="K12" s="73"/>
       <c r="L12" s="71"/>
       <c r="M12" s="75"/>
-      <c r="N12" s="119"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="75"/>
-      <c r="P12" s="119" t="s">
+      <c r="P12" s="124" t="s">
         <v>66</v>
       </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="73"/>
       <c r="S12" s="75"/>
-      <c r="T12" s="119"/>
+      <c r="T12" s="124"/>
       <c r="U12" s="75"/>
       <c r="V12" s="75"/>
       <c r="W12" s="71"/>
@@ -4159,8 +4187,8 @@
       <c r="AE12" s="71"/>
       <c r="AF12" s="84"/>
     </row>
-    <row r="13" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+    <row r="13" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -4170,19 +4198,19 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="119"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="71"/>
       <c r="K13" s="73"/>
       <c r="L13" s="71"/>
       <c r="M13" s="75"/>
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
-      <c r="P13" s="119"/>
+      <c r="P13" s="124"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="73"/>
       <c r="S13" s="75"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="117" t="s">
+      <c r="U13" s="123" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="75"/>
@@ -4197,40 +4225,40 @@
       <c r="AE13" s="71"/>
       <c r="AF13" s="84"/>
     </row>
-    <row r="14" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+    <row r="14" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="73"/>
       <c r="E14" s="75"/>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="124" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="75"/>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="123" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="71"/>
       <c r="J14" s="71"/>
       <c r="K14" s="73"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="119" t="s">
+      <c r="M14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="117" t="s">
+      <c r="N14" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="119" t="s">
+      <c r="O14" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="119"/>
+      <c r="P14" s="124"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="73"/>
       <c r="S14" s="75"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="117"/>
+      <c r="U14" s="123"/>
       <c r="V14" s="75"/>
       <c r="W14" s="71"/>
       <c r="X14" s="71"/>
@@ -4243,26 +4271,26 @@
       <c r="AE14" s="71"/>
       <c r="AF14" s="84"/>
     </row>
-    <row r="15" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="73"/>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="119"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="117"/>
+      <c r="H15" s="123"/>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
       <c r="K15" s="73"/>
       <c r="L15" s="71"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="119"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="124"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="73"/>
@@ -4274,7 +4302,7 @@
       <c r="X15" s="71"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="75"/>
-      <c r="AA15" s="119" t="s">
+      <c r="AA15" s="124" t="s">
         <v>57</v>
       </c>
       <c r="AB15" s="75"/>
@@ -4283,43 +4311,43 @@
       <c r="AE15" s="71"/>
       <c r="AF15" s="84"/>
     </row>
-    <row r="16" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
+    <row r="16" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="119"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
       <c r="K16" s="73"/>
       <c r="L16" s="71"/>
-      <c r="M16" s="119"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="75"/>
-      <c r="O16" s="119"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="73"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="117" t="s">
+      <c r="T16" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="117" t="s">
+      <c r="U16" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="119" t="s">
+      <c r="V16" s="124" t="s">
         <v>58</v>
       </c>
       <c r="W16" s="71"/>
       <c r="X16" s="71"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="75"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="117" t="s">
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="123" t="s">
         <v>62</v>
       </c>
       <c r="AC16" s="75"/>
@@ -4327,8 +4355,8 @@
       <c r="AE16" s="71"/>
       <c r="AF16" s="84"/>
     </row>
-    <row r="17" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -4349,24 +4377,24 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="73"/>
       <c r="S17" s="33"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="119"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="71"/>
       <c r="X17" s="71"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="75"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="119" t="s">
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="124" t="s">
         <v>62</v>
       </c>
       <c r="AD17" s="71"/>
       <c r="AE17" s="71"/>
       <c r="AF17" s="84"/>
     </row>
-    <row r="18" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="115"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -4389,22 +4417,22 @@
       <c r="S18" s="75"/>
       <c r="T18" s="75"/>
       <c r="U18" s="75"/>
-      <c r="V18" s="119"/>
+      <c r="V18" s="124"/>
       <c r="W18" s="71"/>
       <c r="X18" s="71"/>
       <c r="Y18" s="57"/>
-      <c r="Z18" s="117" t="s">
+      <c r="Z18" s="123" t="s">
         <v>57</v>
       </c>
       <c r="AA18" s="75"/>
       <c r="AB18" s="75"/>
-      <c r="AC18" s="119"/>
+      <c r="AC18" s="124"/>
       <c r="AD18" s="71"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="84"/>
     </row>
-    <row r="19" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+    <row r="19" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="115"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
@@ -4431,16 +4459,16 @@
       <c r="W19" s="71"/>
       <c r="X19" s="71"/>
       <c r="Y19" s="57"/>
-      <c r="Z19" s="117"/>
+      <c r="Z19" s="123"/>
       <c r="AA19" s="75"/>
       <c r="AB19" s="75"/>
-      <c r="AC19" s="119"/>
+      <c r="AC19" s="124"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="84"/>
     </row>
-    <row r="20" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+    <row r="20" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="115"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -4468,7 +4496,7 @@
       <c r="X20" s="71"/>
       <c r="Y20" s="57"/>
       <c r="Z20" s="75"/>
-      <c r="AA20" s="119" t="s">
+      <c r="AA20" s="124" t="s">
         <v>61</v>
       </c>
       <c r="AB20" s="75"/>
@@ -4477,8 +4505,8 @@
       <c r="AE20" s="71"/>
       <c r="AF20" s="84"/>
     </row>
-    <row r="21" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="115"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -4506,17 +4534,17 @@
       <c r="X21" s="71"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="75"/>
-      <c r="AA21" s="119"/>
+      <c r="AA21" s="124"/>
       <c r="AB21" s="75"/>
-      <c r="AC21" s="117" t="s">
+      <c r="AC21" s="123" t="s">
         <v>65</v>
       </c>
       <c r="AD21" s="71"/>
       <c r="AE21" s="71"/>
       <c r="AF21" s="84"/>
     </row>
-    <row r="22" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
+    <row r="22" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="115"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
@@ -4532,7 +4560,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="75"/>
       <c r="N22" s="75"/>
-      <c r="O22" s="117" t="s">
+      <c r="O22" s="123" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="17"/>
@@ -4546,15 +4574,15 @@
       <c r="X22" s="71"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="75"/>
-      <c r="AA22" s="119"/>
+      <c r="AA22" s="124"/>
       <c r="AB22" s="75"/>
-      <c r="AC22" s="117"/>
+      <c r="AC22" s="123"/>
       <c r="AD22" s="71"/>
       <c r="AE22" s="71"/>
       <c r="AF22" s="84"/>
     </row>
-    <row r="23" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
+    <row r="23" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="115"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
@@ -4570,7 +4598,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="75"/>
       <c r="N23" s="71"/>
-      <c r="O23" s="117"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="73"/>
@@ -4589,8 +4617,8 @@
       <c r="AE23" s="71"/>
       <c r="AF23" s="84"/>
     </row>
-    <row r="24" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
+    <row r="24" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -4625,8 +4653,8 @@
       <c r="AE24" s="71"/>
       <c r="AF24" s="84"/>
     </row>
-    <row r="25" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -4661,8 +4689,8 @@
       <c r="AE25" s="71"/>
       <c r="AF25" s="84"/>
     </row>
-    <row r="26" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="115"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -4697,8 +4725,8 @@
       <c r="AE26" s="71"/>
       <c r="AF26" s="84"/>
     </row>
-    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="116"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -4735,6 +4763,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA15:AA17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W8"/>
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="P12:P14"/>
@@ -4751,37 +4810,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA15:AA17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4796,55 +4824,55 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="35" width="5.88671875" style="2" customWidth="1"/>
-    <col min="36" max="36" width="8.88671875" style="2"/>
-    <col min="37" max="37" width="44.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="10"/>
+    <col min="2" max="35" width="5.85546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" style="2"/>
+    <col min="37" max="37" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="120"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="107" t="s">
+    <row r="1" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="108"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="110"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -4945,8 +4973,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -5050,8 +5078,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="115"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -5093,8 +5121,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="115"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
@@ -5136,13 +5164,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="115"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="68"/>
@@ -5181,13 +5209,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
+    <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="115"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
       <c r="C7" s="71"/>
-      <c r="D7" s="119"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
@@ -5224,18 +5252,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+    <row r="8" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
       <c r="C8" s="71"/>
-      <c r="D8" s="119"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="124" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="68"/>
@@ -5265,16 +5293,16 @@
       <c r="AF8" s="71"/>
       <c r="AG8" s="15"/>
     </row>
-    <row r="9" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+    <row r="9" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="119"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="68"/>
       <c r="I9" s="73"/>
       <c r="J9" s="71"/>
@@ -5302,8 +5330,8 @@
       <c r="AF9" s="71"/>
       <c r="AG9" s="15"/>
     </row>
-    <row r="10" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+    <row r="10" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -5311,7 +5339,7 @@
       <c r="D10" s="71"/>
       <c r="E10" s="68"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="119"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="68"/>
       <c r="I10" s="73"/>
       <c r="J10" s="71"/>
@@ -5339,8 +5367,8 @@
       <c r="AF10" s="71"/>
       <c r="AG10" s="15"/>
     </row>
-    <row r="11" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+    <row r="11" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -5376,8 +5404,8 @@
       <c r="AF11" s="71"/>
       <c r="AG11" s="15"/>
     </row>
-    <row r="12" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+    <row r="12" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -5413,8 +5441,8 @@
       <c r="AF12" s="71"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+    <row r="13" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -5450,8 +5478,8 @@
       <c r="AF13" s="71"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+    <row r="14" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
@@ -5487,16 +5515,16 @@
       <c r="AF14" s="71"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="124" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="68"/>
@@ -5528,14 +5556,14 @@
       <c r="AF15" s="71"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
+    <row r="16" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
@@ -5565,14 +5593,14 @@
       <c r="AF16" s="71"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="119"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
@@ -5602,8 +5630,8 @@
       <c r="AF17" s="71"/>
       <c r="AG17" s="15"/>
     </row>
-    <row r="18" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="115"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -5639,12 +5667,12 @@
       <c r="AF18" s="71"/>
       <c r="AG18" s="15"/>
     </row>
-    <row r="19" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+    <row r="19" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="115"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="123" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="71"/>
@@ -5678,12 +5706,12 @@
       <c r="AF19" s="71"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+    <row r="20" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="115"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="117"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="71"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5715,8 +5743,8 @@
       <c r="AF20" s="71"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="115"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -5752,15 +5780,15 @@
       <c r="AF21" s="71"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
+    <row r="22" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="115"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="124" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="17"/>
@@ -5793,13 +5821,13 @@
       <c r="AF22" s="71"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
+    <row r="23" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="115"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="119"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -5830,13 +5858,13 @@
       <c r="AF23" s="71"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
+    <row r="24" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
       <c r="C24" s="71"/>
-      <c r="D24" s="119"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -5867,8 +5895,8 @@
       <c r="AF24" s="71"/>
       <c r="AG24" s="15"/>
     </row>
-    <row r="25" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -5904,8 +5932,8 @@
       <c r="AF25" s="71"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="115"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -5941,8 +5969,8 @@
       <c r="AF26" s="71"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="116"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -5999,32 +6027,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77502B-B61F-4A2A-AA93-5E2021079CF0}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.44140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.44140625" style="106" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="96" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="48.28515625" style="106" customWidth="1"/>
+    <col min="10" max="10" width="185.85546875" style="106" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="107" customWidth="1"/>
+    <col min="13" max="15" width="12.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.85546875" style="2"/>
+    <col min="21" max="21" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="89" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>36</v>
       </c>
@@ -6055,8 +6087,23 @@
       <c r="J1" s="89" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K1" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -6078,14 +6125,29 @@
       <c r="G2" s="94">
         <v>0.45</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="K2" s="2">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>168</v>
+      </c>
+      <c r="O2" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="U2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="V2" s="42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -6108,16 +6170,31 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="J3" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="2">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N3" s="2">
+        <v>183.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="U3" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -6140,19 +6217,34 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="I4" s="106" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J4" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="2">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>159</v>
+      </c>
+      <c r="O4" s="2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U4" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="V4" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -6175,10 +6267,25 @@
         <v>0</v>
       </c>
       <c r="J5" s="106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>190</v>
+      </c>
+      <c r="O5" s="2">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -6204,15 +6311,30 @@
         <v>2</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>53</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>171</v>
+      </c>
+      <c r="O6" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="U6" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="125"/>
-      <c r="N6" s="126"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V6" s="127"/>
+      <c r="W6" s="128"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -6238,17 +6360,32 @@
         <v>1</v>
       </c>
       <c r="J7" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N7" s="2">
+        <v>175</v>
+      </c>
+      <c r="O7" s="2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U7" s="87"/>
+      <c r="V7" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="W7" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -6271,21 +6408,36 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="J8" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="N8" s="2">
+        <v>171</v>
+      </c>
+      <c r="O8" s="2">
+        <v>65</v>
+      </c>
+      <c r="U8" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="88">
+      <c r="V8" s="88">
         <f>COUNTIFS(D:D,"SF",C:C,"M")</f>
         <v>6</v>
       </c>
-      <c r="N8" s="99">
+      <c r="W8" s="99">
         <f>COUNTIFS(D:D,"SF",C:C,"F")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -6308,21 +6460,36 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="J9" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>174</v>
+      </c>
+      <c r="O9" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U9" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="88">
+      <c r="V9" s="88">
         <f>COUNTIFS(D:D,"TF",C:C,"M")</f>
         <v>6</v>
       </c>
-      <c r="N9" s="100">
+      <c r="W9" s="100">
         <f>COUNTIFS(D:D,"TF",C:C,"F")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -6345,21 +6512,36 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="J10" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>51</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>158</v>
+      </c>
+      <c r="O10" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="U10" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="88">
+      <c r="V10" s="88">
         <f>COUNTIFS(D:D,"NF",C:C,"M")</f>
         <v>6</v>
       </c>
-      <c r="N10" s="101">
+      <c r="W10" s="101">
         <f>COUNTIFS(D:D,"NF",C:C,"F")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -6382,21 +6564,36 @@
         <v>0.1875</v>
       </c>
       <c r="J11" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="107">
+        <v>15</v>
+      </c>
+      <c r="L11" s="107">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>168</v>
+      </c>
+      <c r="O11" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="U11" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="99">
+      <c r="V11" s="99">
         <f>COUNTIFS(E:E, "Y",C:C,"M")</f>
         <v>7</v>
       </c>
-      <c r="N11" s="15">
+      <c r="W11" s="15">
         <f>COUNTIFS(E:E, "Y",C:C,"F")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -6422,21 +6619,36 @@
         <v>1</v>
       </c>
       <c r="I12" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="107">
+        <v>16.8</v>
+      </c>
+      <c r="L12" s="107">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>179</v>
+      </c>
+      <c r="O12" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="U12" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="103">
+      <c r="V12" s="103">
         <f>COUNTIFS(E:E, "N",C:C,"M")</f>
         <v>11</v>
       </c>
-      <c r="N12" s="76">
+      <c r="W12" s="76">
         <f>COUNTIFS(E:E, "N",C:C,"F")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -6462,21 +6674,36 @@
         <v>2</v>
       </c>
       <c r="J13" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="107">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L13" s="107">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>171</v>
+      </c>
+      <c r="O13" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="U13" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="21">
+      <c r="V13" s="21">
         <f>COUNTIFS(F:F,"Y",C:C,"M")</f>
         <v>18</v>
       </c>
-      <c r="N13" s="21">
+      <c r="W13" s="21">
         <f>COUNTIFS(F:F,"Y",C:C,"F")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -6498,8 +6725,23 @@
       <c r="G14" s="94">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="107">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L14" s="107">
+        <v>51</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>190</v>
+      </c>
+      <c r="O14" s="2">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>47</v>
       </c>
@@ -6521,14 +6763,29 @@
       <c r="G15" s="95">
         <v>0.21249999999999999</v>
       </c>
-      <c r="L15" s="124" t="s">
+      <c r="K15" s="107">
+        <v>15.6</v>
+      </c>
+      <c r="L15" s="107">
+        <v>51</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="N15" s="2">
+        <v>161</v>
+      </c>
+      <c r="O15" s="2">
+        <v>62.6</v>
+      </c>
+      <c r="U15" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="126"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="128"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>48</v>
       </c>
@@ -6551,22 +6808,37 @@
         <v>0.3</v>
       </c>
       <c r="J16" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="107">
+        <v>16</v>
+      </c>
+      <c r="L16" s="107">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N16" s="2">
+        <v>172</v>
+      </c>
+      <c r="O16" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="U16" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="V16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="W16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="X16" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -6588,23 +6860,38 @@
       <c r="G17" s="96">
         <v>0.05</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="K17" s="107">
+        <v>14.8</v>
+      </c>
+      <c r="L17" s="107">
+        <v>51</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N17" s="2">
+        <v>165</v>
+      </c>
+      <c r="O17" s="2">
+        <v>56.6</v>
+      </c>
+      <c r="U17" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="97">
+      <c r="V17" s="97">
         <f>AVERAGEIF(D:D, "SF",G:G)</f>
         <v>0.1708166666666667</v>
       </c>
-      <c r="N17" s="97" cm="1">
-        <f t="array" ref="N17">STDEV(IF(D:D = "SF",G:G))</f>
+      <c r="W17" s="97" cm="1">
+        <f t="array" ref="W17">STDEV(IF(D:D = "SF",G:G))</f>
         <v>0.22549151599977943</v>
       </c>
-      <c r="O17" s="15">
+      <c r="X17" s="15">
         <f>COUNTIFS(D:D, "SF",F:F,"Y")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -6630,25 +6917,40 @@
         <v>1</v>
       </c>
       <c r="J18" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="107">
+        <v>16.8</v>
+      </c>
+      <c r="L18" s="107">
+        <v>49</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>180</v>
+      </c>
+      <c r="O18" s="2">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="U18" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="97">
+      <c r="V18" s="97">
         <f>AVERAGEIF(D:D, "TF",G:G)</f>
         <v>0.1775916666666667</v>
       </c>
-      <c r="N18" s="97" cm="1">
-        <f t="array" ref="N18">STDEV(IF(D:D = "TF",G:G))</f>
+      <c r="W18" s="97" cm="1">
+        <f t="array" ref="W18">STDEV(IF(D:D = "TF",G:G))</f>
         <v>0.18413536378699691</v>
       </c>
-      <c r="O18" s="15">
+      <c r="X18" s="15">
         <f>COUNTIFS(D:D, "TF",F:F,"Y")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -6670,23 +6972,38 @@
       <c r="G19" s="96">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="L19" s="91" t="s">
+      <c r="K19" s="107">
+        <v>16.2</v>
+      </c>
+      <c r="L19" s="107">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>163</v>
+      </c>
+      <c r="O19" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="U19" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="98">
+      <c r="V19" s="98">
         <f>AVERAGEIF(D:D, "NF",G:G)</f>
         <v>0.19895833333333332</v>
       </c>
-      <c r="N19" s="98" cm="1">
-        <f t="array" ref="N19">STDEV(IF(D:D = "NF",G:G))</f>
+      <c r="W19" s="98" cm="1">
+        <f t="array" ref="W19">STDEV(IF(D:D = "NF",G:G))</f>
         <v>0.13728892200778847</v>
       </c>
-      <c r="O19" s="21">
+      <c r="X19" s="21">
         <f>COUNTIFS(D:D, "NF",F:F,"Y")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -6712,10 +7029,25 @@
         <v>2</v>
       </c>
       <c r="J20" s="106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="K20" s="107">
+        <v>15.2</v>
+      </c>
+      <c r="L20" s="107">
+        <v>53</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="N20" s="2">
+        <v>160.5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -6740,8 +7072,23 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K21" s="107">
+        <v>19.2</v>
+      </c>
+      <c r="L21" s="107">
+        <v>51</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>196</v>
+      </c>
+      <c r="O21" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -6763,8 +7110,23 @@
       <c r="G22" s="96">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K22" s="107">
+        <v>15.2</v>
+      </c>
+      <c r="L22" s="107">
+        <v>49</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="N22" s="2">
+        <v>161</v>
+      </c>
+      <c r="O22" s="2">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -6786,8 +7148,23 @@
       <c r="G23" s="96">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K23" s="107">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L23" s="107">
+        <v>47</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N23" s="2">
+        <v>174</v>
+      </c>
+      <c r="O23" s="2">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -6809,8 +7186,23 @@
       <c r="G24" s="96">
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K24" s="107">
+        <v>15.2</v>
+      </c>
+      <c r="L24" s="107">
+        <v>49</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N24" s="2">
+        <v>155</v>
+      </c>
+      <c r="O24" s="2">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -6833,10 +7225,25 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J25" s="106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K25" s="107">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L25" s="107">
+        <v>51</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N25" s="2">
+        <v>173</v>
+      </c>
+      <c r="O25" s="2">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -6862,10 +7269,25 @@
         <v>2</v>
       </c>
       <c r="J26" s="106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="K26" s="107">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L26" s="107">
+        <v>46</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="N26" s="2">
+        <v>168</v>
+      </c>
+      <c r="O26" s="2">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -6891,10 +7313,25 @@
         <v>1</v>
       </c>
       <c r="J27" s="106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="K27" s="107">
+        <v>15.4</v>
+      </c>
+      <c r="L27" s="107">
+        <v>47</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N27" s="2">
+        <v>162</v>
+      </c>
+      <c r="O27" s="2">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -6920,10 +7357,25 @@
         <v>2</v>
       </c>
       <c r="J28" s="106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="K28" s="107">
+        <v>16</v>
+      </c>
+      <c r="L28" s="107">
+        <v>47</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>173</v>
+      </c>
+      <c r="O28" s="2">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -6945,8 +7397,23 @@
       <c r="G29" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K29" s="107">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L29" s="107">
+        <v>52</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>177</v>
+      </c>
+      <c r="O29" s="2">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -6968,8 +7435,23 @@
       <c r="G30" s="96">
         <v>0.16250000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K30" s="107">
+        <v>16.8</v>
+      </c>
+      <c r="L30" s="107">
+        <v>46</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>174</v>
+      </c>
+      <c r="O30" s="2">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -6992,10 +7474,25 @@
         <v>0.10630000000000001</v>
       </c>
       <c r="I31" s="106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="K31" s="107">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L31" s="107">
+        <v>50</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2">
+        <v>181</v>
+      </c>
+      <c r="O31" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -7020,8 +7517,23 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K32" s="107">
+        <v>16</v>
+      </c>
+      <c r="L32" s="107">
+        <v>47</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N32" s="2">
+        <v>175</v>
+      </c>
+      <c r="O32" s="2">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -7043,8 +7555,23 @@
       <c r="G33" s="96">
         <v>0.11874999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K33" s="107">
+        <v>16</v>
+      </c>
+      <c r="L33" s="107">
+        <v>51</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>161</v>
+      </c>
+      <c r="O33" s="2">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
         <v>63</v>
       </c>
@@ -7066,8 +7593,23 @@
       <c r="G34" s="96">
         <v>1.8749999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K34" s="107">
+        <v>18.8</v>
+      </c>
+      <c r="L34" s="107">
+        <v>48</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N34" s="2">
+        <v>181</v>
+      </c>
+      <c r="O34" s="2">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -7092,12 +7634,24 @@
       <c r="J35" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K35" s="107">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L35" s="107">
+        <v>54</v>
+      </c>
+      <c r="M35" s="107">
+        <v>2.8</v>
+      </c>
+      <c r="N35" s="107">
+        <v>180</v>
+      </c>
+      <c r="O35" s="107">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="P35" s="107"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -7122,8 +7676,23 @@
       <c r="J36" s="106" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K36" s="107">
+        <v>16.8</v>
+      </c>
+      <c r="L36" s="107">
+        <v>45</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
+        <v>171</v>
+      </c>
+      <c r="O36" s="2">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -7148,13 +7717,27 @@
       <c r="H37" s="2">
         <v>2</v>
       </c>
+      <c r="K37" s="107">
+        <v>15.6</v>
+      </c>
+      <c r="L37" s="107">
+        <v>48</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N37" s="2">
+        <v>172</v>
+      </c>
+      <c r="O37" s="2">
+        <v>67.3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37" xr:uid="{ED77502B-B61F-4A2A-AA93-5E2021079CF0}"/>
-  <mergeCells count="3">
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="K35:N35"/>
+  <autoFilter ref="A1:O37" xr:uid="{ED77502B-B61F-4A2A-AA93-5E2021079CF0}"/>
+  <mergeCells count="2">
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U15:X15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7164,251 +7747,1991 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5247D-4E00-4B4A-AEA2-655372E0F049}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="131" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="131" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="I1" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="J1" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="L1" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="M1" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="N1" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="O1" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="P1" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="B2" s="107">
+        <v>1</v>
+      </c>
+      <c r="C2" s="131">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D2" s="131">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="E2" s="131">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="F2" s="131">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G2" s="131">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="H2" s="131">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="I2" s="131">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="J2" s="131">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="K2" s="131">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="L2" s="131">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="M2" s="131">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="N2" s="131">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="O2" s="131">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="P2" s="131">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="Q2" s="129">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="B3" s="107">
+        <v>2</v>
+      </c>
+      <c r="C3" s="129">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="D3" s="131">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="E3" s="131">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="F3" s="131">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G3" s="131">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="H3" s="131">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I3" s="131">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J3" s="131">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="K3" s="131">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="L3" s="131">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="M3" s="131">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="N3" s="131">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="O3" s="131">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="P3" s="131">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="Q3" s="129">
+        <v>0.61805555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="B4" s="107">
+        <v>3</v>
+      </c>
+      <c r="C4" s="131">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D4" s="131">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E4" s="131">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="F4" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="G4" s="131">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="131">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="I4" s="131">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J4" s="131">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="K4" s="131">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="L4" s="131">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="M4" s="131">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="N4" s="131">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="O4" s="131">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="P4" s="131">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="Q4" s="129">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="107" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="B5" s="107">
+        <v>4</v>
+      </c>
+      <c r="C5" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="D5" s="131">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="E5" s="131">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="F5" s="131">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="131">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H5" s="131">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="I5" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="J5" s="131">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="K5" s="131">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="L5" s="131">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="M5" s="131">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="N5" s="131">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="O5" s="131">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="P5" s="131">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="Q5" s="129">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="B6" s="107">
+        <v>5</v>
+      </c>
+      <c r="C6" s="131">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="131">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E6" s="131">
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="F6" s="131">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G6" s="131">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="H6" s="131">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="I6" s="131">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="J6" s="131">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="K6" s="131">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="L6" s="131">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="M6" s="131">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="N6" s="131">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="O6" s="131">
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="P6" s="131">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="Q6" s="129">
+        <v>0.59861111111111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="B7" s="107">
+        <v>6</v>
+      </c>
+      <c r="C7" s="131">
+        <v>0.71875</v>
+      </c>
+      <c r="D7" s="131">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E7" s="131">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="F7" s="131">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="131">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="H7" s="131">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="I7" s="131">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="J7" s="131">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="K7" s="131">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="L7" s="131">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="M7" s="131">
+        <v>0.43263888888888891</v>
+      </c>
+      <c r="N7" s="131">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="O7" s="131">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="P7" s="131">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="Q7" s="129">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="107" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="B8" s="107">
+        <v>7</v>
+      </c>
+      <c r="C8" s="131">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D8" s="131">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E8" s="131">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="F8" s="131">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G8" s="131">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="H8" s="131">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="I8" s="131">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="J8" s="131">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="K8" s="131">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="L8" s="131">
+        <v>0.59375</v>
+      </c>
+      <c r="M8" s="131">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="N8" s="131">
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="O8" s="131">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="P8" s="131">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="Q8" s="129">
+        <v>0.62152777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="107" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="106" t="s">
+      <c r="B9" s="107">
+        <v>8</v>
+      </c>
+      <c r="C9" s="131">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D9" s="131">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="E9" s="131">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="F9" s="131">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G9" s="131">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H9" s="131">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I9" s="131">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="J9" s="131">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="K9" s="131">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="L9" s="129">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="M9" s="131">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="N9" s="131">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="O9" s="131">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="P9" s="131">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="Q9" s="129">
+        <v>0.65972222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="107" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="106" t="s">
+      <c r="B10" s="107">
+        <v>9</v>
+      </c>
+      <c r="C10" s="129">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D10" s="131">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E10" s="131">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="F10" s="131">
+        <v>0.40625</v>
+      </c>
+      <c r="G10" s="131">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="131">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I10" s="131">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J10" s="131">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="K10" s="131">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="L10" s="131">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="M10" s="131">
+        <v>0.41597222222222224</v>
+      </c>
+      <c r="N10" s="131">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="O10" s="131">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="P10" s="131">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="Q10" s="129">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="B11" s="107">
+        <v>10</v>
+      </c>
+      <c r="C11" s="131">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D11" s="131">
+        <v>0.4375</v>
+      </c>
+      <c r="E11" s="131">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="F11" s="131">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G11" s="131">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H11" s="131">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="I11" s="131">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="J11" s="131">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="K11" s="131">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="L11" s="131">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="M11" s="131">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="N11" s="131">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="O11" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="131">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="Q11" s="129">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="107" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="B12" s="107">
+        <v>11</v>
+      </c>
+      <c r="C12" s="131">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D12" s="131">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E12" s="131">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="F12" s="131">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G12" s="131">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H12" s="131">
+        <v>0.37013888888888891</v>
+      </c>
+      <c r="I12" s="131">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="J12" s="131">
+        <v>0.375</v>
+      </c>
+      <c r="K12" s="131">
+        <v>0.37986111111111109</v>
+      </c>
+      <c r="L12" s="131">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="M12" s="131">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="N12" s="131">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="O12" s="131">
+        <v>0.4</v>
+      </c>
+      <c r="P12" s="131">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="Q12" s="129">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+      <c r="B13" s="107">
+        <v>12</v>
+      </c>
+      <c r="C13" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="D13" s="131">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="E13" s="131">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F13" s="131">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="G13" s="131">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H13" s="131">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="I13" s="131">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="J13" s="131">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="K13" s="131">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="L13" s="131">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="M13" s="131">
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="N13" s="131">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="O13" s="131">
+        <v>0.59375</v>
+      </c>
+      <c r="P13" s="131">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="Q13" s="129">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="107">
+        <v>13</v>
+      </c>
+      <c r="C14" s="131">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D14" s="131">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="E14" s="131">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="F14" s="131">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="G14" s="131">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="H14" s="131">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="I14" s="131">
+        <v>0.41597222222222224</v>
+      </c>
+      <c r="J14" s="131">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="K14" s="131">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="L14" s="131">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="M14" s="131">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="N14" s="131">
+        <v>0.4375</v>
+      </c>
+      <c r="O14" s="131">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="P14" s="131">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="Q14" s="129">
+        <v>0.45624999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="81">
+        <v>14</v>
+      </c>
+      <c r="C15" s="131">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D15" s="131">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="E15" s="131">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F15" s="131">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="G15" s="131">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H15" s="131">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I15" s="131">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="J15" s="131">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="K15" s="131">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="L15" s="131">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="M15" s="131">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="N15" s="131">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="O15" s="131">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="P15" s="131">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="Q15" s="129">
+        <v>0.53263888888888888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
+      <c r="B16" s="81">
+        <v>15</v>
+      </c>
+      <c r="C16" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="D16" s="131">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E16" s="131">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F16" s="131">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G16" s="131">
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="131">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="I16" s="131">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="J16" s="131">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="K16" s="131">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="L16" s="131">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="M16" s="131">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="N16" s="131">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="O16" s="131">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="P16" s="131">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="Q16" s="129">
+        <v>0.43402777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="B17" s="107">
+        <v>16</v>
+      </c>
+      <c r="C17" s="131">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="D17" s="131">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="E17" s="131">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="F17" s="131">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="G17" s="131">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="H17" s="131">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="I17" s="131">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="J17" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="K17" s="131">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="L17" s="131">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="M17" s="131">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="N17" s="131">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="O17" s="131">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="P17" s="131">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="Q17" s="129">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106" t="s">
+      <c r="B18" s="107">
+        <v>17</v>
+      </c>
+      <c r="C18" s="131">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="131">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="E18" s="131">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F18" s="131">
+        <v>0.40625</v>
+      </c>
+      <c r="G18" s="131">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="H18" s="131">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I18" s="131">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="J18" s="131">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="K18" s="131">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="L18" s="131">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="M18" s="131">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="N18" s="131">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="O18" s="131">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P18" s="131">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="Q18" s="129">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106" t="s">
+      <c r="B19" s="107">
+        <v>18</v>
+      </c>
+      <c r="C19" s="131">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D19" s="131">
+        <v>0.45</v>
+      </c>
+      <c r="E19" s="131">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F19" s="131">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G19" s="131">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="H19" s="131">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="I19" s="131">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="J19" s="131">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="K19" s="131">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="L19" s="131">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="M19" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="131">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="O19" s="131">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="P19" s="131">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="Q19" s="129">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="107" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
+      <c r="B20" s="107">
+        <v>19</v>
+      </c>
+      <c r="C20" s="129">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D20" s="131">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="E20" s="131">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="F20" s="131">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G20" s="131">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H20" s="131">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="I20" s="131">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J20" s="131">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="K20" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="L20" s="131">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="M20" s="131">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="N20" s="131">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="O20" s="131">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="P20" s="131">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Q20" s="129">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="107" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="106" t="s">
+      <c r="B21" s="107">
+        <v>20</v>
+      </c>
+      <c r="C21" s="131">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D21" s="131">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="E21" s="131">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F21" s="131">
+        <v>0.4375</v>
+      </c>
+      <c r="G21" s="131">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="H21" s="131">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="I21" s="131">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="J21" s="131">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="K21" s="131">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="L21" s="131">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="M21" s="131">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="N21" s="131">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="O21" s="131">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="P21" s="131">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="Q21" s="129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="107" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106" t="s">
+      <c r="B22" s="107">
+        <v>21</v>
+      </c>
+      <c r="C22" s="131">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D22" s="131">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E22" s="131">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F22" s="131">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G22" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="131">
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="I22" s="131">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="J22" s="131">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K22" s="131">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L22" s="131">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="M22" s="131">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="N22" s="131">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="O22" s="131">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="P22" s="131">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q22" s="129">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="107" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106" t="s">
+      <c r="B23" s="107">
+        <v>22</v>
+      </c>
+      <c r="C23" s="131">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D23" s="131">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E23" s="131">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="F23" s="131">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G23" s="131">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="H23" s="131">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="I23" s="131">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="J23" s="131">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="K23" s="131">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="L23" s="131">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="M23" s="131">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="N23" s="131">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="O23" s="131">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="P23" s="131">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="Q23" s="129">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="107" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="106" t="s">
+      <c r="B24" s="107">
+        <v>23</v>
+      </c>
+      <c r="C24" s="131">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="D24" s="131">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="E24" s="131">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="F24" s="131">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G24" s="131">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H24" s="131">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="I24" s="131">
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="J24" s="131">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="K24" s="131">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="L24" s="131">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="M24" s="129">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="N24" s="131">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="O24" s="131">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="P24" s="131">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="Q24" s="131">
+        <v>0.51388888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="107" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="106" t="s">
+      <c r="B25" s="107">
+        <v>24</v>
+      </c>
+      <c r="C25" s="131">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D25" s="131">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="E25" s="131">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F25" s="131">
+        <v>0.625</v>
+      </c>
+      <c r="G25" s="131">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H25" s="131">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="I25" s="131">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="J25" s="131">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="K25" s="131">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="L25" s="131">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="M25" s="131">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="N25" s="131">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="O25" s="131">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="P25" s="131">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="Q25" s="129">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="107" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="106" t="s">
+      <c r="B26" s="107">
+        <v>25</v>
+      </c>
+      <c r="C26" s="131">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D26" s="131">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E26" s="131">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="F26" s="131">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G26" s="131">
+        <v>0.4375</v>
+      </c>
+      <c r="H26" s="131">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="I26" s="131">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="J26" s="131">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="K26" s="131">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="L26" s="131">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="M26" s="131">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="N26" s="131">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="O26" s="131">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="P26" s="131">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="Q26" s="129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106" t="s">
+      <c r="B27" s="107">
+        <v>26</v>
+      </c>
+      <c r="C27" s="131">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="D27" s="131">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="E27" s="131">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="F27" s="131">
+        <v>0.625</v>
+      </c>
+      <c r="G27" s="131">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H27" s="131">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="131">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="J27" s="131">
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="K27" s="131">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="L27" s="131">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="M27" s="131">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="N27" s="131">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="O27" s="131">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="P27" s="131">
+        <v>0.64097222222222228</v>
+      </c>
+      <c r="Q27" s="129">
+        <v>0.64930555555555558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="106" t="s">
+      <c r="B28" s="107">
+        <v>27</v>
+      </c>
+      <c r="C28" s="131">
+        <v>0.375</v>
+      </c>
+      <c r="D28" s="131">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E28" s="131">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="F28" s="131">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="G28" s="131">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H28" s="131">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="I28" s="131">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="J28" s="131">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="K28" s="131">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="L28" s="131">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="M28" s="131">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="N28" s="131">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="O28" s="131">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="P28" s="131">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="Q28" s="129">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="106" t="s">
+      <c r="B29" s="107">
+        <v>28</v>
+      </c>
+      <c r="C29" s="131">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D29" s="131">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E29" s="131">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F29" s="131">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="G29" s="131">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H29" s="131">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="I29" s="131">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="J29" s="131">
+        <v>0.6875</v>
+      </c>
+      <c r="K29" s="131">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="L29" s="131">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="M29" s="131">
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="N29" s="131">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="O29" s="131">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="P29" s="131">
+        <v>0.71875</v>
+      </c>
+      <c r="Q29" s="129">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="107" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="B30" s="107">
+        <v>29</v>
+      </c>
+      <c r="C30" s="131">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D30" s="131">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E30" s="131">
+        <v>0.64513888888888893</v>
+      </c>
+      <c r="F30" s="131">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G30" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="H30" s="131">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="I30" s="131">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="J30" s="131">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K30" s="131">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="L30" s="131">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="M30" s="131">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="N30" s="131">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="O30" s="131">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="P30" s="131">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="Q30" s="129">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="107" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106" t="s">
+      <c r="B31" s="107">
+        <v>30</v>
+      </c>
+      <c r="C31" s="131">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D31" s="131">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E31" s="131">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F31" s="131">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G31" s="131">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H31" s="131">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="I31" s="131">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J31" s="131">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="K31" s="131">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="L31" s="131">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M31" s="131">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="N31" s="131">
+        <v>0.46875</v>
+      </c>
+      <c r="O31" s="131">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="P31" s="131">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="Q31" s="129">
+        <v>0.49652777777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="107" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="106" t="s">
+      <c r="B32" s="107">
+        <v>31</v>
+      </c>
+      <c r="C32" s="131">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D32" s="131">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E32" s="131">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="F32" s="131">
+        <v>0.625</v>
+      </c>
+      <c r="G32" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="H32" s="131">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="I32" s="131">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="J32" s="131">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="K32" s="131">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="L32" s="131">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="M32" s="131">
+        <v>0.59375</v>
+      </c>
+      <c r="N32" s="131">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="O32" s="131">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P32" s="131">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="Q32" s="129">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="107" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="90" t="s">
+      <c r="B33" s="107">
+        <v>32</v>
+      </c>
+      <c r="C33" s="131">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D33" s="131">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="E33" s="131">
+        <v>0.70694444444444449</v>
+      </c>
+      <c r="F33" s="131">
+        <v>0.71875</v>
+      </c>
+      <c r="G33" s="131">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H33" s="131">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I33" s="131">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="J33" s="131">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="K33" s="131">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="L33" s="131">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="M33" s="131">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="N33" s="131">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="O33" s="131">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="P33" s="131">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="Q33" s="129">
+        <v>0.39930555555555558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="107" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="106" t="s">
+      <c r="B34" s="90">
+        <v>33</v>
+      </c>
+      <c r="C34" s="131">
+        <v>0.625</v>
+      </c>
+      <c r="D34" s="131">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E34" s="131">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="F34" s="131">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G34" s="131">
+        <v>0.40625</v>
+      </c>
+      <c r="H34" s="131">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I34" s="131">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="J34" s="131">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="K34" s="131">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="L34" s="131">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="M34" s="131">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="N34" s="131">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="O34" s="131">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="P34" s="131">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="Q34" s="129">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="107" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="106" t="s">
+      <c r="B35" s="107">
+        <v>34</v>
+      </c>
+      <c r="C35" s="131">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D35" s="131">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E35" s="131">
+        <v>0.73124999999999996</v>
+      </c>
+      <c r="F35" s="131">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G35" s="131">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="H35" s="131">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="I35" s="131">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="J35" s="131">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="K35" s="131">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="L35" s="131">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="M35" s="131">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="N35" s="131">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="O35" s="131">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="P35" s="131">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="Q35" s="129">
+        <v>0.76041666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="107" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="106" t="s">
+      <c r="B36" s="107">
+        <v>35</v>
+      </c>
+      <c r="C36" s="131">
+        <v>0.5625</v>
+      </c>
+      <c r="D36" s="131">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="E36" s="131">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="F36" s="131">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G36" s="131">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="H36" s="131">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="I36" s="131">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="J36" s="131">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="K36" s="131">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="L36" s="131">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="M36" s="131">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="N36" s="131">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="O36" s="131">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="P36" s="131">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="Q36" s="129">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="107" t="s">
         <v>67</v>
       </c>
+      <c r="B37" s="107">
+        <v>36</v>
+      </c>
+      <c r="C37" s="131">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D37" s="131">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E37" s="131">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F37" s="131">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G37" s="131">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="H37" s="131">
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="I37" s="131">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="J37" s="131">
+        <v>0.40138888888888891</v>
+      </c>
+      <c r="K37" s="131">
+        <v>0.40625</v>
+      </c>
+      <c r="L37" s="131">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="M37" s="131">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="N37" s="131">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="O37" s="131">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="P37" s="131">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="Q37" s="129">
+        <v>0.44097222222222221</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q37" xr:uid="{B7A5247D-4E00-4B4A-AEA2-655372E0F049}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheduler_notes_29Jul2024.xlsx
+++ b/scheduler_notes_29Jul2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Documents\Code\RTmocapFB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Code\RTmocapFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D02723-D43C-4AE9-9052-00449154AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31A212-AA44-4FC0-A40A-9229253CFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
+    <workbookView xWindow="4050" yWindow="2025" windowWidth="23460" windowHeight="15435" activeTab="4" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="146">
   <si>
     <t>Tues</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>GG 40% Place (cm)</t>
+  </si>
+  <si>
+    <t>Two static trials: one is missing the left ASIS and the other is missing right medial knee, so look at both static trials that were exported</t>
   </si>
 </sst>
 </file>
@@ -1311,69 +1314,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,24 +1723,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="109" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1779,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -1818,15 +1821,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1842,13 +1845,13 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1865,13 +1868,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -1888,13 +1891,13 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1910,13 +1913,13 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="16"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1926,13 +1929,13 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="16"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1942,13 +1945,13 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1958,13 +1961,13 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="16"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1974,13 +1977,13 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="16"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1990,13 +1993,13 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -2006,13 +2009,13 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2022,13 +2025,13 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -2038,13 +2041,13 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -2054,13 +2057,13 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -2070,13 +2073,13 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2086,13 +2089,13 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -2102,13 +2105,13 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -2118,13 +2121,13 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="17"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2134,13 +2137,13 @@
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="17"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2153,13 +2156,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2169,13 +2172,13 @@
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2185,13 +2188,13 @@
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2201,13 +2204,13 @@
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2217,13 +2220,13 @@
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -2261,45 +2264,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="109" t="s">
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="110"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="AO2" s="1"/>
     </row>
     <row r="3" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -2513,7 +2516,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -2556,7 +2559,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
@@ -2599,7 +2602,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
@@ -2634,10 +2637,10 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="34"/>
-      <c r="AF6" s="123" t="s">
+      <c r="AF6" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="125" t="s">
+      <c r="AG6" s="123" t="s">
         <v>40</v>
       </c>
       <c r="AJ6" s="46" t="s">
@@ -2648,7 +2651,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
@@ -2658,7 +2661,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="53"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="122" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="43"/>
@@ -2685,8 +2688,8 @@
         <v>35</v>
       </c>
       <c r="AE7" s="34"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="125"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="123"/>
       <c r="AJ7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2698,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -2705,7 +2708,7 @@
       <c r="F8" s="49"/>
       <c r="G8" s="53"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="123"/>
+      <c r="I8" s="122"/>
       <c r="J8" s="124" t="s">
         <v>26</v>
       </c>
@@ -2731,7 +2734,7 @@
       <c r="AD8" s="124"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="125"/>
+      <c r="AG8" s="123"/>
       <c r="AJ8" s="28" t="s">
         <v>21</v>
       </c>
@@ -2740,7 +2743,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
@@ -2773,13 +2776,13 @@
       <c r="AC9" s="44"/>
       <c r="AD9" s="124"/>
       <c r="AE9" s="34"/>
-      <c r="AF9" s="123" t="s">
+      <c r="AF9" s="122" t="s">
         <v>45</v>
       </c>
       <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="F10" s="49"/>
       <c r="G10" s="53"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="122" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="124"/>
@@ -2814,13 +2817,13 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="125" t="s">
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="123" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -2830,7 +2833,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="53"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="123"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="43"/>
       <c r="K11" s="31"/>
       <c r="L11" s="43"/>
@@ -2854,10 +2857,10 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="125"/>
+      <c r="AG11" s="123"/>
     </row>
     <row r="12" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="36"/>
       <c r="X12" s="34"/>
-      <c r="Y12" s="123" t="s">
+      <c r="Y12" s="122" t="s">
         <v>32</v>
       </c>
       <c r="Z12" s="41"/>
@@ -2893,10 +2896,10 @@
       <c r="AD12" s="40"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="31"/>
-      <c r="AG12" s="125"/>
+      <c r="AG12" s="123"/>
     </row>
     <row r="13" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -2922,7 +2925,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="36"/>
       <c r="X13" s="34"/>
-      <c r="Y13" s="123"/>
+      <c r="Y13" s="122"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="49"/>
       <c r="AB13" s="41"/>
@@ -2933,7 +2936,7 @@
       <c r="AG13" s="15"/>
     </row>
     <row r="14" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="9">
         <v>0.54166666666666663</v>
       </c>
@@ -2959,7 +2962,7 @@
       <c r="V14" s="31"/>
       <c r="W14" s="36"/>
       <c r="X14" s="34"/>
-      <c r="Y14" s="123" t="s">
+      <c r="Y14" s="122" t="s">
         <v>33</v>
       </c>
       <c r="Z14" s="124" t="s">
@@ -2978,7 +2981,7 @@
       <c r="AG14" s="15"/>
     </row>
     <row r="15" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
@@ -3004,7 +3007,7 @@
       <c r="V15" s="31"/>
       <c r="W15" s="36"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="123"/>
+      <c r="Y15" s="122"/>
       <c r="Z15" s="124"/>
       <c r="AA15" s="49"/>
       <c r="AB15" s="41"/>
@@ -3015,7 +3018,7 @@
       <c r="AG15" s="15"/>
     </row>
     <row r="16" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
@@ -3054,7 +3057,7 @@
       <c r="AG16" s="70"/>
     </row>
     <row r="17" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -3093,7 +3096,7 @@
       <c r="AG17" s="70"/>
     </row>
     <row r="18" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -3124,7 +3127,7 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="41"/>
       <c r="AC18" s="36"/>
-      <c r="AD18" s="123" t="s">
+      <c r="AD18" s="122" t="s">
         <v>39</v>
       </c>
       <c r="AE18" s="34"/>
@@ -3132,7 +3135,7 @@
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
@@ -3163,15 +3166,15 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
-      <c r="AD19" s="123"/>
-      <c r="AE19" s="123" t="s">
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="31"/>
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -3201,16 +3204,16 @@
       <c r="Z20" s="41"/>
       <c r="AA20" s="49"/>
       <c r="AB20" s="41"/>
-      <c r="AC20" s="123" t="s">
+      <c r="AC20" s="122" t="s">
         <v>34</v>
       </c>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="123"/>
+      <c r="AE20" s="122"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="17"/>
     </row>
     <row r="21" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -3240,14 +3243,14 @@
       <c r="Z21" s="41"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="41"/>
-      <c r="AC21" s="123"/>
+      <c r="AC21" s="122"/>
       <c r="AD21" s="41"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="15"/>
     </row>
     <row r="22" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
@@ -3277,7 +3280,7 @@
       <c r="Z22" s="41"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="41"/>
-      <c r="AC22" s="123" t="s">
+      <c r="AC22" s="122" t="s">
         <v>35</v>
       </c>
       <c r="AD22" s="41"/>
@@ -3286,7 +3289,7 @@
       <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
@@ -3316,14 +3319,14 @@
       <c r="Z23" s="41"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="41"/>
-      <c r="AC23" s="123"/>
+      <c r="AC23" s="122"/>
       <c r="AD23" s="41"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -3360,7 +3363,7 @@
       <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -3397,7 +3400,7 @@
       <c r="AG25" s="15"/>
     </row>
     <row r="26" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -3434,7 +3437,7 @@
       <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -3488,13 +3491,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="C1:AG1"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:B2"/>
@@ -3511,6 +3507,13 @@
     <mergeCell ref="AC20:AC21"/>
     <mergeCell ref="AE19:AE20"/>
     <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG10:AG12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,44 +3539,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="109" t="s">
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3675,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -3774,7 +3777,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -3818,13 +3821,13 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="122" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="124" t="s">
@@ -3864,13 +3867,13 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="123"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="124"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
@@ -3879,10 +3882,10 @@
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="122" t="s">
         <v>50</v>
       </c>
       <c r="N6" s="124" t="s">
@@ -3892,14 +3895,14 @@
       <c r="P6" s="71"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="73"/>
-      <c r="S6" s="123" t="s">
+      <c r="S6" s="122" t="s">
         <v>53</v>
       </c>
       <c r="T6" s="124" t="s">
         <v>53</v>
       </c>
       <c r="U6" s="75"/>
-      <c r="V6" s="123" t="s">
+      <c r="V6" s="122" t="s">
         <v>59</v>
       </c>
       <c r="W6" s="124" t="s">
@@ -3907,7 +3910,7 @@
       </c>
       <c r="X6" s="71"/>
       <c r="Y6" s="57"/>
-      <c r="Z6" s="123" t="s">
+      <c r="Z6" s="122" t="s">
         <v>61</v>
       </c>
       <c r="AA6" s="75"/>
@@ -3924,7 +3927,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
@@ -3932,7 +3935,7 @@
       <c r="D7" s="73"/>
       <c r="E7" s="75"/>
       <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="122" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="124" t="s">
@@ -3941,21 +3944,21 @@
       <c r="I7" s="124"/>
       <c r="J7" s="71"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
       <c r="N7" s="124"/>
       <c r="O7" s="75"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="73"/>
-      <c r="S7" s="123"/>
+      <c r="S7" s="122"/>
       <c r="T7" s="124"/>
       <c r="U7" s="75"/>
-      <c r="V7" s="123"/>
+      <c r="V7" s="122"/>
       <c r="W7" s="124"/>
       <c r="X7" s="71"/>
       <c r="Y7" s="57"/>
-      <c r="Z7" s="123"/>
+      <c r="Z7" s="122"/>
       <c r="AA7" s="75"/>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -3970,7 +3973,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -3978,7 +3981,7 @@
       <c r="D8" s="73"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="123"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="124"/>
       <c r="I8" s="124"/>
       <c r="J8" s="71"/>
@@ -3986,7 +3989,7 @@
       <c r="L8" s="71"/>
       <c r="M8" s="75"/>
       <c r="N8" s="124"/>
-      <c r="O8" s="123" t="s">
+      <c r="O8" s="122" t="s">
         <v>49</v>
       </c>
       <c r="P8" s="124" t="s">
@@ -4005,7 +4008,7 @@
       <c r="Y8" s="57"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="123" t="s">
+      <c r="AB8" s="122" t="s">
         <v>56</v>
       </c>
       <c r="AC8" s="124" t="s">
@@ -4022,7 +4025,7 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
@@ -4036,15 +4039,15 @@
       <c r="J9" s="71"/>
       <c r="K9" s="73"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="123" t="s">
+      <c r="M9" s="122" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="75"/>
-      <c r="O9" s="123"/>
+      <c r="O9" s="122"/>
       <c r="P9" s="124"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="73"/>
-      <c r="S9" s="123" t="s">
+      <c r="S9" s="122" t="s">
         <v>54</v>
       </c>
       <c r="T9" s="75"/>
@@ -4057,7 +4060,7 @@
       <c r="Y9" s="57"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="123"/>
+      <c r="AB9" s="122"/>
       <c r="AC9" s="124"/>
       <c r="AD9" s="71"/>
       <c r="AE9" s="71"/>
@@ -4070,7 +4073,7 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -4084,7 +4087,7 @@
       <c r="J10" s="71"/>
       <c r="K10" s="73"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="123"/>
+      <c r="M10" s="122"/>
       <c r="N10" s="124" t="s">
         <v>52</v>
       </c>
@@ -4092,7 +4095,7 @@
       <c r="P10" s="124"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="73"/>
-      <c r="S10" s="123"/>
+      <c r="S10" s="122"/>
       <c r="T10" s="124" t="s">
         <v>54</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="AF10" s="84"/>
     </row>
     <row r="11" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="E11" s="69"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="123" t="s">
+      <c r="H11" s="122" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="124" t="s">
@@ -4150,7 +4153,7 @@
       <c r="AF11" s="84"/>
     </row>
     <row r="12" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -4159,7 +4162,7 @@
       <c r="E12" s="69"/>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="123"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="124"/>
       <c r="J12" s="71"/>
       <c r="K12" s="73"/>
@@ -4188,7 +4191,7 @@
       <c r="AF12" s="84"/>
     </row>
     <row r="13" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="R13" s="73"/>
       <c r="S13" s="75"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="123" t="s">
+      <c r="U13" s="122" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="75"/>
@@ -4226,7 +4229,7 @@
       <c r="AF13" s="84"/>
     </row>
     <row r="14" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="75"/>
-      <c r="H14" s="123" t="s">
+      <c r="H14" s="122" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="71"/>
@@ -4247,7 +4250,7 @@
       <c r="M14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="123" t="s">
+      <c r="N14" s="122" t="s">
         <v>46</v>
       </c>
       <c r="O14" s="124" t="s">
@@ -4258,7 +4261,7 @@
       <c r="R14" s="73"/>
       <c r="S14" s="75"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="123"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="75"/>
       <c r="W14" s="71"/>
       <c r="X14" s="71"/>
@@ -4272,24 +4275,24 @@
       <c r="AF14" s="84"/>
     </row>
     <row r="15" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="73"/>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="122" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="124"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="123"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
       <c r="K15" s="73"/>
       <c r="L15" s="71"/>
       <c r="M15" s="124"/>
-      <c r="N15" s="123"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="124"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="71"/>
@@ -4312,13 +4315,13 @@
       <c r="AF15" s="84"/>
     </row>
     <row r="16" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="123"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="124"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
@@ -4333,10 +4336,10 @@
       <c r="Q16" s="71"/>
       <c r="R16" s="73"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="123" t="s">
+      <c r="T16" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="123" t="s">
+      <c r="U16" s="122" t="s">
         <v>58</v>
       </c>
       <c r="V16" s="124" t="s">
@@ -4347,7 +4350,7 @@
       <c r="Y16" s="57"/>
       <c r="Z16" s="75"/>
       <c r="AA16" s="124"/>
-      <c r="AB16" s="123" t="s">
+      <c r="AB16" s="122" t="s">
         <v>62</v>
       </c>
       <c r="AC16" s="75"/>
@@ -4356,7 +4359,7 @@
       <c r="AF16" s="84"/>
     </row>
     <row r="17" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -4377,15 +4380,15 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="73"/>
       <c r="S17" s="33"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
       <c r="V17" s="124"/>
       <c r="W17" s="71"/>
       <c r="X17" s="71"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="75"/>
       <c r="AA17" s="124"/>
-      <c r="AB17" s="123"/>
+      <c r="AB17" s="122"/>
       <c r="AC17" s="124" t="s">
         <v>62</v>
       </c>
@@ -4394,7 +4397,7 @@
       <c r="AF17" s="84"/>
     </row>
     <row r="18" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -4421,7 +4424,7 @@
       <c r="W18" s="71"/>
       <c r="X18" s="71"/>
       <c r="Y18" s="57"/>
-      <c r="Z18" s="123" t="s">
+      <c r="Z18" s="122" t="s">
         <v>57</v>
       </c>
       <c r="AA18" s="75"/>
@@ -4432,7 +4435,7 @@
       <c r="AF18" s="84"/>
     </row>
     <row r="19" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
@@ -4459,7 +4462,7 @@
       <c r="W19" s="71"/>
       <c r="X19" s="71"/>
       <c r="Y19" s="57"/>
-      <c r="Z19" s="123"/>
+      <c r="Z19" s="122"/>
       <c r="AA19" s="75"/>
       <c r="AB19" s="75"/>
       <c r="AC19" s="124"/>
@@ -4468,7 +4471,7 @@
       <c r="AF19" s="84"/>
     </row>
     <row r="20" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -4506,7 +4509,7 @@
       <c r="AF20" s="84"/>
     </row>
     <row r="21" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -4536,7 +4539,7 @@
       <c r="Z21" s="75"/>
       <c r="AA21" s="124"/>
       <c r="AB21" s="75"/>
-      <c r="AC21" s="123" t="s">
+      <c r="AC21" s="122" t="s">
         <v>65</v>
       </c>
       <c r="AD21" s="71"/>
@@ -4544,7 +4547,7 @@
       <c r="AF21" s="84"/>
     </row>
     <row r="22" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
@@ -4560,7 +4563,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="75"/>
       <c r="N22" s="75"/>
-      <c r="O22" s="123" t="s">
+      <c r="O22" s="122" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="17"/>
@@ -4576,13 +4579,13 @@
       <c r="Z22" s="75"/>
       <c r="AA22" s="124"/>
       <c r="AB22" s="75"/>
-      <c r="AC22" s="123"/>
+      <c r="AC22" s="122"/>
       <c r="AD22" s="71"/>
       <c r="AE22" s="71"/>
       <c r="AF22" s="84"/>
     </row>
     <row r="23" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="75"/>
       <c r="N23" s="71"/>
-      <c r="O23" s="123"/>
+      <c r="O23" s="122"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="73"/>
@@ -4618,7 +4621,7 @@
       <c r="AF23" s="84"/>
     </row>
     <row r="24" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -4654,7 +4657,7 @@
       <c r="AF24" s="84"/>
     </row>
     <row r="25" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -4690,7 +4693,7 @@
       <c r="AF25" s="84"/>
     </row>
     <row r="26" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -4726,7 +4729,7 @@
       <c r="AF26" s="84"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -4763,21 +4766,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="C1:AF1"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AC17:AC19"/>
     <mergeCell ref="AC21:AC22"/>
@@ -4794,22 +4798,21 @@
     <mergeCell ref="AA20:AA22"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W8"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="C1:AF1"/>
-    <mergeCell ref="A3:A27"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4834,45 +4837,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="109" t="s">
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="110"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -4974,7 +4977,7 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -5079,7 +5082,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -5122,7 +5125,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
@@ -5165,7 +5168,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
@@ -5210,7 +5213,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
@@ -5253,14 +5256,14 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="124"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="122" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="124" t="s">
@@ -5294,14 +5297,14 @@
       <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="123"/>
+      <c r="F9" s="122"/>
       <c r="G9" s="124"/>
       <c r="H9" s="68"/>
       <c r="I9" s="73"/>
@@ -5331,7 +5334,7 @@
       <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -5368,7 +5371,7 @@
       <c r="AG10" s="15"/>
     </row>
     <row r="11" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -5405,7 +5408,7 @@
       <c r="AG11" s="15"/>
     </row>
     <row r="12" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -5442,7 +5445,7 @@
       <c r="AG12" s="15"/>
     </row>
     <row r="13" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -5479,7 +5482,7 @@
       <c r="AG13" s="15"/>
     </row>
     <row r="14" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
@@ -5516,12 +5519,12 @@
       <c r="AG14" s="15"/>
     </row>
     <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="122" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="124" t="s">
@@ -5557,12 +5560,12 @@
       <c r="AG15" s="15"/>
     </row>
     <row r="16" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="123"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="124"/>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -5594,7 +5597,7 @@
       <c r="AG16" s="15"/>
     </row>
     <row r="17" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -5631,7 +5634,7 @@
       <c r="AG17" s="15"/>
     </row>
     <row r="18" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -5668,11 +5671,11 @@
       <c r="AG18" s="15"/>
     </row>
     <row r="19" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="122" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="71"/>
@@ -5707,11 +5710,11 @@
       <c r="AG19" s="15"/>
     </row>
     <row r="20" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="123"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="71"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5744,7 +5747,7 @@
       <c r="AG20" s="15"/>
     </row>
     <row r="21" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -5781,11 +5784,11 @@
       <c r="AG21" s="15"/>
     </row>
     <row r="22" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="122" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="124" t="s">
@@ -5822,11 +5825,11 @@
       <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="123"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="124"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -5859,7 +5862,7 @@
       <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -5896,7 +5899,7 @@
       <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -5933,7 +5936,7 @@
       <c r="AG25" s="15"/>
     </row>
     <row r="26" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -5970,7 +5973,7 @@
       <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -6029,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77502B-B61F-4A2A-AA93-5E2021079CF0}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6125,6 +6128,9 @@
       <c r="G2" s="94">
         <v>0.45</v>
       </c>
+      <c r="J2" s="106" t="s">
+        <v>145</v>
+      </c>
       <c r="K2" s="2">
         <v>17</v>
       </c>
@@ -6328,11 +6334,11 @@
       <c r="O6" s="2">
         <v>77.3</v>
       </c>
-      <c r="U6" s="126" t="s">
+      <c r="U6" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="127"/>
-      <c r="W6" s="128"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="131"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6778,12 +6784,12 @@
       <c r="O15" s="2">
         <v>62.6</v>
       </c>
-      <c r="U15" s="126" t="s">
+      <c r="U15" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="128"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="131"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
@@ -7749,7 +7755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5247D-4E00-4B4A-AEA2-655372E0F049}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -7757,16 +7763,16 @@
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="131" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="111" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="111" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="111" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="111" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7776,49 +7782,49 @@
       <c r="B1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="130" t="s">
+      <c r="L1" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="130" t="s">
+      <c r="M1" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="130" t="s">
+      <c r="N1" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="130" t="s">
+      <c r="O1" s="110" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="130" t="s">
+      <c r="Q1" s="110" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7829,49 +7835,49 @@
       <c r="B2" s="107">
         <v>1</v>
       </c>
-      <c r="C2" s="131">
+      <c r="C2" s="111">
         <v>0.40277777777777779</v>
       </c>
-      <c r="D2" s="131">
+      <c r="D2" s="111">
         <v>0.41111111111111109</v>
       </c>
-      <c r="E2" s="131">
+      <c r="E2" s="111">
         <v>0.42777777777777776</v>
       </c>
-      <c r="F2" s="131">
+      <c r="F2" s="111">
         <v>0.43611111111111112</v>
       </c>
-      <c r="G2" s="131">
+      <c r="G2" s="111">
         <v>0.4152777777777778</v>
       </c>
-      <c r="H2" s="131">
+      <c r="H2" s="111">
         <v>0.4284722222222222</v>
       </c>
-      <c r="I2" s="131">
+      <c r="I2" s="111">
         <v>0.43611111111111112</v>
       </c>
-      <c r="J2" s="131">
+      <c r="J2" s="111">
         <v>0.43888888888888888</v>
       </c>
-      <c r="K2" s="131">
+      <c r="K2" s="111">
         <v>0.44305555555555554</v>
       </c>
-      <c r="L2" s="131">
+      <c r="L2" s="111">
         <v>0.44930555555555557</v>
       </c>
-      <c r="M2" s="131">
+      <c r="M2" s="111">
         <v>0.45416666666666666</v>
       </c>
-      <c r="N2" s="131">
+      <c r="N2" s="111">
         <v>0.45902777777777776</v>
       </c>
-      <c r="O2" s="131">
+      <c r="O2" s="111">
         <v>0.46458333333333335</v>
       </c>
-      <c r="P2" s="131">
+      <c r="P2" s="111">
         <v>0.47083333333333333</v>
       </c>
-      <c r="Q2" s="129">
+      <c r="Q2" s="109">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -7882,49 +7888,49 @@
       <c r="B3" s="107">
         <v>2</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="109">
         <v>0.46250000000000002</v>
       </c>
-      <c r="D3" s="131">
+      <c r="D3" s="111">
         <v>0.47013888888888888</v>
       </c>
-      <c r="E3" s="131">
+      <c r="E3" s="111">
         <v>0.48749999999999999</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="111">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="111">
         <v>0.56111111111111112</v>
       </c>
-      <c r="H3" s="131">
+      <c r="H3" s="111">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I3" s="131">
+      <c r="I3" s="111">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J3" s="131">
+      <c r="J3" s="111">
         <v>0.57847222222222228</v>
       </c>
-      <c r="K3" s="131">
+      <c r="K3" s="111">
         <v>0.58125000000000004</v>
       </c>
-      <c r="L3" s="131">
+      <c r="L3" s="111">
         <v>0.58680555555555558</v>
       </c>
-      <c r="M3" s="131">
+      <c r="M3" s="111">
         <v>0.59166666666666667</v>
       </c>
-      <c r="N3" s="131">
+      <c r="N3" s="111">
         <v>0.59652777777777777</v>
       </c>
-      <c r="O3" s="131">
+      <c r="O3" s="111">
         <v>0.60138888888888886</v>
       </c>
-      <c r="P3" s="131">
+      <c r="P3" s="111">
         <v>0.6069444444444444</v>
       </c>
-      <c r="Q3" s="129">
+      <c r="Q3" s="109">
         <v>0.61805555555555558</v>
       </c>
     </row>
@@ -7935,49 +7941,49 @@
       <c r="B4" s="107">
         <v>3</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="111">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="111">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E4" s="131">
+      <c r="E4" s="111">
         <v>0.54513888888888884</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="111">
         <v>0.5625</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="111">
         <v>0.375</v>
       </c>
-      <c r="H4" s="131">
+      <c r="H4" s="111">
         <v>0.39513888888888887</v>
       </c>
-      <c r="I4" s="131">
+      <c r="I4" s="111">
         <v>0.3972222222222222</v>
       </c>
-      <c r="J4" s="131">
+      <c r="J4" s="111">
         <v>0.40069444444444446</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="111">
         <v>0.40416666666666667</v>
       </c>
-      <c r="L4" s="131">
+      <c r="L4" s="111">
         <v>0.40902777777777777</v>
       </c>
-      <c r="M4" s="131">
+      <c r="M4" s="111">
         <v>0.41388888888888886</v>
       </c>
-      <c r="N4" s="131">
+      <c r="N4" s="111">
         <v>0.41875000000000001</v>
       </c>
-      <c r="O4" s="131">
+      <c r="O4" s="111">
         <v>0.42430555555555555</v>
       </c>
-      <c r="P4" s="131">
+      <c r="P4" s="111">
         <v>0.42986111111111114</v>
       </c>
-      <c r="Q4" s="129">
+      <c r="Q4" s="109">
         <v>0.4375</v>
       </c>
     </row>
@@ -7988,49 +7994,49 @@
       <c r="B5" s="107">
         <v>4</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="111">
         <v>0.5625</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="111">
         <v>0.57152777777777775</v>
       </c>
-      <c r="E5" s="131">
+      <c r="E5" s="111">
         <v>0.59166666666666667</v>
       </c>
-      <c r="F5" s="131">
+      <c r="F5" s="111">
         <v>0.6</v>
       </c>
-      <c r="G5" s="131">
+      <c r="G5" s="111">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H5" s="131">
+      <c r="H5" s="111">
         <v>0.56111111111111112</v>
       </c>
-      <c r="I5" s="131">
+      <c r="I5" s="111">
         <v>0.5625</v>
       </c>
-      <c r="J5" s="131">
+      <c r="J5" s="111">
         <v>0.56666666666666665</v>
       </c>
-      <c r="K5" s="131">
+      <c r="K5" s="111">
         <v>0.56944444444444442</v>
       </c>
-      <c r="L5" s="131">
+      <c r="L5" s="111">
         <v>0.57430555555555551</v>
       </c>
-      <c r="M5" s="131">
+      <c r="M5" s="111">
         <v>0.57916666666666672</v>
       </c>
-      <c r="N5" s="131">
+      <c r="N5" s="111">
         <v>0.58402777777777781</v>
       </c>
-      <c r="O5" s="131">
+      <c r="O5" s="111">
         <v>0.58819444444444446</v>
       </c>
-      <c r="P5" s="131">
+      <c r="P5" s="111">
         <v>0.59444444444444444</v>
       </c>
-      <c r="Q5" s="129">
+      <c r="Q5" s="109">
         <v>0.60069444444444442</v>
       </c>
     </row>
@@ -8041,49 +8047,49 @@
       <c r="B6" s="107">
         <v>5</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="111">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="111">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E6" s="131">
+      <c r="E6" s="111">
         <v>0.69166666666666665</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="111">
         <v>0.70138888888888884</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="111">
         <v>0.5395833333333333</v>
       </c>
-      <c r="H6" s="131">
+      <c r="H6" s="111">
         <v>0.55347222222222225</v>
       </c>
-      <c r="I6" s="131">
+      <c r="I6" s="111">
         <v>0.5541666666666667</v>
       </c>
-      <c r="J6" s="131">
+      <c r="J6" s="111">
         <v>0.55763888888888891</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="111">
         <v>0.56111111111111112</v>
       </c>
-      <c r="L6" s="131">
+      <c r="L6" s="111">
         <v>0.56597222222222221</v>
       </c>
-      <c r="M6" s="131">
+      <c r="M6" s="111">
         <v>0.57291666666666663</v>
       </c>
-      <c r="N6" s="131">
+      <c r="N6" s="111">
         <v>0.57777777777777772</v>
       </c>
-      <c r="O6" s="131">
+      <c r="O6" s="111">
         <v>0.58263888888888893</v>
       </c>
-      <c r="P6" s="131">
+      <c r="P6" s="111">
         <v>0.58888888888888891</v>
       </c>
-      <c r="Q6" s="129">
+      <c r="Q6" s="109">
         <v>0.59861111111111109</v>
       </c>
     </row>
@@ -8094,49 +8100,49 @@
       <c r="B7" s="107">
         <v>6</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="111">
         <v>0.71875</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="111">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="111">
         <v>0.7416666666666667</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="111">
         <v>0.75</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="111">
         <v>0.40208333333333335</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="111">
         <v>0.41388888888888886</v>
       </c>
-      <c r="I7" s="131">
+      <c r="I7" s="111">
         <v>0.4152777777777778</v>
       </c>
-      <c r="J7" s="131">
+      <c r="J7" s="111">
         <v>0.41875000000000001</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="111">
         <v>0.42222222222222222</v>
       </c>
-      <c r="L7" s="131">
+      <c r="L7" s="111">
         <v>0.42777777777777776</v>
       </c>
-      <c r="M7" s="131">
+      <c r="M7" s="111">
         <v>0.43263888888888891</v>
       </c>
-      <c r="N7" s="131">
+      <c r="N7" s="111">
         <v>0.43819444444444444</v>
       </c>
-      <c r="O7" s="131">
+      <c r="O7" s="111">
         <v>0.44374999999999998</v>
       </c>
-      <c r="P7" s="131">
+      <c r="P7" s="111">
         <v>0.45624999999999999</v>
       </c>
-      <c r="Q7" s="129">
+      <c r="Q7" s="109">
         <v>0.46875</v>
       </c>
     </row>
@@ -8147,49 +8153,49 @@
       <c r="B8" s="107">
         <v>7</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="111">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="111">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E8" s="131">
+      <c r="E8" s="111">
         <v>0.66319444444444442</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="111">
         <v>0.67013888888888884</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="111">
         <v>0.54513888888888884</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="111">
         <v>0.56458333333333333</v>
       </c>
-      <c r="I8" s="131">
+      <c r="I8" s="111">
         <v>0.56597222222222221</v>
       </c>
-      <c r="J8" s="131">
+      <c r="J8" s="111">
         <v>0.57708333333333328</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="111">
         <v>0.58819444444444446</v>
       </c>
-      <c r="L8" s="131">
+      <c r="L8" s="111">
         <v>0.59375</v>
       </c>
-      <c r="M8" s="131">
+      <c r="M8" s="111">
         <v>0.59930555555555554</v>
       </c>
-      <c r="N8" s="131">
+      <c r="N8" s="111">
         <v>0.60486111111111107</v>
       </c>
-      <c r="O8" s="131">
+      <c r="O8" s="111">
         <v>0.61041666666666672</v>
       </c>
-      <c r="P8" s="131">
+      <c r="P8" s="111">
         <v>0.61736111111111114</v>
       </c>
-      <c r="Q8" s="129">
+      <c r="Q8" s="109">
         <v>0.62152777777777779</v>
       </c>
     </row>
@@ -8200,49 +8206,49 @@
       <c r="B9" s="107">
         <v>8</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="111">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="111">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="111">
         <v>0.68472222222222223</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="111">
         <v>0.70138888888888884</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="111">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="111">
         <v>0.60416666666666663</v>
       </c>
-      <c r="I9" s="131">
+      <c r="I9" s="111">
         <v>0.60555555555555551</v>
       </c>
-      <c r="J9" s="131">
+      <c r="J9" s="111">
         <v>0.60902777777777772</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="111">
         <v>0.61250000000000004</v>
       </c>
-      <c r="L9" s="129">
+      <c r="L9" s="109">
         <v>0.61736111111111114</v>
       </c>
-      <c r="M9" s="131">
+      <c r="M9" s="111">
         <v>0.62291666666666667</v>
       </c>
-      <c r="N9" s="131">
+      <c r="N9" s="111">
         <v>0.62986111111111109</v>
       </c>
-      <c r="O9" s="131">
+      <c r="O9" s="111">
         <v>0.63680555555555551</v>
       </c>
-      <c r="P9" s="131">
+      <c r="P9" s="111">
         <v>0.6430555555555556</v>
       </c>
-      <c r="Q9" s="129">
+      <c r="Q9" s="109">
         <v>0.65972222222222221</v>
       </c>
     </row>
@@ -8253,49 +8259,49 @@
       <c r="B10" s="107">
         <v>9</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="109">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="111">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="111">
         <v>0.39513888888888887</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="111">
         <v>0.40625</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="111">
         <v>0.375</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="111">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I10" s="131">
+      <c r="I10" s="111">
         <v>0.3972222222222222</v>
       </c>
-      <c r="J10" s="131">
+      <c r="J10" s="111">
         <v>0.40069444444444446</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="111">
         <v>0.40416666666666667</v>
       </c>
-      <c r="L10" s="131">
+      <c r="L10" s="111">
         <v>0.40972222222222221</v>
       </c>
-      <c r="M10" s="131">
+      <c r="M10" s="111">
         <v>0.41597222222222224</v>
       </c>
-      <c r="N10" s="131">
+      <c r="N10" s="111">
         <v>0.42152777777777778</v>
       </c>
-      <c r="O10" s="131">
+      <c r="O10" s="111">
         <v>0.42638888888888887</v>
       </c>
-      <c r="P10" s="131">
+      <c r="P10" s="111">
         <v>0.43194444444444446</v>
       </c>
-      <c r="Q10" s="129">
+      <c r="Q10" s="109">
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -8306,49 +8312,49 @@
       <c r="B11" s="107">
         <v>10</v>
       </c>
-      <c r="C11" s="131">
+      <c r="C11" s="111">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="111">
         <v>0.4375</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="111">
         <v>0.45069444444444445</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="111">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="111">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="111">
         <v>0.47083333333333333</v>
       </c>
-      <c r="I11" s="131">
+      <c r="I11" s="111">
         <v>0.47291666666666665</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="111">
         <v>0.47708333333333336</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="111">
         <v>0.47986111111111113</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="111">
         <v>0.48472222222222222</v>
       </c>
-      <c r="M11" s="131">
+      <c r="M11" s="111">
         <v>0.49027777777777776</v>
       </c>
-      <c r="N11" s="131">
+      <c r="N11" s="111">
         <v>0.49513888888888891</v>
       </c>
-      <c r="O11" s="131">
+      <c r="O11" s="111">
         <v>0.5</v>
       </c>
-      <c r="P11" s="131">
+      <c r="P11" s="111">
         <v>0.50624999999999998</v>
       </c>
-      <c r="Q11" s="129">
+      <c r="Q11" s="109">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -8359,49 +8365,49 @@
       <c r="B12" s="107">
         <v>11</v>
       </c>
-      <c r="C12" s="131">
+      <c r="C12" s="111">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="111">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="111">
         <v>0.37152777777777779</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="111">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G12" s="131">
+      <c r="G12" s="111">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="111">
         <v>0.37013888888888891</v>
       </c>
-      <c r="I12" s="131">
+      <c r="I12" s="111">
         <v>0.37152777777777779</v>
       </c>
-      <c r="J12" s="131">
+      <c r="J12" s="111">
         <v>0.375</v>
       </c>
-      <c r="K12" s="131">
+      <c r="K12" s="111">
         <v>0.37986111111111109</v>
       </c>
-      <c r="L12" s="131">
+      <c r="L12" s="111">
         <v>0.38541666666666669</v>
       </c>
-      <c r="M12" s="131">
+      <c r="M12" s="111">
         <v>0.39027777777777778</v>
       </c>
-      <c r="N12" s="131">
+      <c r="N12" s="111">
         <v>0.39513888888888887</v>
       </c>
-      <c r="O12" s="131">
+      <c r="O12" s="111">
         <v>0.4</v>
       </c>
-      <c r="P12" s="131">
+      <c r="P12" s="111">
         <v>0.40694444444444444</v>
       </c>
-      <c r="Q12" s="129">
+      <c r="Q12" s="109">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -8412,49 +8418,49 @@
       <c r="B13" s="107">
         <v>12</v>
       </c>
-      <c r="C13" s="131">
+      <c r="C13" s="111">
         <v>0.5625</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="111">
         <v>0.5708333333333333</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="111">
         <v>0.58194444444444449</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="111">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="111">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="111">
         <v>0.56180555555555556</v>
       </c>
-      <c r="I13" s="131">
+      <c r="I13" s="111">
         <v>0.56319444444444444</v>
       </c>
-      <c r="J13" s="131">
+      <c r="J13" s="111">
         <v>0.56666666666666665</v>
       </c>
-      <c r="K13" s="131">
+      <c r="K13" s="111">
         <v>0.57013888888888886</v>
       </c>
-      <c r="L13" s="131">
+      <c r="L13" s="111">
         <v>0.57638888888888884</v>
       </c>
-      <c r="M13" s="131">
+      <c r="M13" s="111">
         <v>0.58263888888888893</v>
       </c>
-      <c r="N13" s="131">
+      <c r="N13" s="111">
         <v>0.58819444444444446</v>
       </c>
-      <c r="O13" s="131">
+      <c r="O13" s="111">
         <v>0.59375</v>
       </c>
-      <c r="P13" s="131">
+      <c r="P13" s="111">
         <v>0.60138888888888886</v>
       </c>
-      <c r="Q13" s="129">
+      <c r="Q13" s="109">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -8465,49 +8471,49 @@
       <c r="B14" s="107">
         <v>13</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="111">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="111">
         <v>0.40277777777777779</v>
       </c>
-      <c r="E14" s="131">
+      <c r="E14" s="111">
         <v>0.41458333333333336</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="111">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="111">
         <v>0.39374999999999999</v>
       </c>
-      <c r="H14" s="131">
+      <c r="H14" s="111">
         <v>0.4152777777777778</v>
       </c>
-      <c r="I14" s="131">
+      <c r="I14" s="111">
         <v>0.41597222222222224</v>
       </c>
-      <c r="J14" s="131">
+      <c r="J14" s="111">
         <v>0.41944444444444445</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="111">
         <v>0.42291666666666666</v>
       </c>
-      <c r="L14" s="131">
+      <c r="L14" s="111">
         <v>0.42777777777777776</v>
       </c>
-      <c r="M14" s="131">
+      <c r="M14" s="111">
         <v>0.43194444444444446</v>
       </c>
-      <c r="N14" s="131">
+      <c r="N14" s="111">
         <v>0.4375</v>
       </c>
-      <c r="O14" s="131">
+      <c r="O14" s="111">
         <v>0.44236111111111109</v>
       </c>
-      <c r="P14" s="131">
+      <c r="P14" s="111">
         <v>0.44930555555555557</v>
       </c>
-      <c r="Q14" s="129">
+      <c r="Q14" s="109">
         <v>0.45624999999999999</v>
       </c>
     </row>
@@ -8518,49 +8524,49 @@
       <c r="B15" s="81">
         <v>14</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="111">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="111">
         <v>0.49652777777777779</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="111">
         <v>0.50763888888888886</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="111">
         <v>0.51388888888888884</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="111">
         <v>0.48055555555555557</v>
       </c>
-      <c r="H15" s="131">
+      <c r="H15" s="111">
         <v>0.4909722222222222</v>
       </c>
-      <c r="I15" s="131">
+      <c r="I15" s="111">
         <v>0.49166666666666664</v>
       </c>
-      <c r="J15" s="131">
+      <c r="J15" s="111">
         <v>0.49513888888888891</v>
       </c>
-      <c r="K15" s="131">
+      <c r="K15" s="111">
         <v>0.49791666666666667</v>
       </c>
-      <c r="L15" s="131">
+      <c r="L15" s="111">
         <v>0.50347222222222221</v>
       </c>
-      <c r="M15" s="131">
+      <c r="M15" s="111">
         <v>0.5083333333333333</v>
       </c>
-      <c r="N15" s="131">
+      <c r="N15" s="111">
         <v>0.51388888888888884</v>
       </c>
-      <c r="O15" s="131">
+      <c r="O15" s="111">
         <v>0.51875000000000004</v>
       </c>
-      <c r="P15" s="131">
+      <c r="P15" s="111">
         <v>0.52430555555555558</v>
       </c>
-      <c r="Q15" s="129">
+      <c r="Q15" s="109">
         <v>0.53263888888888888</v>
       </c>
     </row>
@@ -8571,49 +8577,49 @@
       <c r="B16" s="81">
         <v>15</v>
       </c>
-      <c r="C16" s="131">
+      <c r="C16" s="111">
         <v>0.5625</v>
       </c>
-      <c r="D16" s="131">
+      <c r="D16" s="111">
         <v>0.56944444444444442</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="111">
         <v>0.58194444444444449</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="111">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="111">
         <v>0.375</v>
       </c>
-      <c r="H16" s="131">
+      <c r="H16" s="111">
         <v>0.38680555555555557</v>
       </c>
-      <c r="I16" s="131">
+      <c r="I16" s="111">
         <v>0.38819444444444445</v>
       </c>
-      <c r="J16" s="131">
+      <c r="J16" s="111">
         <v>0.39097222222222222</v>
       </c>
-      <c r="K16" s="131">
+      <c r="K16" s="111">
         <v>0.3972222222222222</v>
       </c>
-      <c r="L16" s="131">
+      <c r="L16" s="111">
         <v>0.40208333333333335</v>
       </c>
-      <c r="M16" s="131">
+      <c r="M16" s="111">
         <v>0.40694444444444444</v>
       </c>
-      <c r="N16" s="131">
+      <c r="N16" s="111">
         <v>0.41249999999999998</v>
       </c>
-      <c r="O16" s="131">
+      <c r="O16" s="111">
         <v>0.41736111111111113</v>
       </c>
-      <c r="P16" s="131">
+      <c r="P16" s="111">
         <v>0.42430555555555555</v>
       </c>
-      <c r="Q16" s="129">
+      <c r="Q16" s="109">
         <v>0.43402777777777779</v>
       </c>
     </row>
@@ -8624,49 +8630,49 @@
       <c r="B17" s="107">
         <v>16</v>
       </c>
-      <c r="C17" s="131">
+      <c r="C17" s="111">
         <v>0.37708333333333333</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="111">
         <v>0.38611111111111113</v>
       </c>
-      <c r="E17" s="131">
+      <c r="E17" s="111">
         <v>0.40208333333333335</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="111">
         <v>0.41111111111111109</v>
       </c>
-      <c r="G17" s="131">
+      <c r="G17" s="111">
         <v>0.53819444444444442</v>
       </c>
-      <c r="H17" s="131">
+      <c r="H17" s="111">
         <v>0.55833333333333335</v>
       </c>
-      <c r="I17" s="131">
+      <c r="I17" s="111">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="111">
         <v>0.5625</v>
       </c>
-      <c r="K17" s="131">
+      <c r="K17" s="111">
         <v>0.56666666666666665</v>
       </c>
-      <c r="L17" s="131">
+      <c r="L17" s="111">
         <v>0.57152777777777775</v>
       </c>
-      <c r="M17" s="131">
+      <c r="M17" s="111">
         <v>0.57638888888888884</v>
       </c>
-      <c r="N17" s="131">
+      <c r="N17" s="111">
         <v>0.58125000000000004</v>
       </c>
-      <c r="O17" s="131">
+      <c r="O17" s="111">
         <v>0.58611111111111114</v>
       </c>
-      <c r="P17" s="131">
+      <c r="P17" s="111">
         <v>0.59236111111111112</v>
       </c>
-      <c r="Q17" s="129">
+      <c r="Q17" s="109">
         <v>0.60069444444444442</v>
       </c>
     </row>
@@ -8677,49 +8683,49 @@
       <c r="B18" s="107">
         <v>17</v>
       </c>
-      <c r="C18" s="131">
+      <c r="C18" s="111">
         <v>0.375</v>
       </c>
-      <c r="D18" s="131">
+      <c r="D18" s="111">
         <v>0.38333333333333336</v>
       </c>
-      <c r="E18" s="131">
+      <c r="E18" s="111">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="111">
         <v>0.40625</v>
       </c>
-      <c r="G18" s="131">
+      <c r="G18" s="111">
         <v>0.37152777777777779</v>
       </c>
-      <c r="H18" s="131">
+      <c r="H18" s="111">
         <v>0.38958333333333334</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="111">
         <v>0.39097222222222222</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="111">
         <v>0.39444444444444443</v>
       </c>
-      <c r="K18" s="131">
+      <c r="K18" s="111">
         <v>0.3972222222222222</v>
       </c>
-      <c r="L18" s="131">
+      <c r="L18" s="111">
         <v>0.40208333333333335</v>
       </c>
-      <c r="M18" s="131">
+      <c r="M18" s="111">
         <v>0.40694444444444444</v>
       </c>
-      <c r="N18" s="131">
+      <c r="N18" s="111">
         <v>0.41180555555555554</v>
       </c>
-      <c r="O18" s="131">
+      <c r="O18" s="111">
         <v>0.41666666666666669</v>
       </c>
-      <c r="P18" s="131">
+      <c r="P18" s="111">
         <v>0.42430555555555555</v>
       </c>
-      <c r="Q18" s="129">
+      <c r="Q18" s="109">
         <v>0.4375</v>
       </c>
     </row>
@@ -8730,49 +8736,49 @@
       <c r="B19" s="107">
         <v>18</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="111">
         <v>0.44305555555555554</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="111">
         <v>0.45</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="111">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="111">
         <v>0.47569444444444442</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="111">
         <v>0.47152777777777777</v>
       </c>
-      <c r="H19" s="131">
+      <c r="H19" s="111">
         <v>0.4826388888888889</v>
       </c>
-      <c r="I19" s="131">
+      <c r="I19" s="111">
         <v>0.48333333333333334</v>
       </c>
-      <c r="J19" s="131">
+      <c r="J19" s="111">
         <v>0.48680555555555555</v>
       </c>
-      <c r="K19" s="131">
+      <c r="K19" s="111">
         <v>0.49027777777777776</v>
       </c>
-      <c r="L19" s="131">
+      <c r="L19" s="111">
         <v>0.49513888888888891</v>
       </c>
-      <c r="M19" s="131">
+      <c r="M19" s="111">
         <v>0.5</v>
       </c>
-      <c r="N19" s="131">
+      <c r="N19" s="111">
         <v>0.50486111111111109</v>
       </c>
-      <c r="O19" s="131">
+      <c r="O19" s="111">
         <v>0.50972222222222219</v>
       </c>
-      <c r="P19" s="131">
+      <c r="P19" s="111">
         <v>0.51458333333333328</v>
       </c>
-      <c r="Q19" s="129">
+      <c r="Q19" s="109">
         <v>0.52777777777777779</v>
       </c>
     </row>
@@ -8783,49 +8789,49 @@
       <c r="B20" s="107">
         <v>19</v>
       </c>
-      <c r="C20" s="129">
+      <c r="C20" s="109">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="111">
         <v>0.55486111111111114</v>
       </c>
-      <c r="E20" s="131">
+      <c r="E20" s="111">
         <v>0.57361111111111107</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="111">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G20" s="131">
+      <c r="G20" s="111">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="111">
         <v>0.55486111111111114</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="111">
         <v>0.55555555555555558</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="111">
         <v>0.55902777777777779</v>
       </c>
-      <c r="K20" s="131">
+      <c r="K20" s="111">
         <v>0.5625</v>
       </c>
-      <c r="L20" s="131">
+      <c r="L20" s="111">
         <v>0.56736111111111109</v>
       </c>
-      <c r="M20" s="131">
+      <c r="M20" s="111">
         <v>0.57222222222222219</v>
       </c>
-      <c r="N20" s="131">
+      <c r="N20" s="111">
         <v>0.57638888888888884</v>
       </c>
-      <c r="O20" s="131">
+      <c r="O20" s="111">
         <v>0.58194444444444449</v>
       </c>
-      <c r="P20" s="131">
+      <c r="P20" s="111">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Q20" s="129">
+      <c r="Q20" s="109">
         <v>0.59722222222222221</v>
       </c>
     </row>
@@ -8836,49 +8842,49 @@
       <c r="B21" s="107">
         <v>20</v>
       </c>
-      <c r="C21" s="131">
+      <c r="C21" s="111">
         <v>0.40972222222222221</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="111">
         <v>0.41805555555555557</v>
       </c>
-      <c r="E21" s="131">
+      <c r="E21" s="111">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="111">
         <v>0.4375</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="111">
         <v>0.43402777777777779</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="111">
         <v>0.45208333333333334</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="111">
         <v>0.45347222222222222</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="111">
         <v>0.45624999999999999</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="111">
         <v>0.4597222222222222</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="111">
         <v>0.46597222222222223</v>
       </c>
-      <c r="M21" s="131">
+      <c r="M21" s="111">
         <v>0.47083333333333333</v>
       </c>
-      <c r="N21" s="131">
+      <c r="N21" s="111">
         <v>0.47638888888888886</v>
       </c>
-      <c r="O21" s="131">
+      <c r="O21" s="111">
         <v>0.48125000000000001</v>
       </c>
-      <c r="P21" s="131">
+      <c r="P21" s="111">
         <v>0.48888888888888887</v>
       </c>
-      <c r="Q21" s="129">
+      <c r="Q21" s="109">
         <v>0.5</v>
       </c>
     </row>
@@ -8889,49 +8895,49 @@
       <c r="B22" s="107">
         <v>21</v>
       </c>
-      <c r="C22" s="131">
+      <c r="C22" s="111">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D22" s="131">
+      <c r="D22" s="111">
         <v>0.71944444444444444</v>
       </c>
-      <c r="E22" s="131">
+      <c r="E22" s="111">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="111">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="111">
         <v>0.5</v>
       </c>
-      <c r="H22" s="131">
+      <c r="H22" s="111">
         <v>0.51527777777777772</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="111">
         <v>0.51736111111111116</v>
       </c>
-      <c r="J22" s="131">
+      <c r="J22" s="111">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K22" s="131">
+      <c r="K22" s="111">
         <v>0.52500000000000002</v>
       </c>
-      <c r="L22" s="131">
+      <c r="L22" s="111">
         <v>0.52986111111111112</v>
       </c>
-      <c r="M22" s="131">
+      <c r="M22" s="111">
         <v>0.53472222222222221</v>
       </c>
-      <c r="N22" s="131">
+      <c r="N22" s="111">
         <v>0.5395833333333333</v>
       </c>
-      <c r="O22" s="131">
+      <c r="O22" s="111">
         <v>0.54374999999999996</v>
       </c>
-      <c r="P22" s="131">
+      <c r="P22" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q22" s="129">
+      <c r="Q22" s="109">
         <v>0.5625</v>
       </c>
     </row>
@@ -8942,49 +8948,49 @@
       <c r="B23" s="107">
         <v>22</v>
       </c>
-      <c r="C23" s="131">
+      <c r="C23" s="111">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="111">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E23" s="131">
+      <c r="E23" s="111">
         <v>0.40069444444444446</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="111">
         <v>0.40763888888888888</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="111">
         <v>0.37777777777777777</v>
       </c>
-      <c r="H23" s="131">
+      <c r="H23" s="111">
         <v>0.39166666666666666</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I23" s="111">
         <v>0.39374999999999999</v>
       </c>
-      <c r="J23" s="131">
+      <c r="J23" s="111">
         <v>0.3972222222222222</v>
       </c>
-      <c r="K23" s="131">
+      <c r="K23" s="111">
         <v>0.40069444444444446</v>
       </c>
-      <c r="L23" s="131">
+      <c r="L23" s="111">
         <v>0.40694444444444444</v>
       </c>
-      <c r="M23" s="131">
+      <c r="M23" s="111">
         <v>0.41249999999999998</v>
       </c>
-      <c r="N23" s="131">
+      <c r="N23" s="111">
         <v>0.41805555555555557</v>
       </c>
-      <c r="O23" s="131">
+      <c r="O23" s="111">
         <v>0.4236111111111111</v>
       </c>
-      <c r="P23" s="131">
+      <c r="P23" s="111">
         <v>0.43055555555555558</v>
       </c>
-      <c r="Q23" s="129">
+      <c r="Q23" s="109">
         <v>0.4375</v>
       </c>
     </row>
@@ -8995,49 +9001,49 @@
       <c r="B24" s="107">
         <v>23</v>
       </c>
-      <c r="C24" s="131">
+      <c r="C24" s="111">
         <v>0.42083333333333334</v>
       </c>
-      <c r="D24" s="131">
+      <c r="D24" s="111">
         <v>0.42986111111111114</v>
       </c>
-      <c r="E24" s="131">
+      <c r="E24" s="111">
         <v>0.44583333333333336</v>
       </c>
-      <c r="F24" s="131">
+      <c r="F24" s="111">
         <v>0.4513888888888889</v>
       </c>
-      <c r="G24" s="131">
+      <c r="G24" s="111">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H24" s="111">
         <v>0.47152777777777777</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="111">
         <v>0.47361111111111109</v>
       </c>
-      <c r="J24" s="131">
+      <c r="J24" s="111">
         <v>0.4777777777777778</v>
       </c>
-      <c r="K24" s="131">
+      <c r="K24" s="111">
         <v>0.48125000000000001</v>
       </c>
-      <c r="L24" s="131">
+      <c r="L24" s="111">
         <v>0.4861111111111111</v>
       </c>
-      <c r="M24" s="129">
+      <c r="M24" s="109">
         <v>0.4909722222222222</v>
       </c>
-      <c r="N24" s="131">
+      <c r="N24" s="111">
         <v>0.49652777777777779</v>
       </c>
-      <c r="O24" s="131">
+      <c r="O24" s="111">
         <v>0.50138888888888888</v>
       </c>
-      <c r="P24" s="131">
+      <c r="P24" s="111">
         <v>0.5083333333333333</v>
       </c>
-      <c r="Q24" s="131">
+      <c r="Q24" s="111">
         <v>0.51388888888888884</v>
       </c>
     </row>
@@ -9048,49 +9054,49 @@
       <c r="B25" s="107">
         <v>24</v>
       </c>
-      <c r="C25" s="131">
+      <c r="C25" s="111">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D25" s="131">
+      <c r="D25" s="111">
         <v>0.6020833333333333</v>
       </c>
-      <c r="E25" s="131">
+      <c r="E25" s="111">
         <v>0.6118055555555556</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="111">
         <v>0.625</v>
       </c>
-      <c r="G25" s="131">
+      <c r="G25" s="111">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H25" s="131">
+      <c r="H25" s="111">
         <v>0.43680555555555556</v>
       </c>
-      <c r="I25" s="131">
+      <c r="I25" s="111">
         <v>0.43888888888888888</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="111">
         <v>0.44166666666666665</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="111">
         <v>0.44583333333333336</v>
       </c>
-      <c r="L25" s="131">
+      <c r="L25" s="111">
         <v>0.4513888888888889</v>
       </c>
-      <c r="M25" s="131">
+      <c r="M25" s="111">
         <v>0.45694444444444443</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="111">
         <v>0.46250000000000002</v>
       </c>
-      <c r="O25" s="131">
+      <c r="O25" s="111">
         <v>0.46805555555555556</v>
       </c>
-      <c r="P25" s="131">
+      <c r="P25" s="111">
         <v>0.48125000000000001</v>
       </c>
-      <c r="Q25" s="129">
+      <c r="Q25" s="109">
         <v>0.48819444444444443</v>
       </c>
     </row>
@@ -9101,49 +9107,49 @@
       <c r="B26" s="107">
         <v>25</v>
       </c>
-      <c r="C26" s="131">
+      <c r="C26" s="111">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D26" s="131">
+      <c r="D26" s="111">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E26" s="131">
+      <c r="E26" s="111">
         <v>0.55763888888888891</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="111">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G26" s="131">
+      <c r="G26" s="111">
         <v>0.4375</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="111">
         <v>0.45347222222222222</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="111">
         <v>0.4548611111111111</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="111">
         <v>0.4597222222222222</v>
       </c>
-      <c r="K26" s="131">
+      <c r="K26" s="111">
         <v>0.46250000000000002</v>
       </c>
-      <c r="L26" s="131">
+      <c r="L26" s="111">
         <v>0.46736111111111112</v>
       </c>
-      <c r="M26" s="131">
+      <c r="M26" s="111">
         <v>0.47222222222222221</v>
       </c>
-      <c r="N26" s="131">
+      <c r="N26" s="111">
         <v>0.47708333333333336</v>
       </c>
-      <c r="O26" s="131">
+      <c r="O26" s="111">
         <v>0.48194444444444445</v>
       </c>
-      <c r="P26" s="131">
+      <c r="P26" s="111">
         <v>0.4909722222222222</v>
       </c>
-      <c r="Q26" s="129">
+      <c r="Q26" s="109">
         <v>0.5</v>
       </c>
     </row>
@@ -9154,49 +9160,49 @@
       <c r="B27" s="107">
         <v>26</v>
       </c>
-      <c r="C27" s="131">
+      <c r="C27" s="111">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D27" s="131">
+      <c r="D27" s="111">
         <v>0.60347222222222219</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E27" s="111">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F27" s="111">
         <v>0.625</v>
       </c>
-      <c r="G27" s="131">
+      <c r="G27" s="111">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H27" s="131">
+      <c r="H27" s="111">
         <v>0.6</v>
       </c>
-      <c r="I27" s="131">
+      <c r="I27" s="111">
         <v>0.60069444444444442</v>
       </c>
-      <c r="J27" s="131">
+      <c r="J27" s="111">
         <v>0.60486111111111107</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="111">
         <v>0.60902777777777772</v>
       </c>
-      <c r="L27" s="131">
+      <c r="L27" s="111">
         <v>0.61458333333333337</v>
       </c>
-      <c r="M27" s="131">
+      <c r="M27" s="111">
         <v>0.62430555555555556</v>
       </c>
-      <c r="N27" s="131">
+      <c r="N27" s="111">
         <v>0.62986111111111109</v>
       </c>
-      <c r="O27" s="131">
+      <c r="O27" s="111">
         <v>0.63472222222222219</v>
       </c>
-      <c r="P27" s="131">
+      <c r="P27" s="111">
         <v>0.64097222222222228</v>
       </c>
-      <c r="Q27" s="129">
+      <c r="Q27" s="109">
         <v>0.64930555555555558</v>
       </c>
     </row>
@@ -9207,49 +9213,49 @@
       <c r="B28" s="107">
         <v>27</v>
       </c>
-      <c r="C28" s="131">
+      <c r="C28" s="111">
         <v>0.375</v>
       </c>
-      <c r="D28" s="131">
+      <c r="D28" s="111">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E28" s="131">
+      <c r="E28" s="111">
         <v>0.40347222222222223</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="111">
         <v>0.41319444444444442</v>
       </c>
-      <c r="G28" s="131">
+      <c r="G28" s="111">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H28" s="131">
+      <c r="H28" s="111">
         <v>0.55694444444444446</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="111">
         <v>0.55972222222222223</v>
       </c>
-      <c r="J28" s="131">
+      <c r="J28" s="111">
         <v>0.56388888888888888</v>
       </c>
-      <c r="K28" s="131">
+      <c r="K28" s="111">
         <v>0.56736111111111109</v>
       </c>
-      <c r="L28" s="131">
+      <c r="L28" s="111">
         <v>0.57222222222222219</v>
       </c>
-      <c r="M28" s="131">
+      <c r="M28" s="111">
         <v>0.57708333333333328</v>
       </c>
-      <c r="N28" s="131">
+      <c r="N28" s="111">
         <v>0.58194444444444449</v>
       </c>
-      <c r="O28" s="131">
+      <c r="O28" s="111">
         <v>0.58750000000000002</v>
       </c>
-      <c r="P28" s="131">
+      <c r="P28" s="111">
         <v>0.59444444444444444</v>
       </c>
-      <c r="Q28" s="129">
+      <c r="Q28" s="109">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -9260,49 +9266,49 @@
       <c r="B29" s="107">
         <v>28</v>
       </c>
-      <c r="C29" s="131">
+      <c r="C29" s="111">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D29" s="131">
+      <c r="D29" s="111">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E29" s="131">
+      <c r="E29" s="111">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F29" s="131">
+      <c r="F29" s="111">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="111">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H29" s="131">
+      <c r="H29" s="111">
         <v>0.68333333333333335</v>
       </c>
-      <c r="I29" s="131">
+      <c r="I29" s="111">
         <v>0.68472222222222223</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="111">
         <v>0.6875</v>
       </c>
-      <c r="K29" s="131">
+      <c r="K29" s="111">
         <v>0.69305555555555554</v>
       </c>
-      <c r="L29" s="131">
+      <c r="L29" s="111">
         <v>0.69722222222222219</v>
       </c>
-      <c r="M29" s="131">
+      <c r="M29" s="111">
         <v>0.70277777777777772</v>
       </c>
-      <c r="N29" s="131">
+      <c r="N29" s="111">
         <v>0.70763888888888893</v>
       </c>
-      <c r="O29" s="131">
+      <c r="O29" s="111">
         <v>0.71250000000000002</v>
       </c>
-      <c r="P29" s="131">
+      <c r="P29" s="111">
         <v>0.71875</v>
       </c>
-      <c r="Q29" s="129">
+      <c r="Q29" s="109">
         <v>0.73611111111111116</v>
       </c>
     </row>
@@ -9313,49 +9319,49 @@
       <c r="B30" s="107">
         <v>29</v>
       </c>
-      <c r="C30" s="131">
+      <c r="C30" s="111">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D30" s="131">
+      <c r="D30" s="111">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E30" s="131">
+      <c r="E30" s="111">
         <v>0.64513888888888893</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="111">
         <v>0.65277777777777779</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="111">
         <v>0.5625</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="111">
         <v>0.57847222222222228</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="111">
         <v>0.57986111111111116</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="111">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K30" s="131">
+      <c r="K30" s="111">
         <v>0.58750000000000002</v>
       </c>
-      <c r="L30" s="131">
+      <c r="L30" s="111">
         <v>0.59236111111111112</v>
       </c>
-      <c r="M30" s="131">
+      <c r="M30" s="111">
         <v>0.59652777777777777</v>
       </c>
-      <c r="N30" s="131">
+      <c r="N30" s="111">
         <v>0.6020833333333333</v>
       </c>
-      <c r="O30" s="131">
+      <c r="O30" s="111">
         <v>0.6069444444444444</v>
       </c>
-      <c r="P30" s="131">
+      <c r="P30" s="111">
         <v>0.61458333333333337</v>
       </c>
-      <c r="Q30" s="129">
+      <c r="Q30" s="109">
         <v>0.625</v>
       </c>
     </row>
@@ -9366,49 +9372,49 @@
       <c r="B31" s="107">
         <v>30</v>
       </c>
-      <c r="C31" s="131">
+      <c r="C31" s="111">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D31" s="131">
+      <c r="D31" s="111">
         <v>0.43611111111111112</v>
       </c>
-      <c r="E31" s="131">
+      <c r="E31" s="111">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F31" s="131">
+      <c r="F31" s="111">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="111">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H31" s="131">
+      <c r="H31" s="111">
         <v>0.44374999999999998</v>
       </c>
-      <c r="I31" s="131">
+      <c r="I31" s="111">
         <v>0.44444444444444442</v>
       </c>
-      <c r="J31" s="131">
+      <c r="J31" s="111">
         <v>0.44861111111111113</v>
       </c>
-      <c r="K31" s="131">
+      <c r="K31" s="111">
         <v>0.45277777777777778</v>
       </c>
-      <c r="L31" s="131">
+      <c r="L31" s="111">
         <v>0.45833333333333331</v>
       </c>
-      <c r="M31" s="131">
+      <c r="M31" s="111">
         <v>0.46319444444444446</v>
       </c>
-      <c r="N31" s="131">
+      <c r="N31" s="111">
         <v>0.46875</v>
       </c>
-      <c r="O31" s="131">
+      <c r="O31" s="111">
         <v>0.47430555555555554</v>
       </c>
-      <c r="P31" s="131">
+      <c r="P31" s="111">
         <v>0.4826388888888889</v>
       </c>
-      <c r="Q31" s="129">
+      <c r="Q31" s="109">
         <v>0.49652777777777779</v>
       </c>
     </row>
@@ -9419,49 +9425,49 @@
       <c r="B32" s="107">
         <v>31</v>
       </c>
-      <c r="C32" s="131">
+      <c r="C32" s="111">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D32" s="131">
+      <c r="D32" s="111">
         <v>0.6069444444444444</v>
       </c>
-      <c r="E32" s="131">
+      <c r="E32" s="111">
         <v>0.62083333333333335</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="111">
         <v>0.625</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="111">
         <v>0.5625</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="111">
         <v>0.5756944444444444</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="111">
         <v>0.57708333333333328</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="111">
         <v>0.5805555555555556</v>
       </c>
-      <c r="K32" s="131">
+      <c r="K32" s="111">
         <v>0.58402777777777781</v>
       </c>
-      <c r="L32" s="131">
+      <c r="L32" s="111">
         <v>0.58888888888888891</v>
       </c>
-      <c r="M32" s="131">
+      <c r="M32" s="111">
         <v>0.59375</v>
       </c>
-      <c r="N32" s="131">
+      <c r="N32" s="111">
         <v>0.59861111111111109</v>
       </c>
-      <c r="O32" s="131">
+      <c r="O32" s="111">
         <v>0.60416666666666663</v>
       </c>
-      <c r="P32" s="131">
+      <c r="P32" s="111">
         <v>0.61111111111111116</v>
       </c>
-      <c r="Q32" s="129">
+      <c r="Q32" s="109">
         <v>0.625</v>
       </c>
     </row>
@@ -9472,49 +9478,49 @@
       <c r="B33" s="107">
         <v>32</v>
       </c>
-      <c r="C33" s="131">
+      <c r="C33" s="111">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D33" s="131">
+      <c r="D33" s="111">
         <v>0.69444444444444442</v>
       </c>
-      <c r="E33" s="131">
+      <c r="E33" s="111">
         <v>0.70694444444444449</v>
       </c>
-      <c r="F33" s="131">
+      <c r="F33" s="111">
         <v>0.71875</v>
       </c>
-      <c r="G33" s="131">
+      <c r="G33" s="111">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H33" s="131">
+      <c r="H33" s="111">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I33" s="131">
+      <c r="I33" s="111">
         <v>0.35555555555555557</v>
       </c>
-      <c r="J33" s="131">
+      <c r="J33" s="111">
         <v>0.35902777777777778</v>
       </c>
-      <c r="K33" s="131">
+      <c r="K33" s="111">
         <v>0.36249999999999999</v>
       </c>
-      <c r="L33" s="131">
+      <c r="L33" s="111">
         <v>0.36736111111111114</v>
       </c>
-      <c r="M33" s="131">
+      <c r="M33" s="111">
         <v>0.37291666666666667</v>
       </c>
-      <c r="N33" s="131">
+      <c r="N33" s="111">
         <v>0.37777777777777777</v>
       </c>
-      <c r="O33" s="131">
+      <c r="O33" s="111">
         <v>0.38333333333333336</v>
       </c>
-      <c r="P33" s="131">
+      <c r="P33" s="111">
         <v>0.39097222222222222</v>
       </c>
-      <c r="Q33" s="129">
+      <c r="Q33" s="109">
         <v>0.39930555555555558</v>
       </c>
     </row>
@@ -9525,49 +9531,49 @@
       <c r="B34" s="90">
         <v>33</v>
       </c>
-      <c r="C34" s="131">
+      <c r="C34" s="111">
         <v>0.625</v>
       </c>
-      <c r="D34" s="131">
+      <c r="D34" s="111">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E34" s="131">
+      <c r="E34" s="111">
         <v>0.65208333333333335</v>
       </c>
-      <c r="F34" s="131">
+      <c r="F34" s="111">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G34" s="131">
+      <c r="G34" s="111">
         <v>0.40625</v>
       </c>
-      <c r="H34" s="131">
+      <c r="H34" s="111">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="111">
         <v>0.42152777777777778</v>
       </c>
-      <c r="J34" s="131">
+      <c r="J34" s="111">
         <v>0.42569444444444443</v>
       </c>
-      <c r="K34" s="131">
+      <c r="K34" s="111">
         <v>0.4284722222222222</v>
       </c>
-      <c r="L34" s="131">
+      <c r="L34" s="111">
         <v>0.43333333333333335</v>
       </c>
-      <c r="M34" s="131">
+      <c r="M34" s="111">
         <v>0.43888888888888888</v>
       </c>
-      <c r="N34" s="131">
+      <c r="N34" s="111">
         <v>0.44374999999999998</v>
       </c>
-      <c r="O34" s="131">
+      <c r="O34" s="111">
         <v>0.44861111111111113</v>
       </c>
-      <c r="P34" s="131">
+      <c r="P34" s="111">
         <v>0.4548611111111111</v>
       </c>
-      <c r="Q34" s="129">
+      <c r="Q34" s="109">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -9578,49 +9584,49 @@
       <c r="B35" s="107">
         <v>34</v>
       </c>
-      <c r="C35" s="131">
+      <c r="C35" s="111">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D35" s="131">
+      <c r="D35" s="111">
         <v>0.71944444444444444</v>
       </c>
-      <c r="E35" s="131">
+      <c r="E35" s="111">
         <v>0.73124999999999996</v>
       </c>
-      <c r="F35" s="131">
+      <c r="F35" s="111">
         <v>0.74305555555555558</v>
       </c>
-      <c r="G35" s="131">
+      <c r="G35" s="111">
         <v>0.69444444444444442</v>
       </c>
-      <c r="H35" s="131">
+      <c r="H35" s="111">
         <v>0.71527777777777779</v>
       </c>
-      <c r="I35" s="131">
+      <c r="I35" s="111">
         <v>0.71666666666666667</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="111">
         <v>0.72083333333333333</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="111">
         <v>0.72430555555555554</v>
       </c>
-      <c r="L35" s="131">
+      <c r="L35" s="111">
         <v>0.72916666666666663</v>
       </c>
-      <c r="M35" s="131">
+      <c r="M35" s="111">
         <v>0.73472222222222228</v>
       </c>
-      <c r="N35" s="131">
+      <c r="N35" s="111">
         <v>0.73958333333333337</v>
       </c>
-      <c r="O35" s="131">
+      <c r="O35" s="111">
         <v>0.74513888888888891</v>
       </c>
-      <c r="P35" s="131">
+      <c r="P35" s="111">
         <v>0.75208333333333333</v>
       </c>
-      <c r="Q35" s="129">
+      <c r="Q35" s="109">
         <v>0.76041666666666663</v>
       </c>
     </row>
@@ -9631,49 +9637,49 @@
       <c r="B36" s="107">
         <v>35</v>
       </c>
-      <c r="C36" s="131">
+      <c r="C36" s="111">
         <v>0.5625</v>
       </c>
-      <c r="D36" s="131">
+      <c r="D36" s="111">
         <v>0.57638888888888884</v>
       </c>
-      <c r="E36" s="131">
+      <c r="E36" s="111">
         <v>0.58958333333333335</v>
       </c>
-      <c r="F36" s="131">
+      <c r="F36" s="111">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G36" s="131">
+      <c r="G36" s="111">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H36" s="131">
+      <c r="H36" s="111">
         <v>0.58194444444444449</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="111">
         <v>0.58611111111111114</v>
       </c>
-      <c r="J36" s="131">
+      <c r="J36" s="111">
         <v>0.58958333333333335</v>
       </c>
-      <c r="K36" s="131">
+      <c r="K36" s="111">
         <v>0.59444444444444444</v>
       </c>
-      <c r="L36" s="131">
+      <c r="L36" s="111">
         <v>0.59930555555555554</v>
       </c>
-      <c r="M36" s="131">
+      <c r="M36" s="111">
         <v>0.60416666666666663</v>
       </c>
-      <c r="N36" s="131">
+      <c r="N36" s="111">
         <v>0.61111111111111116</v>
       </c>
-      <c r="O36" s="131">
+      <c r="O36" s="111">
         <v>0.62152777777777779</v>
       </c>
-      <c r="P36" s="131">
+      <c r="P36" s="111">
         <v>0.62777777777777777</v>
       </c>
-      <c r="Q36" s="129">
+      <c r="Q36" s="109">
         <v>0.63888888888888884</v>
       </c>
     </row>
@@ -9684,49 +9690,49 @@
       <c r="B37" s="107">
         <v>36</v>
       </c>
-      <c r="C37" s="131">
+      <c r="C37" s="111">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D37" s="131">
+      <c r="D37" s="111">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E37" s="131">
+      <c r="E37" s="111">
         <v>0.45347222222222222</v>
       </c>
-      <c r="F37" s="131">
+      <c r="F37" s="111">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G37" s="131">
+      <c r="G37" s="111">
         <v>0.38194444444444442</v>
       </c>
-      <c r="H37" s="131">
+      <c r="H37" s="111">
         <v>0.39652777777777776</v>
       </c>
-      <c r="I37" s="131">
+      <c r="I37" s="111">
         <v>0.39791666666666664</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="111">
         <v>0.40138888888888891</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="111">
         <v>0.40625</v>
       </c>
-      <c r="L37" s="131">
+      <c r="L37" s="111">
         <v>0.41041666666666665</v>
       </c>
-      <c r="M37" s="131">
+      <c r="M37" s="111">
         <v>0.4152777777777778</v>
       </c>
-      <c r="N37" s="131">
+      <c r="N37" s="111">
         <v>0.42083333333333334</v>
       </c>
-      <c r="O37" s="131">
+      <c r="O37" s="111">
         <v>0.42569444444444443</v>
       </c>
-      <c r="P37" s="131">
+      <c r="P37" s="111">
         <v>0.43194444444444446</v>
       </c>
-      <c r="Q37" s="129">
+      <c r="Q37" s="109">
         <v>0.44097222222222221</v>
       </c>
     </row>

--- a/scheduler_notes_29Jul2024.xlsx
+++ b/scheduler_notes_29Jul2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Code\RTmocapFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31A212-AA44-4FC0-A40A-9229253CFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C7AEB-B1BC-4017-BEBD-A9000B996D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4050" yWindow="2025" windowWidth="23460" windowHeight="15435" activeTab="4" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="147">
   <si>
     <t>Tues</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Two static trials: one is missing the left ASIS and the other is missing right medial knee, so look at both static trials that were exported</t>
+  </si>
+  <si>
+    <t>static missing right medial knee marker</t>
   </si>
 </sst>
 </file>
@@ -1347,15 +1350,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,6 +1361,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2264,8 +2267,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="112" t="s">
         <v>8</v>
       </c>
@@ -2301,8 +2304,8 @@
       <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2629,7 +2632,7 @@
       <c r="W6" s="36"/>
       <c r="X6" s="34"/>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="124" t="s">
+      <c r="Z6" s="127" t="s">
         <v>32</v>
       </c>
       <c r="AA6" s="49"/>
@@ -2637,10 +2640,10 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="34"/>
-      <c r="AF6" s="122" t="s">
+      <c r="AF6" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="123" t="s">
+      <c r="AG6" s="128" t="s">
         <v>40</v>
       </c>
       <c r="AJ6" s="46" t="s">
@@ -2661,7 +2664,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="53"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="126" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="43"/>
@@ -2680,16 +2683,16 @@
       <c r="W7" s="36"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="124"/>
+      <c r="Z7" s="127"/>
       <c r="AA7" s="49"/>
       <c r="AB7" s="41"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="124" t="s">
+      <c r="AD7" s="127" t="s">
         <v>35</v>
       </c>
       <c r="AE7" s="34"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="123"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="128"/>
       <c r="AJ7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2708,8 +2711,8 @@
       <c r="F8" s="49"/>
       <c r="G8" s="53"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="124" t="s">
+      <c r="I8" s="126"/>
+      <c r="J8" s="127" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="31"/>
@@ -2727,14 +2730,14 @@
       <c r="W8" s="36"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="41"/>
-      <c r="Z8" s="124"/>
+      <c r="Z8" s="127"/>
       <c r="AA8" s="49"/>
       <c r="AB8" s="41"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="124"/>
+      <c r="AD8" s="127"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="123"/>
+      <c r="AG8" s="128"/>
       <c r="AJ8" s="28" t="s">
         <v>21</v>
       </c>
@@ -2754,7 +2757,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="17"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="124"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="31"/>
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
@@ -2774,9 +2777,9 @@
       <c r="AA9" s="49"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="124"/>
+      <c r="AD9" s="127"/>
       <c r="AE9" s="34"/>
-      <c r="AF9" s="122" t="s">
+      <c r="AF9" s="126" t="s">
         <v>45</v>
       </c>
       <c r="AG9" s="15"/>
@@ -2792,10 +2795,10 @@
       <c r="F10" s="49"/>
       <c r="G10" s="53"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="31"/>
       <c r="L10" s="43"/>
       <c r="M10" s="54"/>
@@ -2817,8 +2820,8 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="123" t="s">
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="128" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2833,7 +2836,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="53"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="122"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="43"/>
       <c r="K11" s="31"/>
       <c r="L11" s="43"/>
@@ -2857,7 +2860,7 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="123"/>
+      <c r="AG11" s="128"/>
     </row>
     <row r="12" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="118"/>
@@ -2886,7 +2889,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="36"/>
       <c r="X12" s="34"/>
-      <c r="Y12" s="122" t="s">
+      <c r="Y12" s="126" t="s">
         <v>32</v>
       </c>
       <c r="Z12" s="41"/>
@@ -2896,7 +2899,7 @@
       <c r="AD12" s="40"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="31"/>
-      <c r="AG12" s="123"/>
+      <c r="AG12" s="128"/>
     </row>
     <row r="13" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
@@ -2925,7 +2928,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="36"/>
       <c r="X13" s="34"/>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="126"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="49"/>
       <c r="AB13" s="41"/>
@@ -2962,19 +2965,19 @@
       <c r="V14" s="31"/>
       <c r="W14" s="36"/>
       <c r="X14" s="34"/>
-      <c r="Y14" s="122" t="s">
+      <c r="Y14" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="124" t="s">
+      <c r="Z14" s="127" t="s">
         <v>33</v>
       </c>
       <c r="AA14" s="49"/>
       <c r="AB14" s="41"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="124" t="s">
+      <c r="AD14" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AE14" s="124" t="s">
+      <c r="AE14" s="127" t="s">
         <v>39</v>
       </c>
       <c r="AF14" s="31"/>
@@ -3007,13 +3010,13 @@
       <c r="V15" s="31"/>
       <c r="W15" s="36"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="124"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="127"/>
       <c r="AA15" s="49"/>
       <c r="AB15" s="41"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="15"/>
     </row>
@@ -3045,13 +3048,13 @@
       <c r="W16" s="36"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="41"/>
-      <c r="Z16" s="124"/>
+      <c r="Z16" s="127"/>
       <c r="AA16" s="49"/>
       <c r="AB16" s="41"/>
       <c r="AC16" s="36"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124" t="s">
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127" t="s">
         <v>41</v>
       </c>
       <c r="AG16" s="70"/>
@@ -3068,7 +3071,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="16"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="124" t="s">
+      <c r="J17" s="127" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="31"/>
@@ -3092,7 +3095,7 @@
       <c r="AC17" s="36"/>
       <c r="AD17" s="41"/>
       <c r="AE17" s="34"/>
-      <c r="AF17" s="124"/>
+      <c r="AF17" s="127"/>
       <c r="AG17" s="70"/>
     </row>
     <row r="18" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,7 +3110,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="124"/>
+      <c r="J18" s="127"/>
       <c r="K18" s="31"/>
       <c r="L18" s="43"/>
       <c r="M18" s="54"/>
@@ -3127,11 +3130,11 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="41"/>
       <c r="AC18" s="36"/>
-      <c r="AD18" s="122" t="s">
+      <c r="AD18" s="126" t="s">
         <v>39</v>
       </c>
       <c r="AE18" s="34"/>
-      <c r="AF18" s="124"/>
+      <c r="AF18" s="127"/>
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3146,7 +3149,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="124"/>
+      <c r="J19" s="127"/>
       <c r="K19" s="31"/>
       <c r="L19" s="43"/>
       <c r="M19" s="54"/>
@@ -3166,8 +3169,8 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122" t="s">
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="31"/>
@@ -3204,11 +3207,11 @@
       <c r="Z20" s="41"/>
       <c r="AA20" s="49"/>
       <c r="AB20" s="41"/>
-      <c r="AC20" s="122" t="s">
+      <c r="AC20" s="126" t="s">
         <v>34</v>
       </c>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="122"/>
+      <c r="AE20" s="126"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="17"/>
     </row>
@@ -3243,7 +3246,7 @@
       <c r="Z21" s="41"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="41"/>
-      <c r="AC21" s="122"/>
+      <c r="AC21" s="126"/>
       <c r="AD21" s="41"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="31"/>
@@ -3280,7 +3283,7 @@
       <c r="Z22" s="41"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="41"/>
-      <c r="AC22" s="122" t="s">
+      <c r="AC22" s="126" t="s">
         <v>35</v>
       </c>
       <c r="AD22" s="41"/>
@@ -3319,7 +3322,7 @@
       <c r="Z23" s="41"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="41"/>
-      <c r="AC23" s="122"/>
+      <c r="AC23" s="126"/>
       <c r="AD23" s="41"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="31"/>
@@ -3491,6 +3494,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="C1:AG1"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:B2"/>
@@ -3507,13 +3517,6 @@
     <mergeCell ref="AC20:AC21"/>
     <mergeCell ref="AE19:AE20"/>
     <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG10:AG12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3539,8 +3542,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="112" t="s">
         <v>11</v>
       </c>
@@ -3575,8 +3578,8 @@
       <c r="AF1" s="113"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3808,7 +3811,7 @@
       <c r="AA4" s="75"/>
       <c r="AB4" s="75"/>
       <c r="AC4" s="75"/>
-      <c r="AD4" s="124" t="s">
+      <c r="AD4" s="127" t="s">
         <v>65</v>
       </c>
       <c r="AE4" s="71"/>
@@ -3827,10 +3830,10 @@
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="127" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="75"/>
@@ -3856,7 +3859,7 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="124"/>
+      <c r="AD5" s="127"/>
       <c r="AE5" s="71"/>
       <c r="AF5" s="84"/>
       <c r="AI5" s="62" t="s">
@@ -3873,50 +3876,50 @@
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="124"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="127" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="124" t="s">
+      <c r="N6" s="127" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="75"/>
       <c r="P6" s="71"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="73"/>
-      <c r="S6" s="122" t="s">
+      <c r="S6" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="124" t="s">
+      <c r="T6" s="127" t="s">
         <v>53</v>
       </c>
       <c r="U6" s="75"/>
-      <c r="V6" s="122" t="s">
+      <c r="V6" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="124" t="s">
+      <c r="W6" s="127" t="s">
         <v>59</v>
       </c>
       <c r="X6" s="71"/>
       <c r="Y6" s="57"/>
-      <c r="Z6" s="122" t="s">
+      <c r="Z6" s="126" t="s">
         <v>61</v>
       </c>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="75"/>
-      <c r="AD6" s="124"/>
+      <c r="AD6" s="127"/>
       <c r="AE6" s="71"/>
       <c r="AF6" s="84"/>
       <c r="AI6" s="63" t="s">
@@ -3934,31 +3937,31 @@
       <c r="C7" s="71"/>
       <c r="D7" s="73"/>
       <c r="E7" s="75"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122" t="s">
+      <c r="F7" s="127"/>
+      <c r="G7" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="124"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="71"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="124"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="127"/>
       <c r="O7" s="75"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="73"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="124"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="127"/>
       <c r="U7" s="75"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="124"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="127"/>
       <c r="X7" s="71"/>
       <c r="Y7" s="57"/>
-      <c r="Z7" s="122"/>
+      <c r="Z7" s="126"/>
       <c r="AA7" s="75"/>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -3981,37 +3984,37 @@
       <c r="D8" s="73"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
       <c r="J8" s="71"/>
       <c r="K8" s="73"/>
       <c r="L8" s="71"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="122" t="s">
+      <c r="N8" s="127"/>
+      <c r="O8" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="124" t="s">
+      <c r="P8" s="127" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="73"/>
       <c r="S8" s="75"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124" t="s">
+      <c r="T8" s="127"/>
+      <c r="U8" s="127" t="s">
         <v>55</v>
       </c>
       <c r="V8" s="75"/>
-      <c r="W8" s="124"/>
+      <c r="W8" s="127"/>
       <c r="X8" s="71"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="122" t="s">
+      <c r="AB8" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="124" t="s">
+      <c r="AC8" s="127" t="s">
         <v>56</v>
       </c>
       <c r="AD8" s="71"/>
@@ -4034,25 +4037,25 @@
       <c r="E9" s="69"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="124"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="71"/>
       <c r="J9" s="71"/>
       <c r="K9" s="73"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="122" t="s">
+      <c r="M9" s="126" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="75"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="124"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="127"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="73"/>
-      <c r="S9" s="122" t="s">
+      <c r="S9" s="126" t="s">
         <v>54</v>
       </c>
       <c r="T9" s="75"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124" t="s">
+      <c r="U9" s="127"/>
+      <c r="V9" s="127" t="s">
         <v>60</v>
       </c>
       <c r="W9" s="71"/>
@@ -4060,8 +4063,8 @@
       <c r="Y9" s="57"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="124"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="127"/>
       <c r="AD9" s="71"/>
       <c r="AE9" s="71"/>
       <c r="AF9" s="84"/>
@@ -4087,27 +4090,27 @@
       <c r="J10" s="71"/>
       <c r="K10" s="73"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="124" t="s">
+      <c r="M10" s="126"/>
+      <c r="N10" s="127" t="s">
         <v>52</v>
       </c>
       <c r="O10" s="75"/>
-      <c r="P10" s="124"/>
+      <c r="P10" s="127"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="73"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="124" t="s">
+      <c r="S10" s="126"/>
+      <c r="T10" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
       <c r="W10" s="71"/>
       <c r="X10" s="71"/>
       <c r="Y10" s="57"/>
       <c r="Z10" s="75"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="75"/>
-      <c r="AC10" s="124"/>
+      <c r="AC10" s="127"/>
       <c r="AD10" s="71"/>
       <c r="AE10" s="71"/>
       <c r="AF10" s="84"/>
@@ -4122,25 +4125,25 @@
       <c r="E11" s="69"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="124" t="s">
+      <c r="I11" s="127" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="71"/>
       <c r="K11" s="73"/>
       <c r="L11" s="71"/>
       <c r="M11" s="75"/>
-      <c r="N11" s="124"/>
+      <c r="N11" s="127"/>
       <c r="O11" s="75"/>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="73"/>
       <c r="S11" s="75"/>
-      <c r="T11" s="124"/>
+      <c r="T11" s="127"/>
       <c r="U11" s="75"/>
-      <c r="V11" s="124"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="71"/>
       <c r="X11" s="71"/>
       <c r="Y11" s="57"/>
@@ -4162,21 +4165,21 @@
       <c r="E12" s="69"/>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="124"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="71"/>
       <c r="K12" s="73"/>
       <c r="L12" s="71"/>
       <c r="M12" s="75"/>
-      <c r="N12" s="124"/>
+      <c r="N12" s="127"/>
       <c r="O12" s="75"/>
-      <c r="P12" s="124" t="s">
+      <c r="P12" s="127" t="s">
         <v>66</v>
       </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="73"/>
       <c r="S12" s="75"/>
-      <c r="T12" s="124"/>
+      <c r="T12" s="127"/>
       <c r="U12" s="75"/>
       <c r="V12" s="75"/>
       <c r="W12" s="71"/>
@@ -4201,19 +4204,19 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="124"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="71"/>
       <c r="K13" s="73"/>
       <c r="L13" s="71"/>
       <c r="M13" s="75"/>
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
-      <c r="P13" s="124"/>
+      <c r="P13" s="127"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="73"/>
       <c r="S13" s="75"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="122" t="s">
+      <c r="U13" s="126" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="75"/>
@@ -4236,32 +4239,32 @@
       <c r="C14" s="71"/>
       <c r="D14" s="73"/>
       <c r="E14" s="75"/>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="127" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="75"/>
-      <c r="H14" s="122" t="s">
+      <c r="H14" s="126" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="71"/>
       <c r="J14" s="71"/>
       <c r="K14" s="73"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="124" t="s">
+      <c r="M14" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="122" t="s">
+      <c r="N14" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="124" t="s">
+      <c r="O14" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="124"/>
+      <c r="P14" s="127"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="73"/>
       <c r="S14" s="75"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="122"/>
+      <c r="U14" s="126"/>
       <c r="V14" s="75"/>
       <c r="W14" s="71"/>
       <c r="X14" s="71"/>
@@ -4281,19 +4284,19 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="73"/>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="122"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
       <c r="K15" s="73"/>
       <c r="L15" s="71"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="124"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="127"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="73"/>
@@ -4305,7 +4308,7 @@
       <c r="X15" s="71"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="75"/>
-      <c r="AA15" s="124" t="s">
+      <c r="AA15" s="127" t="s">
         <v>57</v>
       </c>
       <c r="AB15" s="75"/>
@@ -4321,36 +4324,36 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="124"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
       <c r="K16" s="73"/>
       <c r="L16" s="71"/>
-      <c r="M16" s="124"/>
+      <c r="M16" s="127"/>
       <c r="N16" s="75"/>
-      <c r="O16" s="124"/>
+      <c r="O16" s="127"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="73"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="122" t="s">
+      <c r="T16" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="122" t="s">
+      <c r="U16" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="124" t="s">
+      <c r="V16" s="127" t="s">
         <v>58</v>
       </c>
       <c r="W16" s="71"/>
       <c r="X16" s="71"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="75"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="122" t="s">
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="126" t="s">
         <v>62</v>
       </c>
       <c r="AC16" s="75"/>
@@ -4380,16 +4383,16 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="73"/>
       <c r="S17" s="33"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="124"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="127"/>
       <c r="W17" s="71"/>
       <c r="X17" s="71"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="75"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="124" t="s">
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="127" t="s">
         <v>62</v>
       </c>
       <c r="AD17" s="71"/>
@@ -4420,16 +4423,16 @@
       <c r="S18" s="75"/>
       <c r="T18" s="75"/>
       <c r="U18" s="75"/>
-      <c r="V18" s="124"/>
+      <c r="V18" s="127"/>
       <c r="W18" s="71"/>
       <c r="X18" s="71"/>
       <c r="Y18" s="57"/>
-      <c r="Z18" s="122" t="s">
+      <c r="Z18" s="126" t="s">
         <v>57</v>
       </c>
       <c r="AA18" s="75"/>
       <c r="AB18" s="75"/>
-      <c r="AC18" s="124"/>
+      <c r="AC18" s="127"/>
       <c r="AD18" s="71"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="84"/>
@@ -4462,10 +4465,10 @@
       <c r="W19" s="71"/>
       <c r="X19" s="71"/>
       <c r="Y19" s="57"/>
-      <c r="Z19" s="122"/>
+      <c r="Z19" s="126"/>
       <c r="AA19" s="75"/>
       <c r="AB19" s="75"/>
-      <c r="AC19" s="124"/>
+      <c r="AC19" s="127"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="84"/>
@@ -4499,7 +4502,7 @@
       <c r="X20" s="71"/>
       <c r="Y20" s="57"/>
       <c r="Z20" s="75"/>
-      <c r="AA20" s="124" t="s">
+      <c r="AA20" s="127" t="s">
         <v>61</v>
       </c>
       <c r="AB20" s="75"/>
@@ -4537,9 +4540,9 @@
       <c r="X21" s="71"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="75"/>
-      <c r="AA21" s="124"/>
+      <c r="AA21" s="127"/>
       <c r="AB21" s="75"/>
-      <c r="AC21" s="122" t="s">
+      <c r="AC21" s="126" t="s">
         <v>65</v>
       </c>
       <c r="AD21" s="71"/>
@@ -4563,7 +4566,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="75"/>
       <c r="N22" s="75"/>
-      <c r="O22" s="122" t="s">
+      <c r="O22" s="126" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="17"/>
@@ -4577,9 +4580,9 @@
       <c r="X22" s="71"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="75"/>
-      <c r="AA22" s="124"/>
+      <c r="AA22" s="127"/>
       <c r="AB22" s="75"/>
-      <c r="AC22" s="122"/>
+      <c r="AC22" s="126"/>
       <c r="AD22" s="71"/>
       <c r="AE22" s="71"/>
       <c r="AF22" s="84"/>
@@ -4601,7 +4604,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="75"/>
       <c r="N23" s="71"/>
-      <c r="O23" s="122"/>
+      <c r="O23" s="126"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="73"/>
@@ -4766,6 +4769,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA15:AA17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W8"/>
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="P12:P14"/>
@@ -4782,37 +4816,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA15:AA17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4837,8 +4840,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="112" t="s">
         <v>93</v>
       </c>
@@ -4874,8 +4877,8 @@
       <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="127" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="68"/>
@@ -5218,7 +5221,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C7" s="71"/>
-      <c r="D7" s="124"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
@@ -5261,12 +5264,12 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C8" s="71"/>
-      <c r="D8" s="124"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="127" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="68"/>
@@ -5304,8 +5307,8 @@
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="124"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="68"/>
       <c r="I9" s="73"/>
       <c r="J9" s="71"/>
@@ -5342,7 +5345,7 @@
       <c r="D10" s="71"/>
       <c r="E10" s="68"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="124"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="68"/>
       <c r="I10" s="73"/>
       <c r="J10" s="71"/>
@@ -5524,10 +5527,10 @@
         <v>0.5625</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="127" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="68"/>
@@ -5565,8 +5568,8 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
@@ -5603,7 +5606,7 @@
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
@@ -5675,7 +5678,7 @@
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="126" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="71"/>
@@ -5714,7 +5717,7 @@
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="122"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="71"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5788,10 +5791,10 @@
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="127" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="17"/>
@@ -5829,8 +5832,8 @@
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="124"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -5867,7 +5870,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="71"/>
-      <c r="D24" s="124"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -6033,7 +6036,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6768,6 +6771,9 @@
       </c>
       <c r="G15" s="95">
         <v>0.21249999999999999</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>146</v>
       </c>
       <c r="K15" s="107">
         <v>15.6</v>

--- a/scheduler_notes_29Jul2024.xlsx
+++ b/scheduler_notes_29Jul2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Code\RTmocapFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C7AEB-B1BC-4017-BEBD-A9000B996D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C609BD4-4EFA-416E-AE2C-00F4A8827EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2025" windowWidth="23460" windowHeight="15435" activeTab="4" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
+    <workbookView xWindow="4590" yWindow="1320" windowWidth="32730" windowHeight="17925" activeTab="4" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="148">
   <si>
     <t>Tues</t>
   </si>
@@ -505,7 +505,10 @@
     <t>Two static trials: one is missing the left ASIS and the other is missing right medial knee, so look at both static trials that were exported</t>
   </si>
   <si>
-    <t>static missing right medial knee marker</t>
+    <t>static missing right medial knee marker :(</t>
+  </si>
+  <si>
+    <t>use static ACS for joint center calcs</t>
   </si>
 </sst>
 </file>
@@ -1350,6 +1353,15 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,15 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2267,8 +2270,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
-      <c r="B1" s="123"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="112" t="s">
         <v>8</v>
       </c>
@@ -2304,8 +2307,8 @@
       <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="W6" s="36"/>
       <c r="X6" s="34"/>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="127" t="s">
+      <c r="Z6" s="124" t="s">
         <v>32</v>
       </c>
       <c r="AA6" s="49"/>
@@ -2640,10 +2643,10 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="34"/>
-      <c r="AF6" s="126" t="s">
+      <c r="AF6" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="128" t="s">
+      <c r="AG6" s="123" t="s">
         <v>40</v>
       </c>
       <c r="AJ6" s="46" t="s">
@@ -2664,7 +2667,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="53"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="126" t="s">
+      <c r="I7" s="122" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="43"/>
@@ -2683,16 +2686,16 @@
       <c r="W7" s="36"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="127"/>
+      <c r="Z7" s="124"/>
       <c r="AA7" s="49"/>
       <c r="AB7" s="41"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="127" t="s">
+      <c r="AD7" s="124" t="s">
         <v>35</v>
       </c>
       <c r="AE7" s="34"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="128"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="123"/>
       <c r="AJ7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2711,8 +2714,8 @@
       <c r="F8" s="49"/>
       <c r="G8" s="53"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127" t="s">
+      <c r="I8" s="122"/>
+      <c r="J8" s="124" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="31"/>
@@ -2730,14 +2733,14 @@
       <c r="W8" s="36"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="41"/>
-      <c r="Z8" s="127"/>
+      <c r="Z8" s="124"/>
       <c r="AA8" s="49"/>
       <c r="AB8" s="41"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="127"/>
+      <c r="AD8" s="124"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="123"/>
       <c r="AJ8" s="28" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2760,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="17"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="127"/>
+      <c r="J9" s="124"/>
       <c r="K9" s="31"/>
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
@@ -2777,9 +2780,9 @@
       <c r="AA9" s="49"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="127"/>
+      <c r="AD9" s="124"/>
       <c r="AE9" s="34"/>
-      <c r="AF9" s="126" t="s">
+      <c r="AF9" s="122" t="s">
         <v>45</v>
       </c>
       <c r="AG9" s="15"/>
@@ -2795,10 +2798,10 @@
       <c r="F10" s="49"/>
       <c r="G10" s="53"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="126" t="s">
+      <c r="I10" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="127"/>
+      <c r="J10" s="124"/>
       <c r="K10" s="31"/>
       <c r="L10" s="43"/>
       <c r="M10" s="54"/>
@@ -2820,8 +2823,8 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="128" t="s">
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="123" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2836,7 +2839,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="53"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="126"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="43"/>
       <c r="K11" s="31"/>
       <c r="L11" s="43"/>
@@ -2860,7 +2863,7 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="128"/>
+      <c r="AG11" s="123"/>
     </row>
     <row r="12" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="118"/>
@@ -2889,7 +2892,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="36"/>
       <c r="X12" s="34"/>
-      <c r="Y12" s="126" t="s">
+      <c r="Y12" s="122" t="s">
         <v>32</v>
       </c>
       <c r="Z12" s="41"/>
@@ -2899,7 +2902,7 @@
       <c r="AD12" s="40"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="31"/>
-      <c r="AG12" s="128"/>
+      <c r="AG12" s="123"/>
     </row>
     <row r="13" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
@@ -2928,7 +2931,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="36"/>
       <c r="X13" s="34"/>
-      <c r="Y13" s="126"/>
+      <c r="Y13" s="122"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="49"/>
       <c r="AB13" s="41"/>
@@ -2965,19 +2968,19 @@
       <c r="V14" s="31"/>
       <c r="W14" s="36"/>
       <c r="X14" s="34"/>
-      <c r="Y14" s="126" t="s">
+      <c r="Y14" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="127" t="s">
+      <c r="Z14" s="124" t="s">
         <v>33</v>
       </c>
       <c r="AA14" s="49"/>
       <c r="AB14" s="41"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="127" t="s">
+      <c r="AD14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AE14" s="127" t="s">
+      <c r="AE14" s="124" t="s">
         <v>39</v>
       </c>
       <c r="AF14" s="31"/>
@@ -3010,13 +3013,13 @@
       <c r="V15" s="31"/>
       <c r="W15" s="36"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="127"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="124"/>
       <c r="AA15" s="49"/>
       <c r="AB15" s="41"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="15"/>
     </row>
@@ -3048,13 +3051,13 @@
       <c r="W16" s="36"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="41"/>
-      <c r="Z16" s="127"/>
+      <c r="Z16" s="124"/>
       <c r="AA16" s="49"/>
       <c r="AB16" s="41"/>
       <c r="AC16" s="36"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127" t="s">
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124" t="s">
         <v>41</v>
       </c>
       <c r="AG16" s="70"/>
@@ -3071,7 +3074,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="16"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="127" t="s">
+      <c r="J17" s="124" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="31"/>
@@ -3095,7 +3098,7 @@
       <c r="AC17" s="36"/>
       <c r="AD17" s="41"/>
       <c r="AE17" s="34"/>
-      <c r="AF17" s="127"/>
+      <c r="AF17" s="124"/>
       <c r="AG17" s="70"/>
     </row>
     <row r="18" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,7 +3113,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="127"/>
+      <c r="J18" s="124"/>
       <c r="K18" s="31"/>
       <c r="L18" s="43"/>
       <c r="M18" s="54"/>
@@ -3130,11 +3133,11 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="41"/>
       <c r="AC18" s="36"/>
-      <c r="AD18" s="126" t="s">
+      <c r="AD18" s="122" t="s">
         <v>39</v>
       </c>
       <c r="AE18" s="34"/>
-      <c r="AF18" s="127"/>
+      <c r="AF18" s="124"/>
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,7 +3152,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="127"/>
+      <c r="J19" s="124"/>
       <c r="K19" s="31"/>
       <c r="L19" s="43"/>
       <c r="M19" s="54"/>
@@ -3169,8 +3172,8 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126" t="s">
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="31"/>
@@ -3207,11 +3210,11 @@
       <c r="Z20" s="41"/>
       <c r="AA20" s="49"/>
       <c r="AB20" s="41"/>
-      <c r="AC20" s="126" t="s">
+      <c r="AC20" s="122" t="s">
         <v>34</v>
       </c>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="126"/>
+      <c r="AE20" s="122"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="17"/>
     </row>
@@ -3246,7 +3249,7 @@
       <c r="Z21" s="41"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="41"/>
-      <c r="AC21" s="126"/>
+      <c r="AC21" s="122"/>
       <c r="AD21" s="41"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="31"/>
@@ -3283,7 +3286,7 @@
       <c r="Z22" s="41"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="41"/>
-      <c r="AC22" s="126" t="s">
+      <c r="AC22" s="122" t="s">
         <v>35</v>
       </c>
       <c r="AD22" s="41"/>
@@ -3322,7 +3325,7 @@
       <c r="Z23" s="41"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="41"/>
-      <c r="AC23" s="126"/>
+      <c r="AC23" s="122"/>
       <c r="AD23" s="41"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="31"/>
@@ -3494,13 +3497,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="C1:AG1"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:B2"/>
@@ -3517,6 +3513,13 @@
     <mergeCell ref="AC20:AC21"/>
     <mergeCell ref="AE19:AE20"/>
     <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG10:AG12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3542,8 +3545,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
-      <c r="B1" s="123"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="112" t="s">
         <v>11</v>
       </c>
@@ -3578,8 +3581,8 @@
       <c r="AF1" s="113"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="AA4" s="75"/>
       <c r="AB4" s="75"/>
       <c r="AC4" s="75"/>
-      <c r="AD4" s="127" t="s">
+      <c r="AD4" s="124" t="s">
         <v>65</v>
       </c>
       <c r="AE4" s="71"/>
@@ -3830,10 +3833,10 @@
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="124" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="75"/>
@@ -3859,7 +3862,7 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="127"/>
+      <c r="AD5" s="124"/>
       <c r="AE5" s="71"/>
       <c r="AF5" s="84"/>
       <c r="AI5" s="62" t="s">
@@ -3876,50 +3879,50 @@
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
-      <c r="I6" s="127" t="s">
+      <c r="I6" s="124" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="126" t="s">
+      <c r="L6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="126" t="s">
+      <c r="M6" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="127" t="s">
+      <c r="N6" s="124" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="75"/>
       <c r="P6" s="71"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="73"/>
-      <c r="S6" s="126" t="s">
+      <c r="S6" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="127" t="s">
+      <c r="T6" s="124" t="s">
         <v>53</v>
       </c>
       <c r="U6" s="75"/>
-      <c r="V6" s="126" t="s">
+      <c r="V6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="127" t="s">
+      <c r="W6" s="124" t="s">
         <v>59</v>
       </c>
       <c r="X6" s="71"/>
       <c r="Y6" s="57"/>
-      <c r="Z6" s="126" t="s">
+      <c r="Z6" s="122" t="s">
         <v>61</v>
       </c>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="75"/>
-      <c r="AD6" s="127"/>
+      <c r="AD6" s="124"/>
       <c r="AE6" s="71"/>
       <c r="AF6" s="84"/>
       <c r="AI6" s="63" t="s">
@@ -3937,31 +3940,31 @@
       <c r="C7" s="71"/>
       <c r="D7" s="73"/>
       <c r="E7" s="75"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="126" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="127"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="71"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="127"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="124"/>
       <c r="O7" s="75"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="73"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="127"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="124"/>
       <c r="U7" s="75"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="127"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="124"/>
       <c r="X7" s="71"/>
       <c r="Y7" s="57"/>
-      <c r="Z7" s="126"/>
+      <c r="Z7" s="122"/>
       <c r="AA7" s="75"/>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -3984,37 +3987,37 @@
       <c r="D8" s="73"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
       <c r="J8" s="71"/>
       <c r="K8" s="73"/>
       <c r="L8" s="71"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="126" t="s">
+      <c r="N8" s="124"/>
+      <c r="O8" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="127" t="s">
+      <c r="P8" s="124" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="73"/>
       <c r="S8" s="75"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127" t="s">
+      <c r="T8" s="124"/>
+      <c r="U8" s="124" t="s">
         <v>55</v>
       </c>
       <c r="V8" s="75"/>
-      <c r="W8" s="127"/>
+      <c r="W8" s="124"/>
       <c r="X8" s="71"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="127" t="s">
+      <c r="AC8" s="124" t="s">
         <v>56</v>
       </c>
       <c r="AD8" s="71"/>
@@ -4037,25 +4040,25 @@
       <c r="E9" s="69"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="127"/>
+      <c r="H9" s="124"/>
       <c r="I9" s="71"/>
       <c r="J9" s="71"/>
       <c r="K9" s="73"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="126" t="s">
+      <c r="M9" s="122" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="75"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="124"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="73"/>
-      <c r="S9" s="126" t="s">
+      <c r="S9" s="122" t="s">
         <v>54</v>
       </c>
       <c r="T9" s="75"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127" t="s">
+      <c r="U9" s="124"/>
+      <c r="V9" s="124" t="s">
         <v>60</v>
       </c>
       <c r="W9" s="71"/>
@@ -4063,8 +4066,8 @@
       <c r="Y9" s="57"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="127"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="124"/>
       <c r="AD9" s="71"/>
       <c r="AE9" s="71"/>
       <c r="AF9" s="84"/>
@@ -4090,27 +4093,27 @@
       <c r="J10" s="71"/>
       <c r="K10" s="73"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="127" t="s">
+      <c r="M10" s="122"/>
+      <c r="N10" s="124" t="s">
         <v>52</v>
       </c>
       <c r="O10" s="75"/>
-      <c r="P10" s="127"/>
+      <c r="P10" s="124"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="73"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127" t="s">
+      <c r="S10" s="122"/>
+      <c r="T10" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
       <c r="W10" s="71"/>
       <c r="X10" s="71"/>
       <c r="Y10" s="57"/>
       <c r="Z10" s="75"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="75"/>
-      <c r="AC10" s="127"/>
+      <c r="AC10" s="124"/>
       <c r="AD10" s="71"/>
       <c r="AE10" s="71"/>
       <c r="AF10" s="84"/>
@@ -4125,25 +4128,25 @@
       <c r="E11" s="69"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="126" t="s">
+      <c r="H11" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="127" t="s">
+      <c r="I11" s="124" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="71"/>
       <c r="K11" s="73"/>
       <c r="L11" s="71"/>
       <c r="M11" s="75"/>
-      <c r="N11" s="127"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="75"/>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="73"/>
       <c r="S11" s="75"/>
-      <c r="T11" s="127"/>
+      <c r="T11" s="124"/>
       <c r="U11" s="75"/>
-      <c r="V11" s="127"/>
+      <c r="V11" s="124"/>
       <c r="W11" s="71"/>
       <c r="X11" s="71"/>
       <c r="Y11" s="57"/>
@@ -4165,21 +4168,21 @@
       <c r="E12" s="69"/>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="71"/>
       <c r="K12" s="73"/>
       <c r="L12" s="71"/>
       <c r="M12" s="75"/>
-      <c r="N12" s="127"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="75"/>
-      <c r="P12" s="127" t="s">
+      <c r="P12" s="124" t="s">
         <v>66</v>
       </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="73"/>
       <c r="S12" s="75"/>
-      <c r="T12" s="127"/>
+      <c r="T12" s="124"/>
       <c r="U12" s="75"/>
       <c r="V12" s="75"/>
       <c r="W12" s="71"/>
@@ -4204,19 +4207,19 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="127"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="71"/>
       <c r="K13" s="73"/>
       <c r="L13" s="71"/>
       <c r="M13" s="75"/>
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
-      <c r="P13" s="127"/>
+      <c r="P13" s="124"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="73"/>
       <c r="S13" s="75"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="126" t="s">
+      <c r="U13" s="122" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="75"/>
@@ -4239,32 +4242,32 @@
       <c r="C14" s="71"/>
       <c r="D14" s="73"/>
       <c r="E14" s="75"/>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="124" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="75"/>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="122" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="71"/>
       <c r="J14" s="71"/>
       <c r="K14" s="73"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="127" t="s">
+      <c r="M14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="126" t="s">
+      <c r="N14" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="127" t="s">
+      <c r="O14" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="127"/>
+      <c r="P14" s="124"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="73"/>
       <c r="S14" s="75"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="126"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="75"/>
       <c r="W14" s="71"/>
       <c r="X14" s="71"/>
@@ -4284,19 +4287,19 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="73"/>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="127"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="126"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
       <c r="K15" s="73"/>
       <c r="L15" s="71"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="124"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="73"/>
@@ -4308,7 +4311,7 @@
       <c r="X15" s="71"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="75"/>
-      <c r="AA15" s="127" t="s">
+      <c r="AA15" s="124" t="s">
         <v>57</v>
       </c>
       <c r="AB15" s="75"/>
@@ -4324,36 +4327,36 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
       <c r="K16" s="73"/>
       <c r="L16" s="71"/>
-      <c r="M16" s="127"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="75"/>
-      <c r="O16" s="127"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="73"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="126" t="s">
+      <c r="T16" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="126" t="s">
+      <c r="U16" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="127" t="s">
+      <c r="V16" s="124" t="s">
         <v>58</v>
       </c>
       <c r="W16" s="71"/>
       <c r="X16" s="71"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="75"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="126" t="s">
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="122" t="s">
         <v>62</v>
       </c>
       <c r="AC16" s="75"/>
@@ -4383,16 +4386,16 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="73"/>
       <c r="S17" s="33"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="127"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="71"/>
       <c r="X17" s="71"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="75"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="127" t="s">
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="122"/>
+      <c r="AC17" s="124" t="s">
         <v>62</v>
       </c>
       <c r="AD17" s="71"/>
@@ -4423,16 +4426,16 @@
       <c r="S18" s="75"/>
       <c r="T18" s="75"/>
       <c r="U18" s="75"/>
-      <c r="V18" s="127"/>
+      <c r="V18" s="124"/>
       <c r="W18" s="71"/>
       <c r="X18" s="71"/>
       <c r="Y18" s="57"/>
-      <c r="Z18" s="126" t="s">
+      <c r="Z18" s="122" t="s">
         <v>57</v>
       </c>
       <c r="AA18" s="75"/>
       <c r="AB18" s="75"/>
-      <c r="AC18" s="127"/>
+      <c r="AC18" s="124"/>
       <c r="AD18" s="71"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="84"/>
@@ -4465,10 +4468,10 @@
       <c r="W19" s="71"/>
       <c r="X19" s="71"/>
       <c r="Y19" s="57"/>
-      <c r="Z19" s="126"/>
+      <c r="Z19" s="122"/>
       <c r="AA19" s="75"/>
       <c r="AB19" s="75"/>
-      <c r="AC19" s="127"/>
+      <c r="AC19" s="124"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="84"/>
@@ -4502,7 +4505,7 @@
       <c r="X20" s="71"/>
       <c r="Y20" s="57"/>
       <c r="Z20" s="75"/>
-      <c r="AA20" s="127" t="s">
+      <c r="AA20" s="124" t="s">
         <v>61</v>
       </c>
       <c r="AB20" s="75"/>
@@ -4540,9 +4543,9 @@
       <c r="X21" s="71"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="75"/>
-      <c r="AA21" s="127"/>
+      <c r="AA21" s="124"/>
       <c r="AB21" s="75"/>
-      <c r="AC21" s="126" t="s">
+      <c r="AC21" s="122" t="s">
         <v>65</v>
       </c>
       <c r="AD21" s="71"/>
@@ -4566,7 +4569,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="75"/>
       <c r="N22" s="75"/>
-      <c r="O22" s="126" t="s">
+      <c r="O22" s="122" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="17"/>
@@ -4580,9 +4583,9 @@
       <c r="X22" s="71"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="75"/>
-      <c r="AA22" s="127"/>
+      <c r="AA22" s="124"/>
       <c r="AB22" s="75"/>
-      <c r="AC22" s="126"/>
+      <c r="AC22" s="122"/>
       <c r="AD22" s="71"/>
       <c r="AE22" s="71"/>
       <c r="AF22" s="84"/>
@@ -4604,7 +4607,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="75"/>
       <c r="N23" s="71"/>
-      <c r="O23" s="126"/>
+      <c r="O23" s="122"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="73"/>
@@ -4769,21 +4772,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="C1:AF1"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AC17:AC19"/>
     <mergeCell ref="AC21:AC22"/>
@@ -4800,22 +4804,21 @@
     <mergeCell ref="AA20:AA22"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W8"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="C1:AF1"/>
-    <mergeCell ref="A3:A27"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4840,8 +4843,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
-      <c r="B1" s="123"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="112" t="s">
         <v>93</v>
       </c>
@@ -4877,8 +4880,8 @@
       <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="124" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="68"/>
@@ -5221,7 +5224,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C7" s="71"/>
-      <c r="D7" s="127"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
@@ -5264,12 +5267,12 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C8" s="71"/>
-      <c r="D8" s="127"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="124" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="68"/>
@@ -5307,8 +5310,8 @@
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="127"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="68"/>
       <c r="I9" s="73"/>
       <c r="J9" s="71"/>
@@ -5345,7 +5348,7 @@
       <c r="D10" s="71"/>
       <c r="E10" s="68"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="127"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="68"/>
       <c r="I10" s="73"/>
       <c r="J10" s="71"/>
@@ -5527,10 +5530,10 @@
         <v>0.5625</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="124" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="68"/>
@@ -5568,8 +5571,8 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
@@ -5606,7 +5609,7 @@
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="127"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
@@ -5678,7 +5681,7 @@
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="122" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="71"/>
@@ -5717,7 +5720,7 @@
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="126"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="71"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5791,10 +5794,10 @@
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="124" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="17"/>
@@ -5832,8 +5835,8 @@
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -5870,7 +5873,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="71"/>
-      <c r="D24" s="127"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -6035,8 +6038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77502B-B61F-4A2A-AA93-5E2021079CF0}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7084,6 +7087,9 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
+      <c r="J21" s="106" t="s">
+        <v>147</v>
+      </c>
       <c r="K21" s="107">
         <v>19.2</v>
       </c>
@@ -7121,6 +7127,9 @@
       </c>
       <c r="G22" s="96">
         <v>0.27500000000000002</v>
+      </c>
+      <c r="J22" s="107" t="s">
+        <v>147</v>
       </c>
       <c r="K22" s="107">
         <v>15.2</v>

--- a/scheduler_notes_29Jul2024.xlsx
+++ b/scheduler_notes_29Jul2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Code\RTmocapFB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsun\Documents\Code\RTmocapFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C609BD4-4EFA-416E-AE2C-00F4A8827EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21431DF-5FFF-44DF-A8FD-DF25C46DFC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1320" windowWidth="32730" windowHeight="17925" activeTab="4" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{5184CD76-0F71-4C54-9199-95839C9F3B68}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Demographics!$A$1:$O$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EmpaticaData!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EmpaticaData!$A$1:$S$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="150">
   <si>
     <t>Tues</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t>use static ACS for joint center calcs</t>
+  </si>
+  <si>
+    <t>Day 1 Date</t>
+  </si>
+  <si>
+    <t>Day 2 Date</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1319,9 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,15 +1357,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1374,6 +1369,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,6 +1385,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,24 +1743,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1785,7 +1799,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -1827,15 +1841,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1851,13 +1865,13 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1874,13 +1888,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -1897,13 +1911,13 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1919,13 +1933,13 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="16"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1935,13 +1949,13 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="16"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1951,13 +1965,13 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1967,13 +1981,13 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="16"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1983,13 +1997,13 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="16"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1999,13 +2013,13 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -2015,13 +2029,13 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2031,13 +2045,13 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -2047,13 +2061,13 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -2063,13 +2077,13 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -2079,13 +2093,13 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2095,13 +2109,13 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -2111,13 +2125,13 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -2127,13 +2141,13 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="17"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2143,13 +2157,13 @@
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="17"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2162,13 +2176,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2178,13 +2192,13 @@
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2194,13 +2208,13 @@
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2210,13 +2224,13 @@
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2226,13 +2240,13 @@
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -2259,56 +2273,57 @@
   <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView zoomScale="52" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3:AK6"/>
+      <selection activeCell="AE14" sqref="AE14:AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="11" customWidth="1"/>
-    <col min="2" max="35" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="5.5703125" customWidth="1"/>
     <col min="37" max="37" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="113"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="111"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2431,7 @@
       <c r="AO2" s="1"/>
     </row>
     <row r="3" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -2522,7 +2537,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -2565,7 +2580,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
@@ -2608,7 +2623,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
@@ -2635,7 +2650,7 @@
       <c r="W6" s="36"/>
       <c r="X6" s="34"/>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="124" t="s">
+      <c r="Z6" s="125" t="s">
         <v>32</v>
       </c>
       <c r="AA6" s="49"/>
@@ -2643,10 +2658,10 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="34"/>
-      <c r="AF6" s="122" t="s">
+      <c r="AF6" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="123" t="s">
+      <c r="AG6" s="126" t="s">
         <v>40</v>
       </c>
       <c r="AJ6" s="46" t="s">
@@ -2657,7 +2672,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
@@ -2667,7 +2682,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="53"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="124" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="43"/>
@@ -2686,16 +2701,16 @@
       <c r="W7" s="36"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="124"/>
+      <c r="Z7" s="125"/>
       <c r="AA7" s="49"/>
       <c r="AB7" s="41"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="124" t="s">
+      <c r="AD7" s="125" t="s">
         <v>35</v>
       </c>
       <c r="AE7" s="34"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="123"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="126"/>
       <c r="AJ7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2704,7 +2719,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="118"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -2714,8 +2729,8 @@
       <c r="F8" s="49"/>
       <c r="G8" s="53"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="124" t="s">
+      <c r="I8" s="124"/>
+      <c r="J8" s="125" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="31"/>
@@ -2733,14 +2748,14 @@
       <c r="W8" s="36"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="41"/>
-      <c r="Z8" s="124"/>
+      <c r="Z8" s="125"/>
       <c r="AA8" s="49"/>
       <c r="AB8" s="41"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="124"/>
+      <c r="AD8" s="125"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="123"/>
+      <c r="AG8" s="126"/>
       <c r="AJ8" s="28" t="s">
         <v>21</v>
       </c>
@@ -2749,7 +2764,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
@@ -2760,7 +2775,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="17"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="124"/>
+      <c r="J9" s="125"/>
       <c r="K9" s="31"/>
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
@@ -2780,15 +2795,15 @@
       <c r="AA9" s="49"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="124"/>
+      <c r="AD9" s="125"/>
       <c r="AE9" s="34"/>
-      <c r="AF9" s="122" t="s">
+      <c r="AF9" s="124" t="s">
         <v>45</v>
       </c>
       <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -2798,10 +2813,10 @@
       <c r="F10" s="49"/>
       <c r="G10" s="53"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124"/>
+      <c r="J10" s="125"/>
       <c r="K10" s="31"/>
       <c r="L10" s="43"/>
       <c r="M10" s="54"/>
@@ -2823,13 +2838,13 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="123" t="s">
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="126" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -2839,7 +2854,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="53"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="122"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="43"/>
       <c r="K11" s="31"/>
       <c r="L11" s="43"/>
@@ -2863,10 +2878,10 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="123"/>
+      <c r="AG11" s="126"/>
     </row>
     <row r="12" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -2892,7 +2907,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="36"/>
       <c r="X12" s="34"/>
-      <c r="Y12" s="122" t="s">
+      <c r="Y12" s="124" t="s">
         <v>32</v>
       </c>
       <c r="Z12" s="41"/>
@@ -2902,10 +2917,10 @@
       <c r="AD12" s="40"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="31"/>
-      <c r="AG12" s="123"/>
+      <c r="AG12" s="126"/>
     </row>
     <row r="13" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -2931,7 +2946,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="36"/>
       <c r="X13" s="34"/>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="124"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="49"/>
       <c r="AB13" s="41"/>
@@ -2942,7 +2957,7 @@
       <c r="AG13" s="15"/>
     </row>
     <row r="14" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="9">
         <v>0.54166666666666663</v>
       </c>
@@ -2968,26 +2983,26 @@
       <c r="V14" s="31"/>
       <c r="W14" s="36"/>
       <c r="X14" s="34"/>
-      <c r="Y14" s="122" t="s">
+      <c r="Y14" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="124" t="s">
+      <c r="Z14" s="125" t="s">
         <v>33</v>
       </c>
       <c r="AA14" s="49"/>
       <c r="AB14" s="41"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="124" t="s">
+      <c r="AD14" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AE14" s="124" t="s">
+      <c r="AE14" s="125" t="s">
         <v>39</v>
       </c>
       <c r="AF14" s="31"/>
       <c r="AG14" s="15"/>
     </row>
     <row r="15" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
@@ -3013,18 +3028,18 @@
       <c r="V15" s="31"/>
       <c r="W15" s="36"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="125"/>
       <c r="AA15" s="49"/>
       <c r="AB15" s="41"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="125"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="15"/>
     </row>
     <row r="16" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
@@ -3051,19 +3066,19 @@
       <c r="W16" s="36"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="41"/>
-      <c r="Z16" s="124"/>
+      <c r="Z16" s="125"/>
       <c r="AA16" s="49"/>
       <c r="AB16" s="41"/>
       <c r="AC16" s="36"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124" t="s">
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AG16" s="70"/>
     </row>
     <row r="17" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -3074,7 +3089,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="16"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="124" t="s">
+      <c r="J17" s="125" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="31"/>
@@ -3098,11 +3113,11 @@
       <c r="AC17" s="36"/>
       <c r="AD17" s="41"/>
       <c r="AE17" s="34"/>
-      <c r="AF17" s="124"/>
+      <c r="AF17" s="125"/>
       <c r="AG17" s="70"/>
     </row>
     <row r="18" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -3113,7 +3128,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="124"/>
+      <c r="J18" s="125"/>
       <c r="K18" s="31"/>
       <c r="L18" s="43"/>
       <c r="M18" s="54"/>
@@ -3133,15 +3148,15 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="41"/>
       <c r="AC18" s="36"/>
-      <c r="AD18" s="122" t="s">
+      <c r="AD18" s="124" t="s">
         <v>39</v>
       </c>
       <c r="AE18" s="34"/>
-      <c r="AF18" s="124"/>
+      <c r="AF18" s="125"/>
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
@@ -3152,7 +3167,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="124"/>
+      <c r="J19" s="125"/>
       <c r="K19" s="31"/>
       <c r="L19" s="43"/>
       <c r="M19" s="54"/>
@@ -3172,15 +3187,15 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122" t="s">
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="31"/>
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -3210,16 +3225,16 @@
       <c r="Z20" s="41"/>
       <c r="AA20" s="49"/>
       <c r="AB20" s="41"/>
-      <c r="AC20" s="122" t="s">
+      <c r="AC20" s="124" t="s">
         <v>34</v>
       </c>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="122"/>
+      <c r="AE20" s="124"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="17"/>
     </row>
     <row r="21" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -3249,14 +3264,14 @@
       <c r="Z21" s="41"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="41"/>
-      <c r="AC21" s="122"/>
+      <c r="AC21" s="124"/>
       <c r="AD21" s="41"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="15"/>
     </row>
     <row r="22" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
@@ -3286,7 +3301,7 @@
       <c r="Z22" s="41"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="41"/>
-      <c r="AC22" s="122" t="s">
+      <c r="AC22" s="124" t="s">
         <v>35</v>
       </c>
       <c r="AD22" s="41"/>
@@ -3295,7 +3310,7 @@
       <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
@@ -3325,14 +3340,14 @@
       <c r="Z23" s="41"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="41"/>
-      <c r="AC23" s="122"/>
+      <c r="AC23" s="124"/>
       <c r="AD23" s="41"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -3369,7 +3384,7 @@
       <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -3406,7 +3421,7 @@
       <c r="AG25" s="15"/>
     </row>
     <row r="26" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -3443,7 +3458,7 @@
       <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -3497,6 +3512,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="C1:AG1"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:B2"/>
@@ -3513,13 +3535,6 @@
     <mergeCell ref="AC20:AC21"/>
     <mergeCell ref="AE19:AE20"/>
     <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG10:AG12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3545,44 +3560,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3681,7 +3696,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -3783,7 +3798,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -3814,7 +3829,7 @@
       <c r="AA4" s="75"/>
       <c r="AB4" s="75"/>
       <c r="AC4" s="75"/>
-      <c r="AD4" s="124" t="s">
+      <c r="AD4" s="125" t="s">
         <v>65</v>
       </c>
       <c r="AE4" s="71"/>
@@ -3827,16 +3842,16 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="125" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="75"/>
@@ -3862,7 +3877,7 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="124"/>
+      <c r="AD5" s="125"/>
       <c r="AE5" s="71"/>
       <c r="AF5" s="84"/>
       <c r="AI5" s="62" t="s">
@@ -3873,56 +3888,56 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="125" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="124" t="s">
+      <c r="N6" s="125" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="75"/>
       <c r="P6" s="71"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="73"/>
-      <c r="S6" s="122" t="s">
+      <c r="S6" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="124" t="s">
+      <c r="T6" s="125" t="s">
         <v>53</v>
       </c>
       <c r="U6" s="75"/>
-      <c r="V6" s="122" t="s">
+      <c r="V6" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="124" t="s">
+      <c r="W6" s="125" t="s">
         <v>59</v>
       </c>
       <c r="X6" s="71"/>
       <c r="Y6" s="57"/>
-      <c r="Z6" s="122" t="s">
+      <c r="Z6" s="124" t="s">
         <v>61</v>
       </c>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="75"/>
-      <c r="AD6" s="124"/>
+      <c r="AD6" s="125"/>
       <c r="AE6" s="71"/>
       <c r="AF6" s="84"/>
       <c r="AI6" s="63" t="s">
@@ -3933,38 +3948,38 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="73"/>
       <c r="E7" s="75"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122" t="s">
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="124"/>
+      <c r="I7" s="125"/>
       <c r="J7" s="71"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="125"/>
       <c r="O7" s="75"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="73"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="125"/>
       <c r="U7" s="75"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="125"/>
       <c r="X7" s="71"/>
       <c r="Y7" s="57"/>
-      <c r="Z7" s="122"/>
+      <c r="Z7" s="124"/>
       <c r="AA7" s="75"/>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -3979,7 +3994,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -3987,37 +4002,37 @@
       <c r="D8" s="73"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
       <c r="J8" s="71"/>
       <c r="K8" s="73"/>
       <c r="L8" s="71"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="122" t="s">
+      <c r="N8" s="125"/>
+      <c r="O8" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="124" t="s">
+      <c r="P8" s="125" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="73"/>
       <c r="S8" s="75"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124" t="s">
+      <c r="T8" s="125"/>
+      <c r="U8" s="125" t="s">
         <v>55</v>
       </c>
       <c r="V8" s="75"/>
-      <c r="W8" s="124"/>
+      <c r="W8" s="125"/>
       <c r="X8" s="71"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="122" t="s">
+      <c r="AB8" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="124" t="s">
+      <c r="AC8" s="125" t="s">
         <v>56</v>
       </c>
       <c r="AD8" s="71"/>
@@ -4031,7 +4046,7 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
@@ -4040,25 +4055,25 @@
       <c r="E9" s="69"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="124"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="71"/>
       <c r="J9" s="71"/>
       <c r="K9" s="73"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="122" t="s">
+      <c r="M9" s="124" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="75"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="73"/>
-      <c r="S9" s="122" t="s">
+      <c r="S9" s="124" t="s">
         <v>54</v>
       </c>
       <c r="T9" s="75"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124" t="s">
+      <c r="U9" s="125"/>
+      <c r="V9" s="125" t="s">
         <v>60</v>
       </c>
       <c r="W9" s="71"/>
@@ -4066,8 +4081,8 @@
       <c r="Y9" s="57"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="125"/>
       <c r="AD9" s="71"/>
       <c r="AE9" s="71"/>
       <c r="AF9" s="84"/>
@@ -4079,7 +4094,7 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -4093,33 +4108,33 @@
       <c r="J10" s="71"/>
       <c r="K10" s="73"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="124" t="s">
+      <c r="M10" s="124"/>
+      <c r="N10" s="125" t="s">
         <v>52</v>
       </c>
       <c r="O10" s="75"/>
-      <c r="P10" s="124"/>
+      <c r="P10" s="125"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="73"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="124" t="s">
+      <c r="S10" s="124"/>
+      <c r="T10" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
       <c r="W10" s="71"/>
       <c r="X10" s="71"/>
       <c r="Y10" s="57"/>
       <c r="Z10" s="75"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="75"/>
-      <c r="AC10" s="124"/>
+      <c r="AC10" s="125"/>
       <c r="AD10" s="71"/>
       <c r="AE10" s="71"/>
       <c r="AF10" s="84"/>
     </row>
     <row r="11" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -4128,25 +4143,25 @@
       <c r="E11" s="69"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="124" t="s">
+      <c r="I11" s="125" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="71"/>
       <c r="K11" s="73"/>
       <c r="L11" s="71"/>
       <c r="M11" s="75"/>
-      <c r="N11" s="124"/>
+      <c r="N11" s="125"/>
       <c r="O11" s="75"/>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="73"/>
       <c r="S11" s="75"/>
-      <c r="T11" s="124"/>
+      <c r="T11" s="125"/>
       <c r="U11" s="75"/>
-      <c r="V11" s="124"/>
+      <c r="V11" s="125"/>
       <c r="W11" s="71"/>
       <c r="X11" s="71"/>
       <c r="Y11" s="57"/>
@@ -4159,7 +4174,7 @@
       <c r="AF11" s="84"/>
     </row>
     <row r="12" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -4168,21 +4183,21 @@
       <c r="E12" s="69"/>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="71"/>
       <c r="K12" s="73"/>
       <c r="L12" s="71"/>
       <c r="M12" s="75"/>
-      <c r="N12" s="124"/>
+      <c r="N12" s="125"/>
       <c r="O12" s="75"/>
-      <c r="P12" s="124" t="s">
+      <c r="P12" s="125" t="s">
         <v>66</v>
       </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="73"/>
       <c r="S12" s="75"/>
-      <c r="T12" s="124"/>
+      <c r="T12" s="125"/>
       <c r="U12" s="75"/>
       <c r="V12" s="75"/>
       <c r="W12" s="71"/>
@@ -4197,7 +4212,7 @@
       <c r="AF12" s="84"/>
     </row>
     <row r="13" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -4207,19 +4222,19 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="124"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="71"/>
       <c r="K13" s="73"/>
       <c r="L13" s="71"/>
       <c r="M13" s="75"/>
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
-      <c r="P13" s="124"/>
+      <c r="P13" s="125"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="73"/>
       <c r="S13" s="75"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="122" t="s">
+      <c r="U13" s="124" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="75"/>
@@ -4235,39 +4250,39 @@
       <c r="AF13" s="84"/>
     </row>
     <row r="14" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="73"/>
       <c r="E14" s="75"/>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="125" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="75"/>
-      <c r="H14" s="122" t="s">
+      <c r="H14" s="124" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="71"/>
       <c r="J14" s="71"/>
       <c r="K14" s="73"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="124" t="s">
+      <c r="M14" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="122" t="s">
+      <c r="N14" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="124" t="s">
+      <c r="O14" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="124"/>
+      <c r="P14" s="125"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="73"/>
       <c r="S14" s="75"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="122"/>
+      <c r="U14" s="124"/>
       <c r="V14" s="75"/>
       <c r="W14" s="71"/>
       <c r="X14" s="71"/>
@@ -4281,25 +4296,25 @@
       <c r="AF14" s="84"/>
     </row>
     <row r="15" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="73"/>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="122"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
       <c r="K15" s="73"/>
       <c r="L15" s="71"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="124"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="125"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="73"/>
@@ -4311,7 +4326,7 @@
       <c r="X15" s="71"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="75"/>
-      <c r="AA15" s="124" t="s">
+      <c r="AA15" s="125" t="s">
         <v>57</v>
       </c>
       <c r="AB15" s="75"/>
@@ -4321,42 +4336,42 @@
       <c r="AF15" s="84"/>
     </row>
     <row r="16" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
       <c r="K16" s="73"/>
       <c r="L16" s="71"/>
-      <c r="M16" s="124"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="75"/>
-      <c r="O16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="73"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="122" t="s">
+      <c r="T16" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="122" t="s">
+      <c r="U16" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="124" t="s">
+      <c r="V16" s="125" t="s">
         <v>58</v>
       </c>
       <c r="W16" s="71"/>
       <c r="X16" s="71"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="75"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="122" t="s">
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="124" t="s">
         <v>62</v>
       </c>
       <c r="AC16" s="75"/>
@@ -4365,7 +4380,7 @@
       <c r="AF16" s="84"/>
     </row>
     <row r="17" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
@@ -4386,16 +4401,16 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="73"/>
       <c r="S17" s="33"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="125"/>
       <c r="W17" s="71"/>
       <c r="X17" s="71"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="75"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="124" t="s">
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="125" t="s">
         <v>62</v>
       </c>
       <c r="AD17" s="71"/>
@@ -4403,7 +4418,7 @@
       <c r="AF17" s="84"/>
     </row>
     <row r="18" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -4426,22 +4441,22 @@
       <c r="S18" s="75"/>
       <c r="T18" s="75"/>
       <c r="U18" s="75"/>
-      <c r="V18" s="124"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="71"/>
       <c r="X18" s="71"/>
       <c r="Y18" s="57"/>
-      <c r="Z18" s="122" t="s">
+      <c r="Z18" s="124" t="s">
         <v>57</v>
       </c>
       <c r="AA18" s="75"/>
       <c r="AB18" s="75"/>
-      <c r="AC18" s="124"/>
+      <c r="AC18" s="125"/>
       <c r="AD18" s="71"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="84"/>
     </row>
     <row r="19" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
@@ -4468,16 +4483,16 @@
       <c r="W19" s="71"/>
       <c r="X19" s="71"/>
       <c r="Y19" s="57"/>
-      <c r="Z19" s="122"/>
+      <c r="Z19" s="124"/>
       <c r="AA19" s="75"/>
       <c r="AB19" s="75"/>
-      <c r="AC19" s="124"/>
+      <c r="AC19" s="125"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="84"/>
     </row>
     <row r="20" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -4505,7 +4520,7 @@
       <c r="X20" s="71"/>
       <c r="Y20" s="57"/>
       <c r="Z20" s="75"/>
-      <c r="AA20" s="124" t="s">
+      <c r="AA20" s="125" t="s">
         <v>61</v>
       </c>
       <c r="AB20" s="75"/>
@@ -4515,7 +4530,7 @@
       <c r="AF20" s="84"/>
     </row>
     <row r="21" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -4543,9 +4558,9 @@
       <c r="X21" s="71"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="75"/>
-      <c r="AA21" s="124"/>
+      <c r="AA21" s="125"/>
       <c r="AB21" s="75"/>
-      <c r="AC21" s="122" t="s">
+      <c r="AC21" s="124" t="s">
         <v>65</v>
       </c>
       <c r="AD21" s="71"/>
@@ -4553,7 +4568,7 @@
       <c r="AF21" s="84"/>
     </row>
     <row r="22" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
@@ -4569,7 +4584,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="75"/>
       <c r="N22" s="75"/>
-      <c r="O22" s="122" t="s">
+      <c r="O22" s="124" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="17"/>
@@ -4583,15 +4598,15 @@
       <c r="X22" s="71"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="75"/>
-      <c r="AA22" s="124"/>
+      <c r="AA22" s="125"/>
       <c r="AB22" s="75"/>
-      <c r="AC22" s="122"/>
+      <c r="AC22" s="124"/>
       <c r="AD22" s="71"/>
       <c r="AE22" s="71"/>
       <c r="AF22" s="84"/>
     </row>
     <row r="23" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
@@ -4607,7 +4622,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="75"/>
       <c r="N23" s="71"/>
-      <c r="O23" s="122"/>
+      <c r="O23" s="124"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="73"/>
@@ -4627,7 +4642,7 @@
       <c r="AF23" s="84"/>
     </row>
     <row r="24" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
@@ -4663,7 +4678,7 @@
       <c r="AF24" s="84"/>
     </row>
     <row r="25" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -4699,7 +4714,7 @@
       <c r="AF25" s="84"/>
     </row>
     <row r="26" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -4735,7 +4750,7 @@
       <c r="AF26" s="84"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -4772,6 +4787,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA15:AA17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W8"/>
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="P12:P14"/>
@@ -4788,37 +4834,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA15:AA17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4843,45 +4858,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="113"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="111"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -4983,7 +4998,7 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
@@ -5088,7 +5103,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -5131,7 +5146,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="9">
         <v>0.35416666666666669</v>
       </c>
@@ -5174,12 +5189,12 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="9">
         <v>0.375</v>
       </c>
       <c r="C6" s="71"/>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="125" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="68"/>
@@ -5219,12 +5234,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="9">
         <v>0.39583333333333298</v>
       </c>
       <c r="C7" s="71"/>
-      <c r="D7" s="124"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
@@ -5262,17 +5277,17 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="9">
         <v>0.41666666666666702</v>
       </c>
       <c r="C8" s="71"/>
-      <c r="D8" s="124"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="125" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="68"/>
@@ -5303,15 +5318,15 @@
       <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="9">
         <v>0.4375</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="68"/>
       <c r="I9" s="73"/>
       <c r="J9" s="71"/>
@@ -5340,7 +5355,7 @@
       <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="9">
         <v>0.45833333333333298</v>
       </c>
@@ -5348,7 +5363,7 @@
       <c r="D10" s="71"/>
       <c r="E10" s="68"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="124"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="68"/>
       <c r="I10" s="73"/>
       <c r="J10" s="71"/>
@@ -5377,7 +5392,7 @@
       <c r="AG10" s="15"/>
     </row>
     <row r="11" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="9">
         <v>0.47916666666666702</v>
       </c>
@@ -5414,7 +5429,7 @@
       <c r="AG11" s="15"/>
     </row>
     <row r="12" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="9">
         <v>0.5</v>
       </c>
@@ -5451,7 +5466,7 @@
       <c r="AG12" s="15"/>
     </row>
     <row r="13" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="9">
         <v>0.52083333333333304</v>
       </c>
@@ -5488,7 +5503,7 @@
       <c r="AG13" s="15"/>
     </row>
     <row r="14" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="9">
         <v>0.54166666666666696</v>
       </c>
@@ -5525,15 +5540,15 @@
       <c r="AG14" s="15"/>
     </row>
     <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="9">
         <v>0.5625</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="125" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="68"/>
@@ -5566,13 +5581,13 @@
       <c r="AG15" s="15"/>
     </row>
     <row r="16" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="9">
         <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
@@ -5603,13 +5618,13 @@
       <c r="AG16" s="15"/>
     </row>
     <row r="17" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="9">
         <v>0.60416666666666696</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
@@ -5640,7 +5655,7 @@
       <c r="AG17" s="15"/>
     </row>
     <row r="18" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="9">
         <v>0.625</v>
       </c>
@@ -5677,11 +5692,11 @@
       <c r="AG18" s="15"/>
     </row>
     <row r="19" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="9">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="124" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="71"/>
@@ -5716,11 +5731,11 @@
       <c r="AG19" s="15"/>
     </row>
     <row r="20" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="122"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="71"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5753,7 +5768,7 @@
       <c r="AG20" s="15"/>
     </row>
     <row r="21" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="9">
         <v>0.6875</v>
       </c>
@@ -5790,14 +5805,14 @@
       <c r="AG21" s="15"/>
     </row>
     <row r="22" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="9">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="125" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="17"/>
@@ -5831,12 +5846,12 @@
       <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="9">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -5868,12 +5883,12 @@
       <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="9">
         <v>0.75</v>
       </c>
       <c r="C24" s="71"/>
-      <c r="D24" s="124"/>
+      <c r="D24" s="125"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -5905,7 +5920,7 @@
       <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="9">
         <v>0.77083333333333404</v>
       </c>
@@ -5942,7 +5957,7 @@
       <c r="AG25" s="15"/>
     </row>
     <row r="26" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="9">
         <v>0.79166666666666696</v>
       </c>
@@ -5979,7 +5994,7 @@
       <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="19">
         <v>0.812500000000001</v>
       </c>
@@ -6038,15 +6053,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77502B-B61F-4A2A-AA93-5E2021079CF0}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
@@ -6340,11 +6355,11 @@
       <c r="O6" s="2">
         <v>77.3</v>
       </c>
-      <c r="U6" s="129" t="s">
+      <c r="U6" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="131"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="129"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6793,12 +6808,12 @@
       <c r="O15" s="2">
         <v>62.6</v>
       </c>
-      <c r="U15" s="129" t="s">
+      <c r="U15" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="131"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="129"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
@@ -7768,1991 +7783,2215 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5247D-4E00-4B4A-AEA2-655372E0F049}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" style="111" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="111" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="111" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="111" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="111" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="111" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="111" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="E1" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="F1" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="G1" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="H1" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="J1" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="K1" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="L1" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="M1" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="110" t="s">
+      <c r="N1" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="110" t="s">
+      <c r="O1" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="110" t="s">
+      <c r="P1" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="110" t="s">
+      <c r="Q1" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="108" t="s">
+      <c r="R1" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="110" t="s">
+      <c r="S1" s="131" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="107">
         <v>1</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2" s="130">
+        <v>45419</v>
+      </c>
+      <c r="D2" s="109">
         <v>0.40277777777777779</v>
       </c>
-      <c r="D2" s="111">
+      <c r="E2" s="109">
         <v>0.41111111111111109</v>
       </c>
-      <c r="E2" s="111">
+      <c r="F2" s="109">
         <v>0.42777777777777776</v>
       </c>
-      <c r="F2" s="111">
+      <c r="G2" s="109">
         <v>0.43611111111111112</v>
       </c>
-      <c r="G2" s="111">
+      <c r="H2" s="130">
+        <v>45420</v>
+      </c>
+      <c r="I2" s="109">
         <v>0.4152777777777778</v>
       </c>
-      <c r="H2" s="111">
+      <c r="J2" s="109">
         <v>0.4284722222222222</v>
       </c>
-      <c r="I2" s="111">
+      <c r="K2" s="109">
         <v>0.43611111111111112</v>
       </c>
-      <c r="J2" s="111">
+      <c r="L2" s="109">
         <v>0.43888888888888888</v>
       </c>
-      <c r="K2" s="111">
+      <c r="M2" s="109">
         <v>0.44305555555555554</v>
       </c>
-      <c r="L2" s="111">
+      <c r="N2" s="109">
         <v>0.44930555555555557</v>
       </c>
-      <c r="M2" s="111">
+      <c r="O2" s="109">
         <v>0.45416666666666666</v>
       </c>
-      <c r="N2" s="111">
+      <c r="P2" s="109">
         <v>0.45902777777777776</v>
       </c>
-      <c r="O2" s="111">
+      <c r="Q2" s="109">
         <v>0.46458333333333335</v>
       </c>
-      <c r="P2" s="111">
+      <c r="R2" s="109">
         <v>0.47083333333333333</v>
       </c>
-      <c r="Q2" s="109">
+      <c r="S2" s="108">
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="107">
         <v>2</v>
       </c>
-      <c r="C3" s="109">
+      <c r="C3" s="130">
+        <v>45419</v>
+      </c>
+      <c r="D3" s="108">
         <v>0.46250000000000002</v>
       </c>
-      <c r="D3" s="111">
+      <c r="E3" s="109">
         <v>0.47013888888888888</v>
       </c>
-      <c r="E3" s="111">
+      <c r="F3" s="109">
         <v>0.48749999999999999</v>
       </c>
-      <c r="F3" s="111">
+      <c r="G3" s="109">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G3" s="111">
+      <c r="H3" s="130">
+        <v>45420</v>
+      </c>
+      <c r="I3" s="109">
         <v>0.56111111111111112</v>
       </c>
-      <c r="H3" s="111">
+      <c r="J3" s="109">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I3" s="111">
+      <c r="K3" s="109">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J3" s="111">
+      <c r="L3" s="109">
         <v>0.57847222222222228</v>
       </c>
-      <c r="K3" s="111">
+      <c r="M3" s="109">
         <v>0.58125000000000004</v>
       </c>
-      <c r="L3" s="111">
+      <c r="N3" s="109">
         <v>0.58680555555555558</v>
       </c>
-      <c r="M3" s="111">
+      <c r="O3" s="109">
         <v>0.59166666666666667</v>
       </c>
-      <c r="N3" s="111">
+      <c r="P3" s="109">
         <v>0.59652777777777777</v>
       </c>
-      <c r="O3" s="111">
+      <c r="Q3" s="109">
         <v>0.60138888888888886</v>
       </c>
-      <c r="P3" s="111">
+      <c r="R3" s="109">
         <v>0.6069444444444444</v>
       </c>
-      <c r="Q3" s="109">
+      <c r="S3" s="108">
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="107">
         <v>3</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="130">
+        <v>45435</v>
+      </c>
+      <c r="D4" s="109">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D4" s="111">
+      <c r="E4" s="109">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E4" s="111">
+      <c r="F4" s="109">
         <v>0.54513888888888884</v>
       </c>
-      <c r="F4" s="111">
+      <c r="G4" s="109">
         <v>0.5625</v>
       </c>
-      <c r="G4" s="111">
+      <c r="H4" s="130">
+        <v>45436</v>
+      </c>
+      <c r="I4" s="109">
         <v>0.375</v>
       </c>
-      <c r="H4" s="111">
+      <c r="J4" s="109">
         <v>0.39513888888888887</v>
       </c>
-      <c r="I4" s="111">
+      <c r="K4" s="109">
         <v>0.3972222222222222</v>
       </c>
-      <c r="J4" s="111">
+      <c r="L4" s="109">
         <v>0.40069444444444446</v>
       </c>
-      <c r="K4" s="111">
+      <c r="M4" s="109">
         <v>0.40416666666666667</v>
       </c>
-      <c r="L4" s="111">
+      <c r="N4" s="109">
         <v>0.40902777777777777</v>
       </c>
-      <c r="M4" s="111">
+      <c r="O4" s="109">
         <v>0.41388888888888886</v>
       </c>
-      <c r="N4" s="111">
+      <c r="P4" s="109">
         <v>0.41875000000000001</v>
       </c>
-      <c r="O4" s="111">
+      <c r="Q4" s="109">
         <v>0.42430555555555555</v>
       </c>
-      <c r="P4" s="111">
+      <c r="R4" s="109">
         <v>0.42986111111111114</v>
       </c>
-      <c r="Q4" s="109">
+      <c r="S4" s="108">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="107">
         <v>4</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="130">
+        <v>45435</v>
+      </c>
+      <c r="D5" s="109">
         <v>0.5625</v>
       </c>
-      <c r="D5" s="111">
+      <c r="E5" s="109">
         <v>0.57152777777777775</v>
       </c>
-      <c r="E5" s="111">
+      <c r="F5" s="109">
         <v>0.59166666666666667</v>
       </c>
-      <c r="F5" s="111">
+      <c r="G5" s="109">
         <v>0.6</v>
       </c>
-      <c r="G5" s="111">
+      <c r="H5" s="130">
+        <v>45436</v>
+      </c>
+      <c r="I5" s="109">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H5" s="111">
+      <c r="J5" s="109">
         <v>0.56111111111111112</v>
       </c>
-      <c r="I5" s="111">
+      <c r="K5" s="109">
         <v>0.5625</v>
       </c>
-      <c r="J5" s="111">
+      <c r="L5" s="109">
         <v>0.56666666666666665</v>
       </c>
-      <c r="K5" s="111">
+      <c r="M5" s="109">
         <v>0.56944444444444442</v>
       </c>
-      <c r="L5" s="111">
+      <c r="N5" s="109">
         <v>0.57430555555555551</v>
       </c>
-      <c r="M5" s="111">
+      <c r="O5" s="109">
         <v>0.57916666666666672</v>
       </c>
-      <c r="N5" s="111">
+      <c r="P5" s="109">
         <v>0.58402777777777781</v>
       </c>
-      <c r="O5" s="111">
+      <c r="Q5" s="109">
         <v>0.58819444444444446</v>
       </c>
-      <c r="P5" s="111">
+      <c r="R5" s="109">
         <v>0.59444444444444444</v>
       </c>
-      <c r="Q5" s="109">
+      <c r="S5" s="108">
         <v>0.60069444444444442</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="107" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="107">
         <v>5</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="130">
+        <v>45439</v>
+      </c>
+      <c r="D6" s="109">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D6" s="111">
+      <c r="E6" s="109">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E6" s="111">
+      <c r="F6" s="109">
         <v>0.69166666666666665</v>
       </c>
-      <c r="F6" s="111">
+      <c r="G6" s="109">
         <v>0.70138888888888884</v>
       </c>
-      <c r="G6" s="111">
+      <c r="H6" s="130">
+        <v>45440</v>
+      </c>
+      <c r="I6" s="109">
         <v>0.5395833333333333</v>
       </c>
-      <c r="H6" s="111">
+      <c r="J6" s="109">
         <v>0.55347222222222225</v>
       </c>
-      <c r="I6" s="111">
+      <c r="K6" s="109">
         <v>0.5541666666666667</v>
       </c>
-      <c r="J6" s="111">
+      <c r="L6" s="109">
         <v>0.55763888888888891</v>
       </c>
-      <c r="K6" s="111">
+      <c r="M6" s="109">
         <v>0.56111111111111112</v>
       </c>
-      <c r="L6" s="111">
+      <c r="N6" s="109">
         <v>0.56597222222222221</v>
       </c>
-      <c r="M6" s="111">
+      <c r="O6" s="109">
         <v>0.57291666666666663</v>
       </c>
-      <c r="N6" s="111">
+      <c r="P6" s="109">
         <v>0.57777777777777772</v>
       </c>
-      <c r="O6" s="111">
+      <c r="Q6" s="109">
         <v>0.58263888888888893</v>
       </c>
-      <c r="P6" s="111">
+      <c r="R6" s="109">
         <v>0.58888888888888891</v>
       </c>
-      <c r="Q6" s="109">
+      <c r="S6" s="108">
         <v>0.59861111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="107">
         <v>6</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="130">
+        <v>45439</v>
+      </c>
+      <c r="D7" s="109">
         <v>0.71875</v>
       </c>
-      <c r="D7" s="111">
+      <c r="E7" s="109">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E7" s="111">
+      <c r="F7" s="109">
         <v>0.7416666666666667</v>
       </c>
-      <c r="F7" s="111">
+      <c r="G7" s="109">
         <v>0.75</v>
       </c>
-      <c r="G7" s="111">
+      <c r="H7" s="130">
+        <v>45440</v>
+      </c>
+      <c r="I7" s="109">
         <v>0.40208333333333335</v>
       </c>
-      <c r="H7" s="111">
+      <c r="J7" s="109">
         <v>0.41388888888888886</v>
       </c>
-      <c r="I7" s="111">
+      <c r="K7" s="109">
         <v>0.4152777777777778</v>
       </c>
-      <c r="J7" s="111">
+      <c r="L7" s="109">
         <v>0.41875000000000001</v>
       </c>
-      <c r="K7" s="111">
+      <c r="M7" s="109">
         <v>0.42222222222222222</v>
       </c>
-      <c r="L7" s="111">
+      <c r="N7" s="109">
         <v>0.42777777777777776</v>
       </c>
-      <c r="M7" s="111">
+      <c r="O7" s="109">
         <v>0.43263888888888891</v>
       </c>
-      <c r="N7" s="111">
+      <c r="P7" s="109">
         <v>0.43819444444444444</v>
       </c>
-      <c r="O7" s="111">
+      <c r="Q7" s="109">
         <v>0.44374999999999998</v>
       </c>
-      <c r="P7" s="111">
+      <c r="R7" s="109">
         <v>0.45624999999999999</v>
       </c>
-      <c r="Q7" s="109">
+      <c r="S7" s="108">
         <v>0.46875</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="107" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="107">
         <v>7</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="130">
+        <v>45440</v>
+      </c>
+      <c r="D8" s="109">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D8" s="111">
+      <c r="E8" s="109">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E8" s="111">
+      <c r="F8" s="109">
         <v>0.66319444444444442</v>
       </c>
-      <c r="F8" s="111">
+      <c r="G8" s="109">
         <v>0.67013888888888884</v>
       </c>
-      <c r="G8" s="111">
+      <c r="H8" s="130">
+        <v>45441</v>
+      </c>
+      <c r="I8" s="109">
         <v>0.54513888888888884</v>
       </c>
-      <c r="H8" s="111">
+      <c r="J8" s="109">
         <v>0.56458333333333333</v>
       </c>
-      <c r="I8" s="111">
+      <c r="K8" s="109">
         <v>0.56597222222222221</v>
       </c>
-      <c r="J8" s="111">
+      <c r="L8" s="109">
         <v>0.57708333333333328</v>
       </c>
-      <c r="K8" s="111">
+      <c r="M8" s="109">
         <v>0.58819444444444446</v>
       </c>
-      <c r="L8" s="111">
+      <c r="N8" s="109">
         <v>0.59375</v>
       </c>
-      <c r="M8" s="111">
+      <c r="O8" s="109">
         <v>0.59930555555555554</v>
       </c>
-      <c r="N8" s="111">
+      <c r="P8" s="109">
         <v>0.60486111111111107</v>
       </c>
-      <c r="O8" s="111">
+      <c r="Q8" s="109">
         <v>0.61041666666666672</v>
       </c>
-      <c r="P8" s="111">
+      <c r="R8" s="109">
         <v>0.61736111111111114</v>
       </c>
-      <c r="Q8" s="109">
+      <c r="S8" s="108">
         <v>0.62152777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="107">
         <v>8</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="130">
+        <v>45442</v>
+      </c>
+      <c r="D9" s="109">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D9" s="111">
+      <c r="E9" s="109">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E9" s="111">
+      <c r="F9" s="109">
         <v>0.68472222222222223</v>
       </c>
-      <c r="F9" s="111">
+      <c r="G9" s="109">
         <v>0.70138888888888884</v>
       </c>
-      <c r="G9" s="111">
+      <c r="H9" s="130">
+        <v>45443</v>
+      </c>
+      <c r="I9" s="109">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9" s="111">
+      <c r="J9" s="109">
         <v>0.60416666666666663</v>
       </c>
-      <c r="I9" s="111">
+      <c r="K9" s="109">
         <v>0.60555555555555551</v>
       </c>
-      <c r="J9" s="111">
+      <c r="L9" s="109">
         <v>0.60902777777777772</v>
       </c>
-      <c r="K9" s="111">
+      <c r="M9" s="109">
         <v>0.61250000000000004</v>
       </c>
-      <c r="L9" s="109">
+      <c r="N9" s="108">
         <v>0.61736111111111114</v>
       </c>
-      <c r="M9" s="111">
+      <c r="O9" s="109">
         <v>0.62291666666666667</v>
       </c>
-      <c r="N9" s="111">
+      <c r="P9" s="109">
         <v>0.62986111111111109</v>
       </c>
-      <c r="O9" s="111">
+      <c r="Q9" s="109">
         <v>0.63680555555555551</v>
       </c>
-      <c r="P9" s="111">
+      <c r="R9" s="109">
         <v>0.6430555555555556</v>
       </c>
-      <c r="Q9" s="109">
+      <c r="S9" s="108">
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="107" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="107">
         <v>9</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="130">
+        <v>45441</v>
+      </c>
+      <c r="D10" s="108">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D10" s="111">
+      <c r="E10" s="109">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E10" s="111">
+      <c r="F10" s="109">
         <v>0.39513888888888887</v>
       </c>
-      <c r="F10" s="111">
+      <c r="G10" s="109">
         <v>0.40625</v>
       </c>
-      <c r="G10" s="111">
+      <c r="H10" s="130">
+        <v>45442</v>
+      </c>
+      <c r="I10" s="109">
         <v>0.375</v>
       </c>
-      <c r="H10" s="111">
+      <c r="J10" s="109">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I10" s="111">
+      <c r="K10" s="109">
         <v>0.3972222222222222</v>
       </c>
-      <c r="J10" s="111">
+      <c r="L10" s="109">
         <v>0.40069444444444446</v>
       </c>
-      <c r="K10" s="111">
+      <c r="M10" s="109">
         <v>0.40416666666666667</v>
       </c>
-      <c r="L10" s="111">
+      <c r="N10" s="109">
         <v>0.40972222222222221</v>
       </c>
-      <c r="M10" s="111">
+      <c r="O10" s="109">
         <v>0.41597222222222224</v>
       </c>
-      <c r="N10" s="111">
+      <c r="P10" s="109">
         <v>0.42152777777777778</v>
       </c>
-      <c r="O10" s="111">
+      <c r="Q10" s="109">
         <v>0.42638888888888887</v>
       </c>
-      <c r="P10" s="111">
+      <c r="R10" s="109">
         <v>0.43194444444444446</v>
       </c>
-      <c r="Q10" s="109">
+      <c r="S10" s="108">
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="107" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="107">
         <v>10</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="130">
+        <v>45442</v>
+      </c>
+      <c r="D11" s="109">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D11" s="111">
+      <c r="E11" s="109">
         <v>0.4375</v>
       </c>
-      <c r="E11" s="111">
+      <c r="F11" s="109">
         <v>0.45069444444444445</v>
       </c>
-      <c r="F11" s="111">
+      <c r="G11" s="109">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G11" s="111">
+      <c r="H11" s="130">
+        <v>45443</v>
+      </c>
+      <c r="I11" s="109">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H11" s="111">
+      <c r="J11" s="109">
         <v>0.47083333333333333</v>
       </c>
-      <c r="I11" s="111">
+      <c r="K11" s="109">
         <v>0.47291666666666665</v>
       </c>
-      <c r="J11" s="111">
+      <c r="L11" s="109">
         <v>0.47708333333333336</v>
       </c>
-      <c r="K11" s="111">
+      <c r="M11" s="109">
         <v>0.47986111111111113</v>
       </c>
-      <c r="L11" s="111">
+      <c r="N11" s="109">
         <v>0.48472222222222222</v>
       </c>
-      <c r="M11" s="111">
+      <c r="O11" s="109">
         <v>0.49027777777777776</v>
       </c>
-      <c r="N11" s="111">
+      <c r="P11" s="109">
         <v>0.49513888888888891</v>
       </c>
-      <c r="O11" s="111">
+      <c r="Q11" s="109">
         <v>0.5</v>
       </c>
-      <c r="P11" s="111">
+      <c r="R11" s="109">
         <v>0.50624999999999998</v>
       </c>
-      <c r="Q11" s="109">
+      <c r="S11" s="108">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="107" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="107">
         <v>11</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="130">
+        <v>45446</v>
+      </c>
+      <c r="D12" s="109">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D12" s="111">
+      <c r="E12" s="109">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E12" s="111">
+      <c r="F12" s="109">
         <v>0.37152777777777779</v>
       </c>
-      <c r="F12" s="111">
+      <c r="G12" s="109">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G12" s="111">
+      <c r="H12" s="130">
+        <v>45447</v>
+      </c>
+      <c r="I12" s="109">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H12" s="111">
+      <c r="J12" s="109">
         <v>0.37013888888888891</v>
       </c>
-      <c r="I12" s="111">
+      <c r="K12" s="109">
         <v>0.37152777777777779</v>
       </c>
-      <c r="J12" s="111">
+      <c r="L12" s="109">
         <v>0.375</v>
       </c>
-      <c r="K12" s="111">
+      <c r="M12" s="109">
         <v>0.37986111111111109</v>
       </c>
-      <c r="L12" s="111">
+      <c r="N12" s="109">
         <v>0.38541666666666669</v>
       </c>
-      <c r="M12" s="111">
+      <c r="O12" s="109">
         <v>0.39027777777777778</v>
       </c>
-      <c r="N12" s="111">
+      <c r="P12" s="109">
         <v>0.39513888888888887</v>
       </c>
-      <c r="O12" s="111">
+      <c r="Q12" s="109">
         <v>0.4</v>
       </c>
-      <c r="P12" s="111">
+      <c r="R12" s="109">
         <v>0.40694444444444444</v>
       </c>
-      <c r="Q12" s="109">
+      <c r="S12" s="108">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="107" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="107">
         <v>12</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="130">
+        <v>45446</v>
+      </c>
+      <c r="D13" s="109">
         <v>0.5625</v>
       </c>
-      <c r="D13" s="111">
+      <c r="E13" s="109">
         <v>0.5708333333333333</v>
       </c>
-      <c r="E13" s="111">
+      <c r="F13" s="109">
         <v>0.58194444444444449</v>
       </c>
-      <c r="F13" s="111">
+      <c r="G13" s="109">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G13" s="111">
+      <c r="H13" s="130">
+        <v>45447</v>
+      </c>
+      <c r="I13" s="109">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H13" s="111">
+      <c r="J13" s="109">
         <v>0.56180555555555556</v>
       </c>
-      <c r="I13" s="111">
+      <c r="K13" s="109">
         <v>0.56319444444444444</v>
       </c>
-      <c r="J13" s="111">
+      <c r="L13" s="109">
         <v>0.56666666666666665</v>
       </c>
-      <c r="K13" s="111">
+      <c r="M13" s="109">
         <v>0.57013888888888886</v>
       </c>
-      <c r="L13" s="111">
+      <c r="N13" s="109">
         <v>0.57638888888888884</v>
       </c>
-      <c r="M13" s="111">
+      <c r="O13" s="109">
         <v>0.58263888888888893</v>
       </c>
-      <c r="N13" s="111">
+      <c r="P13" s="109">
         <v>0.58819444444444446</v>
       </c>
-      <c r="O13" s="111">
+      <c r="Q13" s="109">
         <v>0.59375</v>
       </c>
-      <c r="P13" s="111">
+      <c r="R13" s="109">
         <v>0.60138888888888886</v>
       </c>
-      <c r="Q13" s="109">
+      <c r="S13" s="108">
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="107">
         <v>13</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="130">
+        <v>45448</v>
+      </c>
+      <c r="D14" s="109">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D14" s="111">
+      <c r="E14" s="109">
         <v>0.40277777777777779</v>
       </c>
-      <c r="E14" s="111">
+      <c r="F14" s="109">
         <v>0.41458333333333336</v>
       </c>
-      <c r="F14" s="111">
+      <c r="G14" s="109">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G14" s="111">
+      <c r="H14" s="130">
+        <v>45449</v>
+      </c>
+      <c r="I14" s="109">
         <v>0.39374999999999999</v>
       </c>
-      <c r="H14" s="111">
+      <c r="J14" s="109">
         <v>0.4152777777777778</v>
       </c>
-      <c r="I14" s="111">
+      <c r="K14" s="109">
         <v>0.41597222222222224</v>
       </c>
-      <c r="J14" s="111">
+      <c r="L14" s="109">
         <v>0.41944444444444445</v>
       </c>
-      <c r="K14" s="111">
+      <c r="M14" s="109">
         <v>0.42291666666666666</v>
       </c>
-      <c r="L14" s="111">
+      <c r="N14" s="109">
         <v>0.42777777777777776</v>
       </c>
-      <c r="M14" s="111">
+      <c r="O14" s="109">
         <v>0.43194444444444446</v>
       </c>
-      <c r="N14" s="111">
+      <c r="P14" s="109">
         <v>0.4375</v>
       </c>
-      <c r="O14" s="111">
+      <c r="Q14" s="109">
         <v>0.44236111111111109</v>
       </c>
-      <c r="P14" s="111">
+      <c r="R14" s="109">
         <v>0.44930555555555557</v>
       </c>
-      <c r="Q14" s="109">
+      <c r="S14" s="108">
         <v>0.45624999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="81">
         <v>14</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="130">
+        <v>45449</v>
+      </c>
+      <c r="D15" s="109">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D15" s="111">
+      <c r="E15" s="109">
         <v>0.49652777777777779</v>
       </c>
-      <c r="E15" s="111">
+      <c r="F15" s="109">
         <v>0.50763888888888886</v>
       </c>
-      <c r="F15" s="111">
+      <c r="G15" s="109">
         <v>0.51388888888888884</v>
       </c>
-      <c r="G15" s="111">
+      <c r="H15" s="130">
+        <v>45450</v>
+      </c>
+      <c r="I15" s="109">
         <v>0.48055555555555557</v>
       </c>
-      <c r="H15" s="111">
+      <c r="J15" s="109">
         <v>0.4909722222222222</v>
       </c>
-      <c r="I15" s="111">
+      <c r="K15" s="109">
         <v>0.49166666666666664</v>
       </c>
-      <c r="J15" s="111">
+      <c r="L15" s="109">
         <v>0.49513888888888891</v>
       </c>
-      <c r="K15" s="111">
+      <c r="M15" s="109">
         <v>0.49791666666666667</v>
       </c>
-      <c r="L15" s="111">
+      <c r="N15" s="109">
         <v>0.50347222222222221</v>
       </c>
-      <c r="M15" s="111">
+      <c r="O15" s="109">
         <v>0.5083333333333333</v>
       </c>
-      <c r="N15" s="111">
+      <c r="P15" s="109">
         <v>0.51388888888888884</v>
       </c>
-      <c r="O15" s="111">
+      <c r="Q15" s="109">
         <v>0.51875000000000004</v>
       </c>
-      <c r="P15" s="111">
+      <c r="R15" s="109">
         <v>0.52430555555555558</v>
       </c>
-      <c r="Q15" s="109">
+      <c r="S15" s="108">
         <v>0.53263888888888888</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="81">
         <v>15</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="130">
+        <v>45449</v>
+      </c>
+      <c r="D16" s="109">
         <v>0.5625</v>
       </c>
-      <c r="D16" s="111">
+      <c r="E16" s="109">
         <v>0.56944444444444442</v>
       </c>
-      <c r="E16" s="111">
+      <c r="F16" s="109">
         <v>0.58194444444444449</v>
       </c>
-      <c r="F16" s="111">
+      <c r="G16" s="109">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G16" s="111">
+      <c r="H16" s="130">
+        <v>45450</v>
+      </c>
+      <c r="I16" s="109">
         <v>0.375</v>
       </c>
-      <c r="H16" s="111">
+      <c r="J16" s="109">
         <v>0.38680555555555557</v>
       </c>
-      <c r="I16" s="111">
+      <c r="K16" s="109">
         <v>0.38819444444444445</v>
       </c>
-      <c r="J16" s="111">
+      <c r="L16" s="109">
         <v>0.39097222222222222</v>
       </c>
-      <c r="K16" s="111">
+      <c r="M16" s="109">
         <v>0.3972222222222222</v>
       </c>
-      <c r="L16" s="111">
+      <c r="N16" s="109">
         <v>0.40208333333333335</v>
       </c>
-      <c r="M16" s="111">
+      <c r="O16" s="109">
         <v>0.40694444444444444</v>
       </c>
-      <c r="N16" s="111">
+      <c r="P16" s="109">
         <v>0.41249999999999998</v>
       </c>
-      <c r="O16" s="111">
+      <c r="Q16" s="109">
         <v>0.41736111111111113</v>
       </c>
-      <c r="P16" s="111">
+      <c r="R16" s="109">
         <v>0.42430555555555555</v>
       </c>
-      <c r="Q16" s="109">
+      <c r="S16" s="108">
         <v>0.43402777777777779</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="107" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="107">
         <v>16</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="130">
+        <v>45453</v>
+      </c>
+      <c r="D17" s="109">
         <v>0.37708333333333333</v>
       </c>
-      <c r="D17" s="111">
+      <c r="E17" s="109">
         <v>0.38611111111111113</v>
       </c>
-      <c r="E17" s="111">
+      <c r="F17" s="109">
         <v>0.40208333333333335</v>
       </c>
-      <c r="F17" s="111">
+      <c r="G17" s="109">
         <v>0.41111111111111109</v>
       </c>
-      <c r="G17" s="111">
+      <c r="H17" s="130">
+        <v>45454</v>
+      </c>
+      <c r="I17" s="109">
         <v>0.53819444444444442</v>
       </c>
-      <c r="H17" s="111">
+      <c r="J17" s="109">
         <v>0.55833333333333335</v>
       </c>
-      <c r="I17" s="111">
+      <c r="K17" s="109">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J17" s="111">
+      <c r="L17" s="109">
         <v>0.5625</v>
       </c>
-      <c r="K17" s="111">
+      <c r="M17" s="109">
         <v>0.56666666666666665</v>
       </c>
-      <c r="L17" s="111">
+      <c r="N17" s="109">
         <v>0.57152777777777775</v>
       </c>
-      <c r="M17" s="111">
+      <c r="O17" s="109">
         <v>0.57638888888888884</v>
       </c>
-      <c r="N17" s="111">
+      <c r="P17" s="109">
         <v>0.58125000000000004</v>
       </c>
-      <c r="O17" s="111">
+      <c r="Q17" s="109">
         <v>0.58611111111111114</v>
       </c>
-      <c r="P17" s="111">
+      <c r="R17" s="109">
         <v>0.59236111111111112</v>
       </c>
-      <c r="Q17" s="109">
+      <c r="S17" s="108">
         <v>0.60069444444444442</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="107">
         <v>17</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="130">
+        <v>45454</v>
+      </c>
+      <c r="D18" s="109">
         <v>0.375</v>
       </c>
-      <c r="D18" s="111">
+      <c r="E18" s="109">
         <v>0.38333333333333336</v>
       </c>
-      <c r="E18" s="111">
+      <c r="F18" s="109">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F18" s="111">
+      <c r="G18" s="109">
         <v>0.40625</v>
       </c>
-      <c r="G18" s="111">
+      <c r="H18" s="130">
+        <v>45455</v>
+      </c>
+      <c r="I18" s="109">
         <v>0.37152777777777779</v>
       </c>
-      <c r="H18" s="111">
+      <c r="J18" s="109">
         <v>0.38958333333333334</v>
       </c>
-      <c r="I18" s="111">
+      <c r="K18" s="109">
         <v>0.39097222222222222</v>
       </c>
-      <c r="J18" s="111">
+      <c r="L18" s="109">
         <v>0.39444444444444443</v>
       </c>
-      <c r="K18" s="111">
+      <c r="M18" s="109">
         <v>0.3972222222222222</v>
       </c>
-      <c r="L18" s="111">
+      <c r="N18" s="109">
         <v>0.40208333333333335</v>
       </c>
-      <c r="M18" s="111">
+      <c r="O18" s="109">
         <v>0.40694444444444444</v>
       </c>
-      <c r="N18" s="111">
+      <c r="P18" s="109">
         <v>0.41180555555555554</v>
       </c>
-      <c r="O18" s="111">
+      <c r="Q18" s="109">
         <v>0.41666666666666669</v>
       </c>
-      <c r="P18" s="111">
+      <c r="R18" s="109">
         <v>0.42430555555555555</v>
       </c>
-      <c r="Q18" s="109">
+      <c r="S18" s="108">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="107">
         <v>18</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="130">
+        <v>45454</v>
+      </c>
+      <c r="D19" s="109">
         <v>0.44305555555555554</v>
       </c>
-      <c r="D19" s="111">
+      <c r="E19" s="109">
         <v>0.45</v>
       </c>
-      <c r="E19" s="111">
+      <c r="F19" s="109">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F19" s="111">
+      <c r="G19" s="109">
         <v>0.47569444444444442</v>
       </c>
-      <c r="G19" s="111">
+      <c r="H19" s="130">
+        <v>45455</v>
+      </c>
+      <c r="I19" s="109">
         <v>0.47152777777777777</v>
       </c>
-      <c r="H19" s="111">
+      <c r="J19" s="109">
         <v>0.4826388888888889</v>
       </c>
-      <c r="I19" s="111">
+      <c r="K19" s="109">
         <v>0.48333333333333334</v>
       </c>
-      <c r="J19" s="111">
+      <c r="L19" s="109">
         <v>0.48680555555555555</v>
       </c>
-      <c r="K19" s="111">
+      <c r="M19" s="109">
         <v>0.49027777777777776</v>
       </c>
-      <c r="L19" s="111">
+      <c r="N19" s="109">
         <v>0.49513888888888891</v>
       </c>
-      <c r="M19" s="111">
+      <c r="O19" s="109">
         <v>0.5</v>
       </c>
-      <c r="N19" s="111">
+      <c r="P19" s="109">
         <v>0.50486111111111109</v>
       </c>
-      <c r="O19" s="111">
+      <c r="Q19" s="109">
         <v>0.50972222222222219</v>
       </c>
-      <c r="P19" s="111">
+      <c r="R19" s="109">
         <v>0.51458333333333328</v>
       </c>
-      <c r="Q19" s="109">
+      <c r="S19" s="108">
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="107" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="107">
         <v>19</v>
       </c>
-      <c r="C20" s="109">
+      <c r="C20" s="130">
+        <v>45455</v>
+      </c>
+      <c r="D20" s="108">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D20" s="111">
+      <c r="E20" s="109">
         <v>0.55486111111111114</v>
       </c>
-      <c r="E20" s="111">
+      <c r="F20" s="109">
         <v>0.57361111111111107</v>
       </c>
-      <c r="F20" s="111">
+      <c r="G20" s="109">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G20" s="111">
+      <c r="H20" s="130">
+        <v>45456</v>
+      </c>
+      <c r="I20" s="109">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H20" s="111">
+      <c r="J20" s="109">
         <v>0.55486111111111114</v>
       </c>
-      <c r="I20" s="111">
+      <c r="K20" s="109">
         <v>0.55555555555555558</v>
       </c>
-      <c r="J20" s="111">
+      <c r="L20" s="109">
         <v>0.55902777777777779</v>
       </c>
-      <c r="K20" s="111">
+      <c r="M20" s="109">
         <v>0.5625</v>
       </c>
-      <c r="L20" s="111">
+      <c r="N20" s="109">
         <v>0.56736111111111109</v>
       </c>
-      <c r="M20" s="111">
+      <c r="O20" s="109">
         <v>0.57222222222222219</v>
       </c>
-      <c r="N20" s="111">
+      <c r="P20" s="109">
         <v>0.57638888888888884</v>
       </c>
-      <c r="O20" s="111">
+      <c r="Q20" s="109">
         <v>0.58194444444444449</v>
       </c>
-      <c r="P20" s="111">
+      <c r="R20" s="109">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Q20" s="109">
+      <c r="S20" s="108">
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="107" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="107">
         <v>20</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21" s="130">
+        <v>45456</v>
+      </c>
+      <c r="D21" s="109">
         <v>0.40972222222222221</v>
       </c>
-      <c r="D21" s="111">
+      <c r="E21" s="109">
         <v>0.41805555555555557</v>
       </c>
-      <c r="E21" s="111">
+      <c r="F21" s="109">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F21" s="111">
+      <c r="G21" s="109">
         <v>0.4375</v>
       </c>
-      <c r="G21" s="111">
+      <c r="H21" s="130">
+        <v>45457</v>
+      </c>
+      <c r="I21" s="109">
         <v>0.43402777777777779</v>
       </c>
-      <c r="H21" s="111">
+      <c r="J21" s="109">
         <v>0.45208333333333334</v>
       </c>
-      <c r="I21" s="111">
+      <c r="K21" s="109">
         <v>0.45347222222222222</v>
       </c>
-      <c r="J21" s="111">
+      <c r="L21" s="109">
         <v>0.45624999999999999</v>
       </c>
-      <c r="K21" s="111">
+      <c r="M21" s="109">
         <v>0.4597222222222222</v>
       </c>
-      <c r="L21" s="111">
+      <c r="N21" s="109">
         <v>0.46597222222222223</v>
       </c>
-      <c r="M21" s="111">
+      <c r="O21" s="109">
         <v>0.47083333333333333</v>
       </c>
-      <c r="N21" s="111">
+      <c r="P21" s="109">
         <v>0.47638888888888886</v>
       </c>
-      <c r="O21" s="111">
+      <c r="Q21" s="109">
         <v>0.48125000000000001</v>
       </c>
-      <c r="P21" s="111">
+      <c r="R21" s="109">
         <v>0.48888888888888887</v>
       </c>
-      <c r="Q21" s="109">
+      <c r="S21" s="108">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="107" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="107">
         <v>21</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="130">
+        <v>45456</v>
+      </c>
+      <c r="D22" s="109">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D22" s="111">
+      <c r="E22" s="109">
         <v>0.71944444444444444</v>
       </c>
-      <c r="E22" s="111">
+      <c r="F22" s="109">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F22" s="111">
+      <c r="G22" s="109">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G22" s="111">
+      <c r="H22" s="130">
+        <v>45457</v>
+      </c>
+      <c r="I22" s="109">
         <v>0.5</v>
       </c>
-      <c r="H22" s="111">
+      <c r="J22" s="109">
         <v>0.51527777777777772</v>
       </c>
-      <c r="I22" s="111">
+      <c r="K22" s="109">
         <v>0.51736111111111116</v>
       </c>
-      <c r="J22" s="111">
+      <c r="L22" s="109">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K22" s="111">
+      <c r="M22" s="109">
         <v>0.52500000000000002</v>
       </c>
-      <c r="L22" s="111">
+      <c r="N22" s="109">
         <v>0.52986111111111112</v>
       </c>
-      <c r="M22" s="111">
+      <c r="O22" s="109">
         <v>0.53472222222222221</v>
       </c>
-      <c r="N22" s="111">
+      <c r="P22" s="109">
         <v>0.5395833333333333</v>
       </c>
-      <c r="O22" s="111">
+      <c r="Q22" s="109">
         <v>0.54374999999999996</v>
       </c>
-      <c r="P22" s="111">
+      <c r="R22" s="109">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q22" s="109">
+      <c r="S22" s="108">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="107">
         <v>22</v>
       </c>
-      <c r="C23" s="111">
+      <c r="C23" s="130">
+        <v>45460</v>
+      </c>
+      <c r="D23" s="109">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D23" s="111">
+      <c r="E23" s="109">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E23" s="111">
+      <c r="F23" s="109">
         <v>0.40069444444444446</v>
       </c>
-      <c r="F23" s="111">
+      <c r="G23" s="109">
         <v>0.40763888888888888</v>
       </c>
-      <c r="G23" s="111">
+      <c r="H23" s="130">
+        <v>45461</v>
+      </c>
+      <c r="I23" s="109">
         <v>0.37777777777777777</v>
       </c>
-      <c r="H23" s="111">
+      <c r="J23" s="109">
         <v>0.39166666666666666</v>
       </c>
-      <c r="I23" s="111">
+      <c r="K23" s="109">
         <v>0.39374999999999999</v>
       </c>
-      <c r="J23" s="111">
+      <c r="L23" s="109">
         <v>0.3972222222222222</v>
       </c>
-      <c r="K23" s="111">
+      <c r="M23" s="109">
         <v>0.40069444444444446</v>
       </c>
-      <c r="L23" s="111">
+      <c r="N23" s="109">
         <v>0.40694444444444444</v>
       </c>
-      <c r="M23" s="111">
+      <c r="O23" s="109">
         <v>0.41249999999999998</v>
       </c>
-      <c r="N23" s="111">
+      <c r="P23" s="109">
         <v>0.41805555555555557</v>
       </c>
-      <c r="O23" s="111">
+      <c r="Q23" s="109">
         <v>0.4236111111111111</v>
       </c>
-      <c r="P23" s="111">
+      <c r="R23" s="109">
         <v>0.43055555555555558</v>
       </c>
-      <c r="Q23" s="109">
+      <c r="S23" s="108">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="107" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="107">
         <v>23</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="130">
+        <v>45460</v>
+      </c>
+      <c r="D24" s="109">
         <v>0.42083333333333334</v>
       </c>
-      <c r="D24" s="111">
+      <c r="E24" s="109">
         <v>0.42986111111111114</v>
       </c>
-      <c r="E24" s="111">
+      <c r="F24" s="109">
         <v>0.44583333333333336</v>
       </c>
-      <c r="F24" s="111">
+      <c r="G24" s="109">
         <v>0.4513888888888889</v>
       </c>
-      <c r="G24" s="111">
+      <c r="H24" s="130">
+        <v>45461</v>
+      </c>
+      <c r="I24" s="109">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H24" s="111">
+      <c r="J24" s="109">
         <v>0.47152777777777777</v>
       </c>
-      <c r="I24" s="111">
+      <c r="K24" s="109">
         <v>0.47361111111111109</v>
       </c>
-      <c r="J24" s="111">
+      <c r="L24" s="109">
         <v>0.4777777777777778</v>
       </c>
-      <c r="K24" s="111">
+      <c r="M24" s="109">
         <v>0.48125000000000001</v>
       </c>
-      <c r="L24" s="111">
+      <c r="N24" s="109">
         <v>0.4861111111111111</v>
       </c>
-      <c r="M24" s="109">
+      <c r="O24" s="108">
         <v>0.4909722222222222</v>
       </c>
-      <c r="N24" s="111">
+      <c r="P24" s="109">
         <v>0.49652777777777779</v>
       </c>
-      <c r="O24" s="111">
+      <c r="Q24" s="109">
         <v>0.50138888888888888</v>
       </c>
-      <c r="P24" s="111">
+      <c r="R24" s="109">
         <v>0.5083333333333333</v>
       </c>
-      <c r="Q24" s="111">
+      <c r="S24" s="109">
         <v>0.51388888888888884</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="107" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="107">
         <v>24</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="130">
+        <v>45461</v>
+      </c>
+      <c r="D25" s="109">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D25" s="111">
+      <c r="E25" s="109">
         <v>0.6020833333333333</v>
       </c>
-      <c r="E25" s="111">
+      <c r="F25" s="109">
         <v>0.6118055555555556</v>
       </c>
-      <c r="F25" s="111">
+      <c r="G25" s="109">
         <v>0.625</v>
       </c>
-      <c r="G25" s="111">
+      <c r="H25" s="130">
+        <v>45462</v>
+      </c>
+      <c r="I25" s="109">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H25" s="111">
+      <c r="J25" s="109">
         <v>0.43680555555555556</v>
       </c>
-      <c r="I25" s="111">
+      <c r="K25" s="109">
         <v>0.43888888888888888</v>
       </c>
-      <c r="J25" s="111">
+      <c r="L25" s="109">
         <v>0.44166666666666665</v>
       </c>
-      <c r="K25" s="111">
+      <c r="M25" s="109">
         <v>0.44583333333333336</v>
       </c>
-      <c r="L25" s="111">
+      <c r="N25" s="109">
         <v>0.4513888888888889</v>
       </c>
-      <c r="M25" s="111">
+      <c r="O25" s="109">
         <v>0.45694444444444443</v>
       </c>
-      <c r="N25" s="111">
+      <c r="P25" s="109">
         <v>0.46250000000000002</v>
       </c>
-      <c r="O25" s="111">
+      <c r="Q25" s="109">
         <v>0.46805555555555556</v>
       </c>
-      <c r="P25" s="111">
+      <c r="R25" s="109">
         <v>0.48125000000000001</v>
       </c>
-      <c r="Q25" s="109">
+      <c r="S25" s="108">
         <v>0.48819444444444443</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="107">
         <v>25</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="130">
+        <v>45462</v>
+      </c>
+      <c r="D26" s="109">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D26" s="111">
+      <c r="E26" s="109">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E26" s="111">
+      <c r="F26" s="109">
         <v>0.55763888888888891</v>
       </c>
-      <c r="F26" s="111">
+      <c r="G26" s="109">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G26" s="111">
+      <c r="H26" s="130">
+        <v>45463</v>
+      </c>
+      <c r="I26" s="109">
         <v>0.4375</v>
       </c>
-      <c r="H26" s="111">
+      <c r="J26" s="109">
         <v>0.45347222222222222</v>
       </c>
-      <c r="I26" s="111">
+      <c r="K26" s="109">
         <v>0.4548611111111111</v>
       </c>
-      <c r="J26" s="111">
+      <c r="L26" s="109">
         <v>0.4597222222222222</v>
       </c>
-      <c r="K26" s="111">
+      <c r="M26" s="109">
         <v>0.46250000000000002</v>
       </c>
-      <c r="L26" s="111">
+      <c r="N26" s="109">
         <v>0.46736111111111112</v>
       </c>
-      <c r="M26" s="111">
+      <c r="O26" s="109">
         <v>0.47222222222222221</v>
       </c>
-      <c r="N26" s="111">
+      <c r="P26" s="109">
         <v>0.47708333333333336</v>
       </c>
-      <c r="O26" s="111">
+      <c r="Q26" s="109">
         <v>0.48194444444444445</v>
       </c>
-      <c r="P26" s="111">
+      <c r="R26" s="109">
         <v>0.4909722222222222</v>
       </c>
-      <c r="Q26" s="109">
+      <c r="S26" s="108">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="107">
         <v>26</v>
       </c>
-      <c r="C27" s="111">
+      <c r="C27" s="130">
+        <v>45462</v>
+      </c>
+      <c r="D27" s="109">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D27" s="111">
+      <c r="E27" s="109">
         <v>0.60347222222222219</v>
       </c>
-      <c r="E27" s="111">
+      <c r="F27" s="109">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F27" s="111">
+      <c r="G27" s="109">
         <v>0.625</v>
       </c>
-      <c r="G27" s="111">
+      <c r="H27" s="130">
+        <v>45463</v>
+      </c>
+      <c r="I27" s="109">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H27" s="111">
+      <c r="J27" s="109">
         <v>0.6</v>
       </c>
-      <c r="I27" s="111">
+      <c r="K27" s="109">
         <v>0.60069444444444442</v>
       </c>
-      <c r="J27" s="111">
+      <c r="L27" s="109">
         <v>0.60486111111111107</v>
       </c>
-      <c r="K27" s="111">
+      <c r="M27" s="109">
         <v>0.60902777777777772</v>
       </c>
-      <c r="L27" s="111">
+      <c r="N27" s="109">
         <v>0.61458333333333337</v>
       </c>
-      <c r="M27" s="111">
+      <c r="O27" s="109">
         <v>0.62430555555555556</v>
       </c>
-      <c r="N27" s="111">
+      <c r="P27" s="109">
         <v>0.62986111111111109</v>
       </c>
-      <c r="O27" s="111">
+      <c r="Q27" s="109">
         <v>0.63472222222222219</v>
       </c>
-      <c r="P27" s="111">
+      <c r="R27" s="109">
         <v>0.64097222222222228</v>
       </c>
-      <c r="Q27" s="109">
+      <c r="S27" s="108">
         <v>0.64930555555555558</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="107" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="107">
         <v>27</v>
       </c>
-      <c r="C28" s="111">
+      <c r="C28" s="130">
+        <v>45463</v>
+      </c>
+      <c r="D28" s="109">
         <v>0.375</v>
       </c>
-      <c r="D28" s="111">
+      <c r="E28" s="109">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E28" s="111">
+      <c r="F28" s="109">
         <v>0.40347222222222223</v>
       </c>
-      <c r="F28" s="111">
+      <c r="G28" s="109">
         <v>0.41319444444444442</v>
       </c>
-      <c r="G28" s="111">
+      <c r="H28" s="130">
+        <v>45464</v>
+      </c>
+      <c r="I28" s="109">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H28" s="111">
+      <c r="J28" s="109">
         <v>0.55694444444444446</v>
       </c>
-      <c r="I28" s="111">
+      <c r="K28" s="109">
         <v>0.55972222222222223</v>
       </c>
-      <c r="J28" s="111">
+      <c r="L28" s="109">
         <v>0.56388888888888888</v>
       </c>
-      <c r="K28" s="111">
+      <c r="M28" s="109">
         <v>0.56736111111111109</v>
       </c>
-      <c r="L28" s="111">
+      <c r="N28" s="109">
         <v>0.57222222222222219</v>
       </c>
-      <c r="M28" s="111">
+      <c r="O28" s="109">
         <v>0.57708333333333328</v>
       </c>
-      <c r="N28" s="111">
+      <c r="P28" s="109">
         <v>0.58194444444444449</v>
       </c>
-      <c r="O28" s="111">
+      <c r="Q28" s="109">
         <v>0.58750000000000002</v>
       </c>
-      <c r="P28" s="111">
+      <c r="R28" s="109">
         <v>0.59444444444444444</v>
       </c>
-      <c r="Q28" s="109">
+      <c r="S28" s="108">
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="107" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="107">
         <v>28</v>
       </c>
-      <c r="C29" s="111">
+      <c r="C29" s="130">
+        <v>45467</v>
+      </c>
+      <c r="D29" s="109">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D29" s="111">
+      <c r="E29" s="109">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E29" s="111">
+      <c r="F29" s="109">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F29" s="111">
+      <c r="G29" s="109">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G29" s="111">
+      <c r="H29" s="130">
+        <v>45468</v>
+      </c>
+      <c r="I29" s="109">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H29" s="111">
+      <c r="J29" s="109">
         <v>0.68333333333333335</v>
       </c>
-      <c r="I29" s="111">
+      <c r="K29" s="109">
         <v>0.68472222222222223</v>
       </c>
-      <c r="J29" s="111">
+      <c r="L29" s="109">
         <v>0.6875</v>
       </c>
-      <c r="K29" s="111">
+      <c r="M29" s="109">
         <v>0.69305555555555554</v>
       </c>
-      <c r="L29" s="111">
+      <c r="N29" s="109">
         <v>0.69722222222222219</v>
       </c>
-      <c r="M29" s="111">
+      <c r="O29" s="109">
         <v>0.70277777777777772</v>
       </c>
-      <c r="N29" s="111">
+      <c r="P29" s="109">
         <v>0.70763888888888893</v>
       </c>
-      <c r="O29" s="111">
+      <c r="Q29" s="109">
         <v>0.71250000000000002</v>
       </c>
-      <c r="P29" s="111">
+      <c r="R29" s="109">
         <v>0.71875</v>
       </c>
-      <c r="Q29" s="109">
+      <c r="S29" s="108">
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="107">
         <v>29</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="130">
+        <v>45467</v>
+      </c>
+      <c r="D30" s="109">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D30" s="111">
+      <c r="E30" s="109">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E30" s="111">
+      <c r="F30" s="109">
         <v>0.64513888888888893</v>
       </c>
-      <c r="F30" s="111">
+      <c r="G30" s="109">
         <v>0.65277777777777779</v>
       </c>
-      <c r="G30" s="111">
+      <c r="H30" s="130">
+        <v>45468</v>
+      </c>
+      <c r="I30" s="109">
         <v>0.5625</v>
       </c>
-      <c r="H30" s="111">
+      <c r="J30" s="109">
         <v>0.57847222222222228</v>
       </c>
-      <c r="I30" s="111">
+      <c r="K30" s="109">
         <v>0.57986111111111116</v>
       </c>
-      <c r="J30" s="111">
+      <c r="L30" s="109">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K30" s="111">
+      <c r="M30" s="109">
         <v>0.58750000000000002</v>
       </c>
-      <c r="L30" s="111">
+      <c r="N30" s="109">
         <v>0.59236111111111112</v>
       </c>
-      <c r="M30" s="111">
+      <c r="O30" s="109">
         <v>0.59652777777777777</v>
       </c>
-      <c r="N30" s="111">
+      <c r="P30" s="109">
         <v>0.6020833333333333</v>
       </c>
-      <c r="O30" s="111">
+      <c r="Q30" s="109">
         <v>0.6069444444444444</v>
       </c>
-      <c r="P30" s="111">
+      <c r="R30" s="109">
         <v>0.61458333333333337</v>
       </c>
-      <c r="Q30" s="109">
+      <c r="S30" s="108">
         <v>0.625</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="107" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="107">
         <v>30</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="130">
+        <v>45469</v>
+      </c>
+      <c r="D31" s="109">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D31" s="111">
+      <c r="E31" s="109">
         <v>0.43611111111111112</v>
       </c>
-      <c r="E31" s="111">
+      <c r="F31" s="109">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F31" s="111">
+      <c r="G31" s="109">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G31" s="111">
+      <c r="H31" s="130">
+        <v>45470</v>
+      </c>
+      <c r="I31" s="109">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H31" s="111">
+      <c r="J31" s="109">
         <v>0.44374999999999998</v>
       </c>
-      <c r="I31" s="111">
+      <c r="K31" s="109">
         <v>0.44444444444444442</v>
       </c>
-      <c r="J31" s="111">
+      <c r="L31" s="109">
         <v>0.44861111111111113</v>
       </c>
-      <c r="K31" s="111">
+      <c r="M31" s="109">
         <v>0.45277777777777778</v>
       </c>
-      <c r="L31" s="111">
+      <c r="N31" s="109">
         <v>0.45833333333333331</v>
       </c>
-      <c r="M31" s="111">
+      <c r="O31" s="109">
         <v>0.46319444444444446</v>
       </c>
-      <c r="N31" s="111">
+      <c r="P31" s="109">
         <v>0.46875</v>
       </c>
-      <c r="O31" s="111">
+      <c r="Q31" s="109">
         <v>0.47430555555555554</v>
       </c>
-      <c r="P31" s="111">
+      <c r="R31" s="109">
         <v>0.4826388888888889</v>
       </c>
-      <c r="Q31" s="109">
+      <c r="S31" s="108">
         <v>0.49652777777777779</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="107" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="107">
         <v>31</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="130">
+        <v>45469</v>
+      </c>
+      <c r="D32" s="109">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D32" s="111">
+      <c r="E32" s="109">
         <v>0.6069444444444444</v>
       </c>
-      <c r="E32" s="111">
+      <c r="F32" s="109">
         <v>0.62083333333333335</v>
       </c>
-      <c r="F32" s="111">
+      <c r="G32" s="109">
         <v>0.625</v>
       </c>
-      <c r="G32" s="111">
+      <c r="H32" s="130">
+        <v>45470</v>
+      </c>
+      <c r="I32" s="109">
         <v>0.5625</v>
       </c>
-      <c r="H32" s="111">
+      <c r="J32" s="109">
         <v>0.5756944444444444</v>
       </c>
-      <c r="I32" s="111">
+      <c r="K32" s="109">
         <v>0.57708333333333328</v>
       </c>
-      <c r="J32" s="111">
+      <c r="L32" s="109">
         <v>0.5805555555555556</v>
       </c>
-      <c r="K32" s="111">
+      <c r="M32" s="109">
         <v>0.58402777777777781</v>
       </c>
-      <c r="L32" s="111">
+      <c r="N32" s="109">
         <v>0.58888888888888891</v>
       </c>
-      <c r="M32" s="111">
+      <c r="O32" s="109">
         <v>0.59375</v>
       </c>
-      <c r="N32" s="111">
+      <c r="P32" s="109">
         <v>0.59861111111111109</v>
       </c>
-      <c r="O32" s="111">
+      <c r="Q32" s="109">
         <v>0.60416666666666663</v>
       </c>
-      <c r="P32" s="111">
+      <c r="R32" s="109">
         <v>0.61111111111111116</v>
       </c>
-      <c r="Q32" s="109">
+      <c r="S32" s="108">
         <v>0.625</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="107" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="107">
         <v>32</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="130">
+        <v>45470</v>
+      </c>
+      <c r="D33" s="109">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D33" s="111">
+      <c r="E33" s="109">
         <v>0.69444444444444442</v>
       </c>
-      <c r="E33" s="111">
+      <c r="F33" s="109">
         <v>0.70694444444444449</v>
       </c>
-      <c r="F33" s="111">
+      <c r="G33" s="109">
         <v>0.71875</v>
       </c>
-      <c r="G33" s="111">
+      <c r="H33" s="130">
+        <v>45471</v>
+      </c>
+      <c r="I33" s="109">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H33" s="111">
+      <c r="J33" s="109">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I33" s="111">
+      <c r="K33" s="109">
         <v>0.35555555555555557</v>
       </c>
-      <c r="J33" s="111">
+      <c r="L33" s="109">
         <v>0.35902777777777778</v>
       </c>
-      <c r="K33" s="111">
+      <c r="M33" s="109">
         <v>0.36249999999999999</v>
       </c>
-      <c r="L33" s="111">
+      <c r="N33" s="109">
         <v>0.36736111111111114</v>
       </c>
-      <c r="M33" s="111">
+      <c r="O33" s="109">
         <v>0.37291666666666667</v>
       </c>
-      <c r="N33" s="111">
+      <c r="P33" s="109">
         <v>0.37777777777777777</v>
       </c>
-      <c r="O33" s="111">
+      <c r="Q33" s="109">
         <v>0.38333333333333336</v>
       </c>
-      <c r="P33" s="111">
+      <c r="R33" s="109">
         <v>0.39097222222222222</v>
       </c>
-      <c r="Q33" s="109">
+      <c r="S33" s="108">
         <v>0.39930555555555558</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="107" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="90">
         <v>33</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="130">
+        <v>45474</v>
+      </c>
+      <c r="D34" s="109">
         <v>0.625</v>
       </c>
-      <c r="D34" s="111">
+      <c r="E34" s="109">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E34" s="111">
+      <c r="F34" s="109">
         <v>0.65208333333333335</v>
       </c>
-      <c r="F34" s="111">
+      <c r="G34" s="109">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G34" s="111">
+      <c r="H34" s="130">
+        <v>45475</v>
+      </c>
+      <c r="I34" s="109">
         <v>0.40625</v>
       </c>
-      <c r="H34" s="111">
+      <c r="J34" s="109">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I34" s="111">
+      <c r="K34" s="109">
         <v>0.42152777777777778</v>
       </c>
-      <c r="J34" s="111">
+      <c r="L34" s="109">
         <v>0.42569444444444443</v>
       </c>
-      <c r="K34" s="111">
+      <c r="M34" s="109">
         <v>0.4284722222222222</v>
       </c>
-      <c r="L34" s="111">
+      <c r="N34" s="109">
         <v>0.43333333333333335</v>
       </c>
-      <c r="M34" s="111">
+      <c r="O34" s="109">
         <v>0.43888888888888888</v>
       </c>
-      <c r="N34" s="111">
+      <c r="P34" s="109">
         <v>0.44374999999999998</v>
       </c>
-      <c r="O34" s="111">
+      <c r="Q34" s="109">
         <v>0.44861111111111113</v>
       </c>
-      <c r="P34" s="111">
+      <c r="R34" s="109">
         <v>0.4548611111111111</v>
       </c>
-      <c r="Q34" s="109">
+      <c r="S34" s="108">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="107" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="107">
         <v>34</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="130">
+        <v>45474</v>
+      </c>
+      <c r="D35" s="109">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D35" s="111">
+      <c r="E35" s="109">
         <v>0.71944444444444444</v>
       </c>
-      <c r="E35" s="111">
+      <c r="F35" s="109">
         <v>0.73124999999999996</v>
       </c>
-      <c r="F35" s="111">
+      <c r="G35" s="109">
         <v>0.74305555555555558</v>
       </c>
-      <c r="G35" s="111">
+      <c r="H35" s="130">
+        <v>45475</v>
+      </c>
+      <c r="I35" s="109">
         <v>0.69444444444444442</v>
       </c>
-      <c r="H35" s="111">
+      <c r="J35" s="109">
         <v>0.71527777777777779</v>
       </c>
-      <c r="I35" s="111">
+      <c r="K35" s="109">
         <v>0.71666666666666667</v>
       </c>
-      <c r="J35" s="111">
+      <c r="L35" s="109">
         <v>0.72083333333333333</v>
       </c>
-      <c r="K35" s="111">
+      <c r="M35" s="109">
         <v>0.72430555555555554</v>
       </c>
-      <c r="L35" s="111">
+      <c r="N35" s="109">
         <v>0.72916666666666663</v>
       </c>
-      <c r="M35" s="111">
+      <c r="O35" s="109">
         <v>0.73472222222222228</v>
       </c>
-      <c r="N35" s="111">
+      <c r="P35" s="109">
         <v>0.73958333333333337</v>
       </c>
-      <c r="O35" s="111">
+      <c r="Q35" s="109">
         <v>0.74513888888888891</v>
       </c>
-      <c r="P35" s="111">
+      <c r="R35" s="109">
         <v>0.75208333333333333</v>
       </c>
-      <c r="Q35" s="109">
+      <c r="S35" s="108">
         <v>0.76041666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="107" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="107">
         <v>35</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="130">
+        <v>45475</v>
+      </c>
+      <c r="D36" s="109">
         <v>0.5625</v>
       </c>
-      <c r="D36" s="111">
+      <c r="E36" s="109">
         <v>0.57638888888888884</v>
       </c>
-      <c r="E36" s="111">
+      <c r="F36" s="109">
         <v>0.58958333333333335</v>
       </c>
-      <c r="F36" s="111">
+      <c r="G36" s="109">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G36" s="111">
+      <c r="H36" s="130">
+        <v>45476</v>
+      </c>
+      <c r="I36" s="109">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H36" s="111">
+      <c r="J36" s="109">
         <v>0.58194444444444449</v>
       </c>
-      <c r="I36" s="111">
+      <c r="K36" s="109">
         <v>0.58611111111111114</v>
       </c>
-      <c r="J36" s="111">
+      <c r="L36" s="109">
         <v>0.58958333333333335</v>
       </c>
-      <c r="K36" s="111">
+      <c r="M36" s="109">
         <v>0.59444444444444444</v>
       </c>
-      <c r="L36" s="111">
+      <c r="N36" s="109">
         <v>0.59930555555555554</v>
       </c>
-      <c r="M36" s="111">
+      <c r="O36" s="109">
         <v>0.60416666666666663</v>
       </c>
-      <c r="N36" s="111">
+      <c r="P36" s="109">
         <v>0.61111111111111116</v>
       </c>
-      <c r="O36" s="111">
+      <c r="Q36" s="109">
         <v>0.62152777777777779</v>
       </c>
-      <c r="P36" s="111">
+      <c r="R36" s="109">
         <v>0.62777777777777777</v>
       </c>
-      <c r="Q36" s="109">
+      <c r="S36" s="108">
         <v>0.63888888888888884</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="107" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="107">
         <v>36</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="130">
+        <v>45477</v>
+      </c>
+      <c r="D37" s="109">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D37" s="111">
+      <c r="E37" s="109">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E37" s="111">
+      <c r="F37" s="109">
         <v>0.45347222222222222</v>
       </c>
-      <c r="F37" s="111">
+      <c r="G37" s="109">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G37" s="111">
+      <c r="H37" s="130">
+        <v>45478</v>
+      </c>
+      <c r="I37" s="109">
         <v>0.38194444444444442</v>
       </c>
-      <c r="H37" s="111">
+      <c r="J37" s="109">
         <v>0.39652777777777776</v>
       </c>
-      <c r="I37" s="111">
+      <c r="K37" s="109">
         <v>0.39791666666666664</v>
       </c>
-      <c r="J37" s="111">
+      <c r="L37" s="109">
         <v>0.40138888888888891</v>
       </c>
-      <c r="K37" s="111">
+      <c r="M37" s="109">
         <v>0.40625</v>
       </c>
-      <c r="L37" s="111">
+      <c r="N37" s="109">
         <v>0.41041666666666665</v>
       </c>
-      <c r="M37" s="111">
+      <c r="O37" s="109">
         <v>0.4152777777777778</v>
       </c>
-      <c r="N37" s="111">
+      <c r="P37" s="109">
         <v>0.42083333333333334</v>
       </c>
-      <c r="O37" s="111">
+      <c r="Q37" s="109">
         <v>0.42569444444444443</v>
       </c>
-      <c r="P37" s="111">
+      <c r="R37" s="109">
         <v>0.43194444444444446</v>
       </c>
-      <c r="Q37" s="109">
+      <c r="S37" s="108">
         <v>0.44097222222222221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q37" xr:uid="{B7A5247D-4E00-4B4A-AEA2-655372E0F049}"/>
+  <autoFilter ref="A1:S37" xr:uid="{B7A5247D-4E00-4B4A-AEA2-655372E0F049}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
